--- a/Вычислительная математика/Практическая работа 4/Расчёты по практике №4.xlsx
+++ b/Вычислительная математика/Практическая работа 4/Расчёты по практике №4.xlsx
@@ -138,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,8 +154,25 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,6 +230,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -355,9 +396,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -393,12 +431,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -418,6 +450,72 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1193,27 +1291,41 @@
             <c:v>Точное значение</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -1314,27 +1426,41 @@
             <c:v>Значения для метода Рунге-Кутты IV-го порядка</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -1451,9 +1577,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1469,9 +1596,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1485,9 +1611,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1513,9 +1638,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1531,9 +1657,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1547,9 +1672,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1573,18 +1697,9 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.5640093423034549"/>
-          <c:y val="0.28696411730050625"/>
-          <c:w val="0.4077838594447209"/>
-          <c:h val="0.58841729037654389"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1597,11 +1712,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1626,11 +1740,17 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -2779,56 +2899,46 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2836,16 +2946,15 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2855,23 +2964,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2879,63 +2983,123 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -2959,21 +3123,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2983,20 +3144,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3008,14 +3168,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3027,14 +3186,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3046,14 +3204,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -3065,9 +3217,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3084,9 +3237,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3098,14 +3252,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="lt1">
             <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3117,14 +3270,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3136,27 +3288,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3164,9 +3315,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3176,14 +3326,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3195,12 +3344,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3209,14 +3357,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="25400" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3225,9 +3374,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3237,17 +3385,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3259,37 +3408,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4632,7 +4774,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>6006</xdr:rowOff>
+      <xdr:rowOff>38663</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3841531" cy="361856"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4650,7 +4792,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9932276" y="6006"/>
+              <a:off x="12061371" y="38663"/>
               <a:ext cx="3841531" cy="361856"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4959,7 +5101,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4992,7 +5134,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9932276" y="6006"/>
+              <a:off x="12061371" y="38663"/>
               <a:ext cx="3841531" cy="361856"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5055,19 +5197,7 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>2𝑢=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑥</a:t>
+                <a:t>2𝑢=2𝑥</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
@@ -5173,7 +5303,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5253,7 +5383,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13776629" y="378681"/>
+              <a:off x="14061077" y="377734"/>
               <a:ext cx="2629562" cy="342899"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5304,7 +5434,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -5318,7 +5448,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5331,7 +5461,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5345,7 +5475,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5359,7 +5489,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -5371,7 +5501,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -5385,7 +5515,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5398,7 +5528,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5412,7 +5542,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -5426,7 +5556,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5439,7 +5569,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5453,7 +5583,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5467,7 +5597,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -5479,7 +5609,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -5493,7 +5623,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5506,7 +5636,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5520,7 +5650,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -5532,7 +5662,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -5544,7 +5674,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -5571,7 +5701,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13776629" y="378681"/>
+              <a:off x="14061077" y="377734"/>
               <a:ext cx="2629562" cy="342899"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5620,7 +5750,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5642,8 +5772,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3247208" cy="381000"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -5960,7 +6090,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5979,7 +6109,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -6165,8 +6295,8 @@
       <xdr:rowOff>172278</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2629562" cy="342899"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -6231,7 +6361,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6245,7 +6375,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6258,7 +6388,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6272,7 +6402,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6286,7 +6416,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6298,7 +6428,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6312,7 +6442,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6325,7 +6455,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6339,7 +6469,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6353,7 +6483,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6366,7 +6496,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6380,7 +6510,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6394,7 +6524,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6406,7 +6536,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6420,7 +6550,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6433,7 +6563,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6447,7 +6577,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6459,7 +6589,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6471,7 +6601,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6484,7 +6614,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -6569,8 +6699,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2629562" cy="342899"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -6635,7 +6765,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6649,7 +6779,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6662,7 +6792,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6676,7 +6806,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6690,7 +6820,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6702,7 +6832,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6716,7 +6846,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6729,7 +6859,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6743,7 +6873,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6757,7 +6887,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6770,7 +6900,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6784,7 +6914,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6798,7 +6928,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6810,7 +6940,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6824,7 +6954,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6837,7 +6967,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6851,7 +6981,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6863,7 +6993,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6875,7 +7005,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6888,7 +7018,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -8822,10 +8952,10 @@
       <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="41"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="9" t="s">
         <v>2</v>
       </c>
@@ -9411,11 +9541,11 @@
       <c r="M14" s="14"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
@@ -9633,15 +9763,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.109375" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" customWidth="1"/>
+    <col min="3" max="3" width="44.109375" customWidth="1"/>
+    <col min="4" max="4" width="44.21875" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" customWidth="1"/>
@@ -9667,1931 +9797,1960 @@
     <col min="37" max="37" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="22" t="s">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="65" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C2" s="38" t="s">
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="21" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="66" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="17"/>
+      <c r="M3" s="55"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="47">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="48">
         <v>0</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="48">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="48">
         <f>D45</f>
         <v>1.8186613472629567</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="48">
         <f>$B$5 * (D4)</f>
         <v>0.18186613472629568</v>
       </c>
-      <c r="F4" s="1">
-        <f>$B$5 * (-D4 + 2 * C4 + 2 * B4)</f>
-        <v>-0.18186613472629568</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4" s="48">
+        <f>$B$5 * (2 * D4 - 2 * C4 + 2 * B4)</f>
+        <v>0.36373226945259135</v>
+      </c>
+      <c r="G4" s="48">
         <f>$B$5 * (D4 + F4 / 2)</f>
-        <v>0.17277282798998089</v>
-      </c>
-      <c r="H4" s="1">
-        <f>$B$5 * (-(D4 + F4 / 2) + 2 *(C4 + E4 / 2) + 2 * (B4 + $B$5/2))</f>
-        <v>-0.14458621451735129</v>
-      </c>
-      <c r="I4" s="1">
+        <v>0.20005274819892527</v>
+      </c>
+      <c r="H4" s="48">
+        <f>$B$5 * (2 * (D4 + F4 / 2) - 2 * (C4 + E4 / 2) + 2 * (B4 + $B$5/2))</f>
+        <v>0.39191888292522092</v>
+      </c>
+      <c r="I4" s="48">
         <f>$B$5 * (D4 + H4 / 2)</f>
-        <v>0.17463682400042813</v>
-      </c>
-      <c r="J4" s="1">
-        <f>$B$5 * (-(D4 + H4 / 2) + 2 *(C4 + G4 / 2) + 2 * (B4 + $B$5/2))</f>
-        <v>-0.14735954120142999</v>
-      </c>
-      <c r="K4" s="1">
+        <v>0.20146207887255674</v>
+      </c>
+      <c r="J4" s="48">
+        <f>$B$5 * (2 * (D4 + H4 / 2) - 2 * (C4 + G4 / 2) + 2 * (B4 + $B$5/2))</f>
+        <v>0.39291888292522098</v>
+      </c>
+      <c r="K4" s="48">
         <f>$B$5 * (D4 + J4)</f>
-        <v>0.1671301806061527</v>
-      </c>
-      <c r="L4" s="1">
-        <f>$B$5 * (-(D4 + J4) + 2 *(C4 + I4)  + 2 * (B4 + $B$5))</f>
-        <v>-0.11220281580606706</v>
-      </c>
-      <c r="M4" s="18">
+        <v>0.22115802301881776</v>
+      </c>
+      <c r="L4" s="48">
+        <f>$B$5 * (2 * (D4 + J4) - 2 *(C4 + I4)  + 2 * (B4 + $B$5))</f>
+        <v>0.42202363026312417</v>
+      </c>
+      <c r="M4" s="49">
         <f xml:space="preserve"> -EXP(B4) * COS(B4) + EXP(B4) * SIN(B4) + B4 + 1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="47">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="48">
         <f>B4 + 1 / 10</f>
         <v>0.1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="48">
         <f>C4 + (E4 + 2*G4 + 2*I4 + K4) / 6</f>
-        <v>0.1739692698855444</v>
-      </c>
-      <c r="D5" s="1">
+        <v>0.2010089686480129</v>
+      </c>
+      <c r="D5" s="48">
         <f>D4 + (F4 + 2 * H4 + 2 * J4 + L4)/6</f>
-        <v>1.6723346036013025</v>
-      </c>
-      <c r="E5" s="1">
+        <v>2.2112332524990563</v>
+      </c>
+      <c r="E5" s="48">
         <f t="shared" ref="E5:E14" si="0">$B$5 * (D5)</f>
-        <v>0.16723346036013026</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" ref="F5:F14" si="1">$B$5 * (-D5 + 2 * C5 + 2 * B5)</f>
-        <v>-0.11243960638302138</v>
-      </c>
-      <c r="G5" s="1">
+        <v>0.22112332524990563</v>
+      </c>
+      <c r="F5" s="48">
+        <f t="shared" ref="F5:F14" si="1">$B$5 * (2 * D5 - 2 * C5 + 2 * B5)</f>
+        <v>0.42204485677020875</v>
+      </c>
+      <c r="G5" s="48">
         <f t="shared" ref="G5:G14" si="2">$B$5 * (D5 + F5 / 2)</f>
-        <v>0.16161148004097919</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" ref="H5:H14" si="3">$B$5 * (-(D5 + F5 / 2) + 2 *(C5 + E5 / 2) + 2 * (B5 + $B$5/2))</f>
-        <v>-8.009428002785729E-2</v>
-      </c>
-      <c r="I5" s="1">
+        <v>0.24222556808841611</v>
+      </c>
+      <c r="H5" s="48">
+        <f t="shared" ref="H5:H14" si="3">$B$5 * (2 * (D5 + F5 / 2) - 2 * (C5 + E5 / 2) + 2 * (B5 + $B$5/2))</f>
+        <v>0.45213700992223904</v>
+      </c>
+      <c r="I5" s="48">
         <f t="shared" ref="I5:I14" si="4">$B$5 * (D5 + H5 / 2)</f>
-        <v>0.16322874635873741</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" ref="J5:J14" si="5">$B$5 * (-(D5 + H5 / 2) + 2 *(C5 + G5 / 2) + 2 * (B5 + $B$5/2))</f>
-        <v>-8.22737443775306E-2</v>
-      </c>
-      <c r="K5" s="1">
+        <v>0.24373017574601763</v>
+      </c>
+      <c r="J5" s="48">
+        <f t="shared" ref="J5:J14" si="5">$B$5 * (2 * (D5 + H5 / 2) - 2 * (C5 + G5 / 2) + 2 * (B5 + $B$5/2))</f>
+        <v>0.45303600095359098</v>
+      </c>
+      <c r="K5" s="48">
         <f t="shared" ref="K5:K14" si="6">$B$5 * (D5 + J5)</f>
-        <v>0.15900608592237719</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" ref="L5:L14" si="7">$B$5 * (-(D5 + J5) + 2 *(C5 + I5)  + 2 * (B5 + $B$5))</f>
-        <v>-5.1566482673520833E-2</v>
-      </c>
-      <c r="M5" s="18">
+        <v>0.26642692534526474</v>
+      </c>
+      <c r="L5" s="48">
+        <f t="shared" ref="L5:L14" si="7">$B$5 * (2 * (D5 + J5) - 2 *(C5 + I5)  + 2 * (B5 + $B$5))</f>
+        <v>0.48390602181172349</v>
+      </c>
+      <c r="M5" s="49">
         <f t="shared" ref="M5:M14" si="8" xml:space="preserve"> -EXP(B5) * COS(B5) + EXP(B5) * SIN(B5) + B5 + 1</f>
         <v>0.11068332190079433</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="47">
         <v>2</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="48">
         <f t="shared" ref="B6:B14" si="9">B5 + 1 / 10</f>
         <v>0.2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="48">
         <f t="shared" ref="C6:C14" si="10">C5 + (E5 + 2*G5 + 2*I5 + K5) / 6</f>
-        <v>0.33662260306586789</v>
-      </c>
-      <c r="D6" s="1">
+        <v>0.44425259169201919</v>
+      </c>
+      <c r="D6" s="48">
         <f t="shared" ref="D6:D14" si="11">D5 + (F5 + 2 * H5 + 2 * J5 + L5)/6</f>
-        <v>1.5908775806234161</v>
-      </c>
-      <c r="E6" s="1">
+        <v>2.6639494025546551</v>
+      </c>
+      <c r="E6" s="48">
         <f t="shared" si="0"/>
-        <v>0.15908775806234163</v>
-      </c>
-      <c r="F6" s="1">
+        <v>0.26639494025546551</v>
+      </c>
+      <c r="F6" s="48">
         <f t="shared" si="1"/>
-        <v>-5.1763237449168033E-2</v>
-      </c>
-      <c r="G6" s="1">
+        <v>0.48393936217252725</v>
+      </c>
+      <c r="G6" s="48">
         <f t="shared" si="2"/>
-        <v>0.15649959618988321</v>
-      </c>
-      <c r="H6" s="1">
+        <v>0.29059190836409188</v>
+      </c>
+      <c r="H6" s="48">
         <f t="shared" si="3"/>
-        <v>-2.3266299770475465E-2</v>
-      </c>
-      <c r="I6" s="1">
+        <v>0.51569380436423329</v>
+      </c>
+      <c r="I6" s="48">
         <f t="shared" si="4"/>
-        <v>0.15792444307381784</v>
-      </c>
-      <c r="J6" s="1">
+        <v>0.29217963047367718</v>
+      </c>
+      <c r="J6" s="48">
         <f t="shared" si="5"/>
-        <v>-2.4949962841655939E-2</v>
-      </c>
-      <c r="K6" s="1">
+        <v>0.51644955177254137</v>
+      </c>
+      <c r="K6" s="48">
         <f t="shared" si="6"/>
-        <v>0.15659276177817605</v>
-      </c>
-      <c r="L6" s="1">
+        <v>0.31803989543271965</v>
+      </c>
+      <c r="L6" s="48">
         <f t="shared" si="7"/>
-        <v>2.3166474497611222E-3</v>
-      </c>
-      <c r="M6" s="18">
+        <v>0.54879334643229993</v>
+      </c>
+      <c r="M6" s="49">
         <f t="shared" si="8"/>
         <v>0.24559924723903159</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="47">
         <v>3</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="48">
         <f t="shared" si="9"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="48">
         <f t="shared" si="10"/>
-        <v>0.49404403612718784</v>
-      </c>
-      <c r="D7" s="1">
+        <v>0.73591557725263979</v>
+      </c>
+      <c r="D7" s="48">
         <f t="shared" si="11"/>
-        <v>1.5665643947528045</v>
-      </c>
-      <c r="E7" s="1">
+        <v>3.1801193060343844</v>
+      </c>
+      <c r="E7" s="48">
         <f t="shared" si="0"/>
-        <v>0.15665643947528046</v>
-      </c>
-      <c r="F7" s="1">
+        <v>0.31801193060343846</v>
+      </c>
+      <c r="F7" s="48">
         <f t="shared" si="1"/>
-        <v>2.1523677501571249E-3</v>
-      </c>
-      <c r="G7" s="1">
+        <v>0.548840745756349</v>
+      </c>
+      <c r="G7" s="48">
         <f t="shared" si="2"/>
-        <v>0.15676405786278833</v>
-      </c>
-      <c r="H7" s="1">
+        <v>0.34545396789125593</v>
+      </c>
+      <c r="H7" s="48">
         <f t="shared" si="3"/>
-        <v>2.7710393310177318E-2</v>
-      </c>
-      <c r="I7" s="1">
+        <v>0.58192362727164004</v>
+      </c>
+      <c r="I7" s="48">
         <f t="shared" si="4"/>
-        <v>0.15804195914078933</v>
-      </c>
-      <c r="J7" s="1">
+        <v>0.34710811196702046</v>
+      </c>
+      <c r="J7" s="48">
         <f t="shared" si="5"/>
-        <v>2.6443253870927087E-2</v>
-      </c>
-      <c r="K7" s="1">
+        <v>0.58248771169438729</v>
+      </c>
+      <c r="K7" s="48">
         <f t="shared" si="6"/>
-        <v>0.15930076486237318</v>
-      </c>
-      <c r="L7" s="1">
+        <v>0.37626070177287718</v>
+      </c>
+      <c r="L7" s="48">
         <f t="shared" si="7"/>
-        <v>5.1116434191222276E-2</v>
-      </c>
-      <c r="M7" s="18">
+        <v>0.61591666570182235</v>
+      </c>
+      <c r="M7" s="49">
         <f t="shared" si="8"/>
         <v>0.40934117973355399</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="47">
         <v>4</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="48">
         <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="48">
         <f t="shared" si="10"/>
-        <v>0.65163890918465595</v>
-      </c>
-      <c r="D8" s="1">
+        <v>1.0824817092681178</v>
+      </c>
+      <c r="D8" s="48">
         <f t="shared" si="11"/>
-        <v>1.5934937441367358</v>
-      </c>
-      <c r="E8" s="1">
+        <v>3.762382654266089</v>
+      </c>
+      <c r="E8" s="48">
         <f t="shared" si="0"/>
-        <v>0.15934937441367358</v>
-      </c>
-      <c r="F8" s="1">
+        <v>0.37623826542660893</v>
+      </c>
+      <c r="F8" s="48">
         <f t="shared" si="1"/>
-        <v>5.0978407423257613E-2</v>
-      </c>
-      <c r="G8" s="1">
+        <v>0.61598018899959428</v>
+      </c>
+      <c r="G8" s="48">
         <f t="shared" si="2"/>
-        <v>0.16189829478483647</v>
-      </c>
-      <c r="H8" s="1">
+        <v>0.40703727487658869</v>
+      </c>
+      <c r="H8" s="48">
         <f t="shared" si="3"/>
-        <v>7.4364424493462089E-2</v>
-      </c>
-      <c r="I8" s="1">
+        <v>0.64995438135689287</v>
+      </c>
+      <c r="I8" s="48">
         <f t="shared" si="4"/>
-        <v>0.16306759563834672</v>
-      </c>
-      <c r="J8" s="1">
+        <v>0.40873598449445353</v>
+      </c>
+      <c r="J8" s="48">
         <f t="shared" si="5"/>
-        <v>7.3450015677068145E-2</v>
-      </c>
-      <c r="K8" s="1">
+        <v>0.65027189964762466</v>
+      </c>
+      <c r="K8" s="48">
         <f t="shared" si="6"/>
-        <v>0.1666943759813804</v>
-      </c>
-      <c r="L8" s="1">
+        <v>0.44126545539137141</v>
+      </c>
+      <c r="L8" s="48">
         <f t="shared" si="7"/>
-        <v>9.6246924983220142E-2</v>
-      </c>
-      <c r="M8" s="18">
+        <v>0.68428737203022849</v>
+      </c>
+      <c r="M8" s="49">
         <f t="shared" si="8"/>
         <v>0.60688236188304534</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="47">
         <v>5</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="48">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="48">
         <f t="shared" si="10"/>
-        <v>0.81430149772489269</v>
-      </c>
-      <c r="D9" s="1">
+        <v>1.4906567491947953</v>
+      </c>
+      <c r="D9" s="48">
         <f t="shared" si="11"/>
-        <v>1.6673027795946589</v>
-      </c>
-      <c r="E9" s="1">
+        <v>4.4125026747725649</v>
+      </c>
+      <c r="E9" s="48">
         <f t="shared" si="0"/>
-        <v>0.16673027795946591</v>
-      </c>
-      <c r="F9" s="1">
+        <v>0.44125026747725649</v>
+      </c>
+      <c r="F9" s="48">
         <f t="shared" si="1"/>
-        <v>9.6130021585512648E-2</v>
-      </c>
-      <c r="G9" s="1">
+        <v>0.68436918511555389</v>
+      </c>
+      <c r="G9" s="48">
         <f t="shared" si="2"/>
-        <v>0.17153677903874154</v>
-      </c>
-      <c r="H9" s="1">
+        <v>0.4754687267330342</v>
+      </c>
+      <c r="H9" s="48">
         <f t="shared" si="3"/>
-        <v>0.11799654830218363</v>
-      </c>
-      <c r="I9" s="1">
+        <v>0.71868107687938354</v>
+      </c>
+      <c r="I9" s="48">
         <f t="shared" si="4"/>
-        <v>0.17263010537457507</v>
-      </c>
-      <c r="J9" s="1">
+        <v>0.47718432132122568</v>
+      </c>
+      <c r="J9" s="48">
         <f t="shared" si="5"/>
-        <v>0.11738387207427764</v>
-      </c>
-      <c r="K9" s="1">
+        <v>0.7186904201301888</v>
+      </c>
+      <c r="K9" s="48">
         <f t="shared" si="6"/>
-        <v>0.17846866516689366</v>
-      </c>
-      <c r="L9" s="1">
+        <v>0.5131193094902754</v>
+      </c>
+      <c r="L9" s="48">
         <f t="shared" si="7"/>
-        <v>0.13891765545299989</v>
-      </c>
-      <c r="M9" s="18">
+        <v>0.7526704048773466</v>
+      </c>
+      <c r="M9" s="49">
         <f t="shared" si="8"/>
         <v>0.84355004662944555</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="47">
         <v>6</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="48">
         <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="48">
         <f t="shared" si="10"/>
-        <v>0.98655694971705821</v>
-      </c>
-      <c r="D10" s="1">
+        <v>1.9672693613741372</v>
+      </c>
+      <c r="D10" s="48">
         <f t="shared" si="11"/>
-        <v>1.7849375325598982</v>
-      </c>
-      <c r="E10" s="1">
+        <v>5.131133105441239</v>
+      </c>
+      <c r="E10" s="48">
         <f t="shared" si="0"/>
-        <v>0.17849375325598982</v>
-      </c>
-      <c r="F10" s="1">
+        <v>0.5131133105441239</v>
+      </c>
+      <c r="F10" s="48">
         <f t="shared" si="1"/>
-        <v>0.13881763668742184</v>
-      </c>
-      <c r="G10" s="1">
+        <v>0.75277274881342038</v>
+      </c>
+      <c r="G10" s="48">
         <f t="shared" si="2"/>
-        <v>0.18543463509036093</v>
-      </c>
-      <c r="H10" s="1">
+        <v>0.55075194798479499</v>
+      </c>
+      <c r="H10" s="48">
         <f t="shared" si="3"/>
-        <v>0.15972613017864973</v>
-      </c>
-      <c r="I10" s="1">
+        <v>0.78673869264035012</v>
+      </c>
+      <c r="I10" s="48">
         <f t="shared" si="4"/>
-        <v>0.18648005976492232</v>
-      </c>
-      <c r="J10" s="1">
+        <v>0.55245024517614139</v>
+      </c>
+      <c r="J10" s="48">
         <f t="shared" si="5"/>
-        <v>0.15937479368752544</v>
-      </c>
-      <c r="K10" s="1">
+        <v>0.78637142327897591</v>
+      </c>
+      <c r="K10" s="48">
         <f t="shared" si="6"/>
-        <v>0.19443123262474238</v>
-      </c>
-      <c r="L10" s="1">
+        <v>0.59175045287202155</v>
+      </c>
+      <c r="L10" s="48">
         <f t="shared" si="7"/>
-        <v>0.18017616927165372</v>
-      </c>
-      <c r="M10" s="18">
+        <v>0.81955698443398739</v>
+      </c>
+      <c r="M10" s="49">
         <f t="shared" si="8"/>
         <v>1.1249861257133058</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="47">
         <v>7</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="48">
         <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="48">
         <f t="shared" si="10"/>
-        <v>1.1726826789822746</v>
-      </c>
-      <c r="D11" s="1">
+        <v>2.5191473863304736</v>
+      </c>
+      <c r="D11" s="48">
         <f t="shared" si="11"/>
-        <v>1.9444701415084691</v>
-      </c>
-      <c r="E11" s="1">
+        <v>5.9175580996222488</v>
+      </c>
+      <c r="E11" s="48">
         <f t="shared" si="0"/>
-        <v>0.19444701415084692</v>
-      </c>
-      <c r="F11" s="1">
+        <v>0.59175580996222488</v>
+      </c>
+      <c r="F11" s="48">
         <f t="shared" si="1"/>
-        <v>0.18008952164560801</v>
-      </c>
-      <c r="G11" s="1">
+        <v>0.81968214265835515</v>
+      </c>
+      <c r="G11" s="48">
         <f t="shared" si="2"/>
-        <v>0.20345149023312731</v>
-      </c>
-      <c r="H11" s="1">
+        <v>0.63273991709514266</v>
+      </c>
+      <c r="H11" s="48">
         <f t="shared" si="3"/>
-        <v>0.20052974697841233</v>
-      </c>
-      <c r="I11" s="1">
+        <v>0.85247477592796805</v>
+      </c>
+      <c r="I11" s="48">
         <f t="shared" si="4"/>
-        <v>0.20447350149976753</v>
-      </c>
-      <c r="J11" s="1">
+        <v>0.63437954875862335</v>
+      </c>
+      <c r="J11" s="48">
         <f t="shared" si="5"/>
-        <v>0.20040818332000013</v>
-      </c>
-      <c r="K11" s="1">
+        <v>0.85165562854163745</v>
+      </c>
+      <c r="K11" s="48">
         <f t="shared" si="6"/>
-        <v>0.21448783248284695</v>
-      </c>
-      <c r="L11" s="1">
+        <v>0.67692137281638864</v>
+      </c>
+      <c r="L11" s="48">
         <f t="shared" si="7"/>
-        <v>0.22094340361356155</v>
-      </c>
-      <c r="M11" s="18">
+        <v>0.88313735861495779</v>
+      </c>
+      <c r="M11" s="49">
         <f t="shared" si="8"/>
         <v>1.4570920864434889</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="47">
         <v>8</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="48">
         <f t="shared" si="9"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="48">
         <f t="shared" si="10"/>
-        <v>1.3768134839988553</v>
-      </c>
-      <c r="D12" s="1">
+        <v>3.1529667387448312</v>
+      </c>
+      <c r="D12" s="48">
         <f t="shared" si="11"/>
-        <v>2.1449549391511349</v>
-      </c>
-      <c r="E12" s="1">
+        <v>6.7694048179910027</v>
+      </c>
+      <c r="E12" s="48">
         <f t="shared" si="0"/>
-        <v>0.21449549391511349</v>
-      </c>
-      <c r="F12" s="1">
+        <v>0.67694048179910027</v>
+      </c>
+      <c r="F12" s="48">
         <f t="shared" si="1"/>
-        <v>0.22086720288465758</v>
-      </c>
-      <c r="G12" s="1">
+        <v>0.88328761584923443</v>
+      </c>
+      <c r="G12" s="48">
         <f t="shared" si="2"/>
-        <v>0.22553885405934637</v>
-      </c>
-      <c r="H12" s="1">
+        <v>0.72110486259156203</v>
+      </c>
+      <c r="H12" s="48">
         <f t="shared" si="3"/>
-        <v>0.24127339213193608</v>
-      </c>
-      <c r="I12" s="1">
+        <v>0.91392232925424777</v>
+      </c>
+      <c r="I12" s="48">
         <f t="shared" si="4"/>
-        <v>0.22655916352171032</v>
-      </c>
-      <c r="J12" s="1">
+        <v>0.7226365982618127</v>
+      </c>
+      <c r="J12" s="48">
         <f t="shared" si="5"/>
-        <v>0.24135741868399541</v>
-      </c>
-      <c r="K12" s="1">
+        <v>0.91256936251550291</v>
+      </c>
+      <c r="K12" s="48">
         <f t="shared" si="6"/>
-        <v>0.23863123578351303</v>
-      </c>
-      <c r="L12" s="1">
+        <v>0.76819741805065067</v>
+      </c>
+      <c r="L12" s="48">
         <f t="shared" si="7"/>
-        <v>0.26204329372060009</v>
-      </c>
-      <c r="M12" s="18">
+        <v>0.94127416869997238</v>
+      </c>
+      <c r="M12" s="49">
         <f t="shared" si="8"/>
         <v>1.8459560437928282</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="47">
         <v>9</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="48">
         <f t="shared" si="9"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="48">
         <f t="shared" si="10"/>
-        <v>1.6030339448089785</v>
-      </c>
-      <c r="D13" s="1">
+        <v>3.8750702090042481</v>
+      </c>
+      <c r="D13" s="48">
         <f t="shared" si="11"/>
-        <v>2.3863169588573214</v>
-      </c>
-      <c r="E13" s="1">
+        <v>7.6823290126724544</v>
+      </c>
+      <c r="E13" s="48">
         <f t="shared" si="0"/>
-        <v>0.23863169588573216</v>
-      </c>
-      <c r="F13" s="1">
+        <v>0.76823290126724553</v>
+      </c>
+      <c r="F13" s="48">
         <f t="shared" si="1"/>
-        <v>0.26197509307606354</v>
-      </c>
-      <c r="G13" s="1">
+        <v>0.94145176073364123</v>
+      </c>
+      <c r="G13" s="48">
         <f t="shared" si="2"/>
-        <v>0.25173045053953536</v>
-      </c>
-      <c r="H13" s="1">
+        <v>0.81530548930392754</v>
+      </c>
+      <c r="H13" s="48">
         <f t="shared" si="3"/>
-        <v>0.28273950801083358</v>
-      </c>
-      <c r="I13" s="1">
+        <v>0.96877364668028099</v>
+      </c>
+      <c r="I13" s="48">
         <f t="shared" si="4"/>
-        <v>0.25276867128627384</v>
-      </c>
-      <c r="J13" s="1">
+        <v>0.81667158360125947</v>
+      </c>
+      <c r="J13" s="48">
         <f t="shared" si="5"/>
-        <v>0.28301116272947541</v>
-      </c>
-      <c r="K13" s="1">
+        <v>0.96679857647127665</v>
+      </c>
+      <c r="K13" s="48">
         <f t="shared" si="6"/>
-        <v>0.2669328121586797</v>
-      </c>
-      <c r="L13" s="1">
+        <v>0.86491275891437314</v>
+      </c>
+      <c r="L13" s="48">
         <f t="shared" si="7"/>
-        <v>0.30422771106037083</v>
-      </c>
-      <c r="M13" s="18">
+        <v>0.99147715930764468</v>
+      </c>
+      <c r="M13" s="49">
         <f t="shared" si="8"/>
         <v>2.2977594920880176</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="47">
         <v>10</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="48">
         <f t="shared" si="9"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="48">
         <f t="shared" si="10"/>
-        <v>1.8554610700916503</v>
-      </c>
-      <c r="D14" s="1">
+        <v>4.6912535100029134</v>
+      </c>
+      <c r="D14" s="48">
         <f t="shared" si="11"/>
-        <v>2.6692676497934968</v>
-      </c>
-      <c r="E14" s="1">
+        <v>8.6496745737298539</v>
+      </c>
+      <c r="E14" s="48">
         <f t="shared" si="0"/>
-        <v>0.2669267649793497</v>
-      </c>
-      <c r="F14" s="1">
+        <v>0.86496745737298542</v>
+      </c>
+      <c r="F14" s="48">
         <f t="shared" si="1"/>
-        <v>0.30416544903898041</v>
-      </c>
-      <c r="G14" s="1">
+        <v>0.9916842127453882</v>
+      </c>
+      <c r="G14" s="48">
         <f t="shared" si="2"/>
-        <v>0.2821350374312987</v>
-      </c>
-      <c r="H14" s="1">
+        <v>0.91455166801025478</v>
+      </c>
+      <c r="H14" s="48">
         <f t="shared" si="3"/>
-        <v>0.3256498530849663</v>
-      </c>
-      <c r="I14" s="1">
+        <v>1.0143558882826282</v>
+      </c>
+      <c r="I14" s="48">
         <f t="shared" si="4"/>
-        <v>0.283209257633598</v>
-      </c>
-      <c r="J14" s="1">
+        <v>0.91568525178711691</v>
+      </c>
+      <c r="J14" s="48">
         <f t="shared" si="5"/>
-        <v>0.32609646012786192</v>
-      </c>
-      <c r="K14" s="1">
+        <v>1.0116646347726257</v>
+      </c>
+      <c r="K14" s="48">
         <f t="shared" si="6"/>
-        <v>0.29953641099213585</v>
-      </c>
-      <c r="L14" s="1">
+        <v>0.96613392085024796</v>
+      </c>
+      <c r="L14" s="48">
         <f t="shared" si="7"/>
-        <v>0.34819765455291374</v>
-      </c>
-      <c r="M14" s="18">
+        <v>1.0308800893424896</v>
+      </c>
+      <c r="M14" s="49">
         <f t="shared" si="8"/>
         <v>2.8186613472629567</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C15" s="37" t="s">
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51" t="s">
         <v>29</v>
       </c>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
     </row>
-    <row r="16" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="M16" s="17"/>
+      <c r="M16" s="55"/>
     </row>
-    <row r="17" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+    <row r="17" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="47">
         <v>0</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="48">
         <v>0</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="48">
         <v>0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="48">
         <f>D46</f>
         <v>2.3186613472629567</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="48">
         <f>$B$5 * (D17)</f>
         <v>0.23186613472629569</v>
       </c>
-      <c r="F17" s="1">
-        <f>$B$5 * (-D17 + 2 * C17 + 2 * B17)</f>
-        <v>-0.23186613472629569</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="F17" s="48">
+        <f>$B$5 * (2 * D17 - 2 * C17 + 2 * B17)</f>
+        <v>0.46373226945259138</v>
+      </c>
+      <c r="G17" s="48">
         <f>$B$5 * (D17 + F17 / 2)</f>
-        <v>0.22027282798998088</v>
-      </c>
-      <c r="H17" s="1">
-        <f>$B$5 * (-(D17 + F17 / 2) + 2 *(C17 + E17 / 2) + 2 * (B17 + $B$5/2))</f>
-        <v>-0.1870862145173513</v>
-      </c>
-      <c r="I17" s="1">
+        <v>0.25505274819892526</v>
+      </c>
+      <c r="H17" s="48">
+        <f>$B$5 * (2 * (D17 + F17 / 2) - 2 * (C17 + E17 / 2) + 2 * (B17 + $B$5/2))</f>
+        <v>0.49691888292522085</v>
+      </c>
+      <c r="I17" s="48">
         <f>$B$5 * (D17 + H17 / 2)</f>
-        <v>0.22251182400042813</v>
-      </c>
-      <c r="J17" s="1">
-        <f>$B$5 * (-(D17 + H17 / 2) + 2 *(C17 + G17 / 2) + 2 * (B17 + $B$5/2))</f>
-        <v>-0.19048454120142999</v>
-      </c>
-      <c r="K17" s="1">
+        <v>0.2567120788725567</v>
+      </c>
+      <c r="J17" s="48">
+        <f>$B$5 * (2 * (D17 + H17 / 2) - 2 * (C17 + G17 / 2) + 2 * (B17 + $B$5/2))</f>
+        <v>0.49791888292522091</v>
+      </c>
+      <c r="K17" s="48">
         <f>$B$5 * (D17 + J17)</f>
-        <v>0.21281768060615269</v>
-      </c>
-      <c r="L17" s="1">
-        <f>$B$5 * (-(D17 + J17) + 2 *(C17 + I17)  + 2 * (B17 + $B$5))</f>
-        <v>-0.14831531580606705</v>
-      </c>
-      <c r="M17" s="18">
+        <v>0.28165802301881776</v>
+      </c>
+      <c r="L17" s="48">
+        <f>$B$5 * (2 * (D17 + J17) - 2 *(C17 + I17)  + 2 * (B17 + $B$5))</f>
+        <v>0.53197363026312416</v>
+      </c>
+      <c r="M17" s="49">
         <f xml:space="preserve"> -EXP(B17) * COS(B17) + EXP(B17) * SIN(B17) + B17 + 1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="47">
         <v>1</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="48">
         <f>B17 + 1 / 10</f>
         <v>0.1</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="48">
         <f>C17 + (E17 + 2*G17 + 2*I17 + K17) / 6</f>
-        <v>0.22170885321887771</v>
-      </c>
-      <c r="D18" s="1">
+        <v>0.25617563531467957</v>
+      </c>
+      <c r="D18" s="48">
         <f>D17 + (F17 + 2 * H17 + 2 * J17 + L17)/6</f>
-        <v>2.1294408536013023</v>
-      </c>
-      <c r="E18" s="1">
+        <v>2.8162249191657232</v>
+      </c>
+      <c r="E18" s="48">
         <f t="shared" ref="E18:E27" si="12">$B$5 * (D18)</f>
-        <v>0.21294408536013024</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" ref="F18:F27" si="13">$B$5 * (-D18 + 2 * C18 + 2 * B18)</f>
-        <v>-0.14860231471635471</v>
-      </c>
-      <c r="G18" s="1">
+        <v>0.28162249191657235</v>
+      </c>
+      <c r="F18" s="48">
+        <f t="shared" ref="F18:F27" si="13">$B$5 * (2 * D18 - 2 * C18 + 2 * B18)</f>
+        <v>0.53200985677020873</v>
+      </c>
+      <c r="G18" s="48">
         <f t="shared" ref="G18:G27" si="14">$B$5 * (D18 + F18 / 2)</f>
-        <v>0.20551396962431251</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" ref="H18:H27" si="15">$B$5 * (-(D18 + F18 / 2) + 2 *(C18 + E18 / 2) + 2 * (B18 + $B$5/2))</f>
-        <v>-0.10987779044452393</v>
-      </c>
-      <c r="I18" s="1">
+        <v>0.30822298475508281</v>
+      </c>
+      <c r="H18" s="48">
+        <f t="shared" ref="H18:H27" si="15">$B$5 * (2 * (D18 + F18 / 2) - 2 * (C18 + E18 / 2) + 2 * (B18 + $B$5/2))</f>
+        <v>0.56704859325557233</v>
+      </c>
+      <c r="I18" s="48">
         <f t="shared" ref="I18:I27" si="16">$B$5 * (D18 + H18 / 2)</f>
-        <v>0.20745019583790403</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" ref="J18:J27" si="17">$B$5 * (-(D18 + H18 / 2) + 2 *(C18 + G18 / 2) + 2 * (B18 + $B$5/2))</f>
-        <v>-0.11255702823169725</v>
-      </c>
-      <c r="K18" s="1">
+        <v>0.30997492157935097</v>
+      </c>
+      <c r="J18" s="48">
+        <f t="shared" ref="J18:J27" si="17">$B$5 * (2 * (D18 + H18 / 2) - 2 * (C18 + G18 / 2) + 2 * (B18 + $B$5/2))</f>
+        <v>0.56789241762025766</v>
+      </c>
+      <c r="K18" s="48">
         <f t="shared" ref="K18:K27" si="18">$B$5 * (D18 + J18)</f>
-        <v>0.20168838253696053</v>
-      </c>
-      <c r="L18" s="1">
-        <f t="shared" ref="L18:L27" si="19">$B$5 * (-(D18 + J18) + 2 *(C18 + I18)  + 2 * (B18 + $B$5))</f>
-        <v>-7.5856572725604171E-2</v>
-      </c>
-      <c r="M18" s="18">
+        <v>0.33841173367859811</v>
+      </c>
+      <c r="L18" s="48">
+        <f t="shared" ref="L18:L27" si="19">$B$5 * (2 * (D18 + J18) - 2 *(C18 + I18)  + 2 * (B18 + $B$5))</f>
+        <v>0.60359335597839014</v>
+      </c>
+      <c r="M18" s="49">
         <f t="shared" ref="M18:M27" si="20" xml:space="preserve"> -EXP(B18) * COS(B18) + EXP(B18) * SIN(B18) + B18 + 1</f>
         <v>0.11068332190079433</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="47">
         <v>2</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="48">
         <f t="shared" ref="B19:B27" si="21">B18 + 1 / 10</f>
         <v>0.2</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="48">
         <f t="shared" ref="C19:C27" si="22">C18 + (E18 + 2*G18 + 2*I18 + K18) / 6</f>
-        <v>0.42846898635579833</v>
-      </c>
-      <c r="D19" s="1">
+        <v>0.56558064169201927</v>
+      </c>
+      <c r="D19" s="48">
         <f t="shared" ref="D19:D27" si="23">D18 + (F18 + 2 * H18 + 2 * J18 + L18)/6</f>
-        <v>2.0178860994689023</v>
-      </c>
-      <c r="E19" s="1">
+        <v>3.3838057915824331</v>
+      </c>
+      <c r="E19" s="48">
         <f t="shared" si="12"/>
-        <v>0.20178860994689024</v>
-      </c>
-      <c r="F19" s="1">
+        <v>0.33838057915824332</v>
+      </c>
+      <c r="F19" s="48">
         <f t="shared" si="13"/>
-        <v>-7.6094812675730567E-2</v>
-      </c>
-      <c r="G19" s="1">
+        <v>0.60364502997808289</v>
+      </c>
+      <c r="G19" s="48">
         <f t="shared" si="14"/>
-        <v>0.19798386931310372</v>
-      </c>
-      <c r="H19" s="1">
+        <v>0.36856283065714746</v>
+      </c>
+      <c r="H19" s="48">
         <f t="shared" si="15"/>
-        <v>-4.2111211047255015E-2</v>
-      </c>
-      <c r="I19" s="1">
+        <v>0.64017147506006677</v>
+      </c>
+      <c r="I19" s="48">
         <f t="shared" si="16"/>
-        <v>0.1996830493945275</v>
-      </c>
-      <c r="J19" s="1">
+        <v>0.37038915291124663</v>
+      </c>
+      <c r="J19" s="48">
         <f t="shared" si="17"/>
-        <v>-4.4190865192057442E-2</v>
-      </c>
-      <c r="K19" s="1">
+        <v>0.64080589441837477</v>
+      </c>
+      <c r="K19" s="48">
         <f t="shared" si="18"/>
-        <v>0.19736952342768449</v>
-      </c>
-      <c r="L19" s="1">
+        <v>0.40246116860008085</v>
+      </c>
+      <c r="L19" s="48">
         <f t="shared" si="19"/>
-        <v>-1.17391162776193E-2</v>
-      </c>
-      <c r="M19" s="18">
+        <v>0.67772837827950849</v>
+      </c>
+      <c r="M19" s="49">
         <f t="shared" si="20"/>
         <v>0.24559924723903159</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="47">
         <v>3</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="48">
         <f t="shared" si="21"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="48">
         <f t="shared" si="22"/>
-        <v>0.62755098148743782</v>
-      </c>
-      <c r="D20" s="1">
+        <v>0.93537159417453797</v>
+      </c>
+      <c r="D20" s="48">
         <f t="shared" si="23"/>
-        <v>1.9744797525635731</v>
-      </c>
-      <c r="E20" s="1">
+        <v>4.0243604827848456</v>
+      </c>
+      <c r="E20" s="48">
         <f t="shared" si="12"/>
-        <v>0.19744797525635732</v>
-      </c>
-      <c r="F20" s="1">
+        <v>0.40243604827848456</v>
+      </c>
+      <c r="F20" s="48">
         <f t="shared" si="13"/>
-        <v>-1.1937778958869738E-2</v>
-      </c>
-      <c r="G20" s="1">
+        <v>0.67779777772206151</v>
+      </c>
+      <c r="G20" s="48">
         <f t="shared" si="14"/>
-        <v>0.19685108630841383</v>
-      </c>
-      <c r="H20" s="1">
+        <v>0.43632593716458762</v>
+      </c>
+      <c r="H20" s="48">
         <f t="shared" si="15"/>
-        <v>1.8403907514709494E-2</v>
-      </c>
-      <c r="I20" s="1">
+        <v>0.71533395066641914</v>
+      </c>
+      <c r="I20" s="48">
         <f t="shared" si="16"/>
-        <v>0.19836817063209278</v>
-      </c>
-      <c r="J20" s="1">
+        <v>0.43820274581180557</v>
+      </c>
+      <c r="J20" s="48">
         <f t="shared" si="17"/>
-        <v>1.6827134296236178E-2</v>
-      </c>
-      <c r="K20" s="1">
+        <v>0.71569857907224477</v>
+      </c>
+      <c r="K20" s="48">
         <f t="shared" si="18"/>
-        <v>0.19913068868598094</v>
-      </c>
-      <c r="L20" s="1">
+        <v>0.47400590618570909</v>
+      </c>
+      <c r="L20" s="48">
         <f t="shared" si="19"/>
-        <v>4.6053141737925185E-2</v>
-      </c>
-      <c r="M20" s="18">
+        <v>0.7532969443741494</v>
+      </c>
+      <c r="M20" s="49">
         <f t="shared" si="20"/>
         <v>0.40934117973355399</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="47">
         <v>4</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="48">
         <f t="shared" si="21"/>
         <v>0.4</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="48">
         <f t="shared" si="22"/>
-        <v>0.82538717779132975</v>
-      </c>
-      <c r="D21" s="1">
+        <v>1.3729548142440346</v>
+      </c>
+      <c r="D21" s="48">
         <f t="shared" si="23"/>
-        <v>1.9919093269637309</v>
-      </c>
-      <c r="E21" s="1">
+        <v>4.7398871130471019</v>
+      </c>
+      <c r="E21" s="48">
         <f t="shared" si="12"/>
-        <v>0.19919093269637311</v>
-      </c>
-      <c r="F21" s="1">
+        <v>0.47398871130471021</v>
+      </c>
+      <c r="F21" s="48">
         <f t="shared" si="13"/>
-        <v>4.5886502861892865E-2</v>
-      </c>
-      <c r="G21" s="1">
+        <v>0.75338645976061347</v>
+      </c>
+      <c r="G21" s="48">
         <f t="shared" si="14"/>
-        <v>0.20148525783946775</v>
-      </c>
-      <c r="H21" s="1">
+        <v>0.51165803429274082</v>
+      </c>
+      <c r="H21" s="48">
         <f t="shared" si="15"/>
-        <v>7.3511270988435545E-2</v>
-      </c>
-      <c r="I21" s="1">
+        <v>0.79132623460620377</v>
+      </c>
+      <c r="I21" s="48">
         <f t="shared" si="16"/>
-        <v>0.20286649624579486</v>
-      </c>
-      <c r="J21" s="1">
+        <v>0.51355502303502043</v>
+      </c>
+      <c r="J21" s="48">
         <f t="shared" si="17"/>
-        <v>7.2359465096417871E-2</v>
-      </c>
-      <c r="K21" s="1">
+        <v>0.79135327979195991</v>
+      </c>
+      <c r="K21" s="48">
         <f t="shared" si="18"/>
-        <v>0.20642687920601488</v>
-      </c>
-      <c r="L21" s="1">
+        <v>0.55312403928390619</v>
+      </c>
+      <c r="L21" s="48">
         <f t="shared" si="19"/>
-        <v>9.922385560141006E-2</v>
-      </c>
-      <c r="M21" s="18">
+        <v>0.82894611111200145</v>
+      </c>
+      <c r="M21" s="49">
         <f t="shared" si="20"/>
         <v>0.60688236188304534</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="47">
         <v>5</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="48">
         <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="48">
         <f t="shared" si="22"/>
-        <v>1.0277740644701487</v>
-      </c>
-      <c r="D22" s="1">
+        <v>1.8858779584513912</v>
+      </c>
+      <c r="D22" s="48">
         <f t="shared" si="23"/>
-        <v>2.0647179654025658</v>
-      </c>
-      <c r="E22" s="1">
+        <v>5.5311690463252585</v>
+      </c>
+      <c r="E22" s="48">
         <f t="shared" si="12"/>
-        <v>0.2064717965402566</v>
-      </c>
-      <c r="F22" s="1">
+        <v>0.55311690463252583</v>
+      </c>
+      <c r="F22" s="48">
         <f t="shared" si="13"/>
-        <v>9.9083016353773173E-2</v>
-      </c>
-      <c r="G22" s="1">
+        <v>0.8290582175747736</v>
+      </c>
+      <c r="G22" s="48">
         <f t="shared" si="14"/>
-        <v>0.21142594735794523</v>
-      </c>
-      <c r="H22" s="1">
+        <v>0.59456981551126453</v>
+      </c>
+      <c r="H22" s="48">
         <f t="shared" si="15"/>
-        <v>0.12477604519011019</v>
-      </c>
-      <c r="I22" s="1">
+        <v>0.86665234886899833</v>
+      </c>
+      <c r="I22" s="48">
         <f t="shared" si="16"/>
-        <v>0.21271059879976209</v>
-      </c>
-      <c r="J22" s="1">
+        <v>0.59644952207597579</v>
+      </c>
+      <c r="J22" s="48">
         <f t="shared" si="17"/>
-        <v>0.12398680883006219</v>
-      </c>
-      <c r="K22" s="1">
+        <v>0.86626647091054698</v>
+      </c>
+      <c r="K22" s="48">
         <f t="shared" si="18"/>
-        <v>0.21887047742326279</v>
-      </c>
-      <c r="L22" s="1">
+        <v>0.63974355172358066</v>
+      </c>
+      <c r="L22" s="48">
         <f t="shared" si="19"/>
-        <v>0.1492264552307194</v>
-      </c>
-      <c r="M22" s="18">
+        <v>0.90302160734168779</v>
+      </c>
+      <c r="M22" s="49">
         <f t="shared" si="20"/>
         <v>0.84355004662944555</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="47">
         <v>6</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="48">
         <f t="shared" si="21"/>
         <v>0.6</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="48">
         <f t="shared" si="22"/>
-        <v>1.2400432921833044</v>
-      </c>
-      <c r="D23" s="1">
+        <v>2.4816944803731555</v>
+      </c>
+      <c r="D23" s="48">
         <f t="shared" si="23"/>
-        <v>2.1890238286733719</v>
-      </c>
-      <c r="E23" s="1">
+        <v>6.3974886237378508</v>
+      </c>
+      <c r="E23" s="48">
         <f t="shared" si="12"/>
-        <v>0.21890238286733721</v>
-      </c>
-      <c r="F23" s="1">
+        <v>0.63974886237378514</v>
+      </c>
+      <c r="F23" s="48">
         <f t="shared" si="13"/>
-        <v>0.14910627556932371</v>
-      </c>
-      <c r="G23" s="1">
+        <v>0.90315882867293906</v>
+      </c>
+      <c r="G23" s="48">
         <f t="shared" si="14"/>
-        <v>0.22635769664580338</v>
-      </c>
-      <c r="H23" s="1">
+        <v>0.68490680380743207</v>
+      </c>
+      <c r="H23" s="48">
         <f t="shared" si="15"/>
-        <v>0.17354120007759127</v>
-      </c>
-      <c r="I23" s="1">
+        <v>0.9394998253028547</v>
+      </c>
+      <c r="I23" s="48">
         <f t="shared" si="16"/>
-        <v>0.22757944287121676</v>
-      </c>
-      <c r="J23" s="1">
+        <v>0.68672385363892785</v>
+      </c>
+      <c r="J23" s="48">
         <f t="shared" si="17"/>
-        <v>0.1730649852300245</v>
-      </c>
-      <c r="K23" s="1">
+        <v>0.93861813082248136</v>
+      </c>
+      <c r="K23" s="48">
         <f t="shared" si="18"/>
-        <v>0.23620888139033963</v>
-      </c>
-      <c r="L23" s="1">
+        <v>0.73361067545603331</v>
+      </c>
+      <c r="L23" s="48">
         <f t="shared" si="19"/>
-        <v>0.19731566562056463</v>
-      </c>
-      <c r="M23" s="18">
+        <v>0.9735376841096498</v>
+      </c>
+      <c r="M23" s="49">
         <f t="shared" si="20"/>
         <v>1.1249861257133058</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+    <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="47">
         <v>7</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="48">
         <f t="shared" si="21"/>
         <v>0.7</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="48">
         <f t="shared" si="22"/>
-        <v>1.4672075493985905</v>
-      </c>
-      <c r="D24" s="1">
+        <v>3.167797955826912</v>
+      </c>
+      <c r="D24" s="48">
         <f t="shared" si="23"/>
-        <v>2.3622962139742252</v>
-      </c>
-      <c r="E24" s="1">
+        <v>7.3363106945767278</v>
+      </c>
+      <c r="E24" s="48">
         <f t="shared" si="12"/>
-        <v>0.23622962139742254</v>
-      </c>
-      <c r="F24" s="1">
+        <v>0.73363106945767287</v>
+      </c>
+      <c r="F24" s="48">
         <f t="shared" si="13"/>
-        <v>0.19721188848229559</v>
-      </c>
-      <c r="G24" s="1">
+        <v>0.97370254774996323</v>
+      </c>
+      <c r="G24" s="48">
         <f t="shared" si="14"/>
-        <v>0.24609021582153734</v>
-      </c>
-      <c r="H24" s="1">
+        <v>0.78231619684517106</v>
+      </c>
+      <c r="H24" s="48">
         <f t="shared" si="15"/>
-        <v>0.22097425619792307</v>
-      </c>
-      <c r="I24" s="1">
+        <v>1.0077096955791924</v>
+      </c>
+      <c r="I24" s="48">
         <f t="shared" si="16"/>
-        <v>0.24727833420731871</v>
-      </c>
-      <c r="J24" s="1">
+        <v>0.78401655423663241</v>
+      </c>
+      <c r="J24" s="48">
         <f t="shared" si="17"/>
-        <v>0.22077219725455316</v>
-      </c>
-      <c r="K24" s="1">
+        <v>1.0062418976233654</v>
+      </c>
+      <c r="K24" s="48">
         <f t="shared" si="18"/>
-        <v>0.25830684112287788</v>
-      </c>
-      <c r="L24" s="1">
+        <v>0.83425525922000932</v>
+      </c>
+      <c r="L24" s="48">
         <f t="shared" si="19"/>
-        <v>0.24459033559830401</v>
-      </c>
-      <c r="M24" s="18">
+        <v>1.0381476164273098</v>
+      </c>
+      <c r="M24" s="49">
         <f t="shared" si="20"/>
         <v>1.4570920864434889</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+    <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="47">
         <v>8</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="48">
         <f t="shared" si="21"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="48">
         <f t="shared" si="22"/>
-        <v>1.714086476494926</v>
-      </c>
-      <c r="D25" s="1">
+        <v>3.9512232609671267</v>
+      </c>
+      <c r="D25" s="48">
         <f t="shared" si="23"/>
-        <v>2.5831787358051503</v>
-      </c>
-      <c r="E25" s="1">
+        <v>8.3429362530071263</v>
+      </c>
+      <c r="E25" s="48">
         <f t="shared" si="12"/>
-        <v>0.25831787358051506</v>
-      </c>
-      <c r="F25" s="1">
+        <v>0.83429362530071272</v>
+      </c>
+      <c r="F25" s="48">
         <f t="shared" si="13"/>
-        <v>0.24449942171847017</v>
-      </c>
-      <c r="G25" s="1">
+        <v>1.0383425984079999</v>
+      </c>
+      <c r="G25" s="48">
         <f t="shared" si="14"/>
-        <v>0.27054284466643858</v>
-      </c>
-      <c r="H25" s="1">
+        <v>0.8862107552211127</v>
+      </c>
+      <c r="H25" s="48">
         <f t="shared" si="15"/>
-        <v>0.26810623799059813</v>
-      </c>
-      <c r="I25" s="1">
+        <v>1.0687474957187286</v>
+      </c>
+      <c r="I25" s="48">
         <f t="shared" si="16"/>
-        <v>0.27172318548004498</v>
-      </c>
-      <c r="J25" s="1">
+        <v>0.88773100008664907</v>
+      </c>
+      <c r="J25" s="48">
         <f t="shared" si="17"/>
-        <v>0.26814839428558407</v>
-      </c>
-      <c r="K25" s="1">
+        <v>1.0665962724577616</v>
+      </c>
+      <c r="K25" s="48">
         <f t="shared" si="18"/>
-        <v>0.28513271300907345</v>
-      </c>
-      <c r="L25" s="1">
+        <v>0.94095325254648887</v>
+      </c>
+      <c r="L25" s="48">
         <f t="shared" si="19"/>
-        <v>0.29202921938592075</v>
-      </c>
-      <c r="M25" s="18">
+        <v>1.0941156528822222</v>
+      </c>
+      <c r="M25" s="49">
         <f t="shared" si="20"/>
         <v>1.8459560437928282</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="47">
         <v>9</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="48">
         <f t="shared" si="21"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="48">
         <f t="shared" si="22"/>
-        <v>1.9854169176420187</v>
-      </c>
-      <c r="D26" s="1">
+        <v>4.8384116590442474</v>
+      </c>
+      <c r="D26" s="48">
         <f t="shared" si="23"/>
-        <v>2.8513517200812761</v>
-      </c>
-      <c r="E26" s="1">
+        <v>9.4101272176143276</v>
+      </c>
+      <c r="E26" s="48">
         <f t="shared" si="12"/>
-        <v>0.2851351720081276</v>
-      </c>
-      <c r="F26" s="1">
+        <v>0.9410127217614328</v>
+      </c>
+      <c r="F26" s="48">
         <f t="shared" si="13"/>
-        <v>0.29194821152027611</v>
-      </c>
-      <c r="G26" s="1">
+        <v>1.0943431117140161</v>
+      </c>
+      <c r="G26" s="48">
         <f t="shared" si="14"/>
-        <v>0.29973258258414143</v>
-      </c>
-      <c r="H26" s="1">
+        <v>0.9957298773471337</v>
+      </c>
+      <c r="H26" s="48">
         <f t="shared" si="15"/>
-        <v>0.31586431814507504</v>
-      </c>
-      <c r="I26" s="1">
+        <v>1.1196761507092745</v>
+      </c>
+      <c r="I26" s="48">
         <f t="shared" si="16"/>
-        <v>0.3009283879153814</v>
-      </c>
-      <c r="J26" s="1">
+        <v>0.99699652929689653</v>
+      </c>
+      <c r="J26" s="48">
         <f t="shared" si="17"/>
-        <v>0.3161282538714365</v>
-      </c>
-      <c r="K26" s="1">
+        <v>1.1167377390502302</v>
+      </c>
+      <c r="K26" s="48">
         <f t="shared" si="18"/>
-        <v>0.31674799739527126</v>
-      </c>
-      <c r="L26" s="1">
+        <v>1.0526864956664557</v>
+      </c>
+      <c r="L26" s="48">
         <f t="shared" si="19"/>
-        <v>0.34052106371620883</v>
-      </c>
-      <c r="M26" s="18">
+        <v>1.1382913536646828</v>
+      </c>
+      <c r="M26" s="49">
         <f t="shared" si="20"/>
         <v>2.2977594920880176</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+    <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="47">
         <v>10</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="48">
         <f t="shared" si="21"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="48">
         <f t="shared" si="22"/>
-        <v>2.2859511027090926</v>
-      </c>
-      <c r="D27" s="1">
+        <v>5.8349369974969054</v>
+      </c>
+      <c r="D27" s="48">
         <f t="shared" si="23"/>
-        <v>3.1674274566261942</v>
-      </c>
-      <c r="E27" s="1">
+        <v>10.527704258430612</v>
+      </c>
+      <c r="E27" s="48">
         <f t="shared" si="12"/>
-        <v>0.31674274566261945</v>
-      </c>
-      <c r="F27" s="1">
+        <v>1.0527704258430612</v>
+      </c>
+      <c r="F27" s="48">
         <f t="shared" si="13"/>
-        <v>0.34044747487919907</v>
-      </c>
-      <c r="G27" s="1">
+        <v>1.1385534521867413</v>
+      </c>
+      <c r="G27" s="48">
         <f t="shared" si="14"/>
-        <v>0.33376511940657938</v>
-      </c>
-      <c r="H27" s="1">
+        <v>1.1096980984523983</v>
+      </c>
+      <c r="H27" s="48">
         <f t="shared" si="15"/>
-        <v>0.36509937570150108</v>
-      </c>
-      <c r="I27" s="1">
+        <v>1.1571317548211093</v>
+      </c>
+      <c r="I27" s="48">
         <f t="shared" si="16"/>
-        <v>0.33499771444769449</v>
-      </c>
-      <c r="J27" s="1">
+        <v>1.1106270135841168</v>
+      </c>
+      <c r="J27" s="48">
         <f t="shared" si="17"/>
-        <v>0.36556901803478198</v>
-      </c>
-      <c r="K27" s="1">
+        <v>1.1532968178236123</v>
+      </c>
+      <c r="K27" s="48">
         <f t="shared" si="18"/>
-        <v>0.35329964746609765</v>
-      </c>
-      <c r="L27" s="1">
+        <v>1.1681001076254225</v>
+      </c>
+      <c r="L27" s="48">
         <f t="shared" si="19"/>
-        <v>0.3908901159652598</v>
-      </c>
-      <c r="M27" s="18">
+        <v>1.1670874130346405</v>
+      </c>
+      <c r="M27" s="49">
         <f t="shared" si="20"/>
         <v>2.8186613472629567</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C28" s="37" t="s">
+    <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
     </row>
-    <row r="29" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
+    <row r="29" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="20" t="s">
+      <c r="I29" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="20" t="s">
+      <c r="J29" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="20" t="s">
+      <c r="L29" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="M29" s="17"/>
+      <c r="M29" s="55"/>
     </row>
-    <row r="30" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
+    <row r="30" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="47">
         <v>0</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="48">
         <v>0</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="48">
         <v>0</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="48">
         <f>D47</f>
-        <v>2.9373867580638851</v>
-      </c>
-      <c r="E30" s="1">
+        <v>0.99999421460935456</v>
+      </c>
+      <c r="E30" s="48">
         <f>$B$5 * (D30)</f>
-        <v>0.29373867580638852</v>
-      </c>
-      <c r="F30" s="1">
-        <f>$B$5 * (-D30 + 2 * C30 + 2 * B30)</f>
-        <v>-0.29373867580638852</v>
-      </c>
-      <c r="G30" s="1">
+        <v>9.9999421460935461E-2</v>
+      </c>
+      <c r="F30" s="48">
+        <f>$B$5 * (2 * D30 - 2 * C30 + 2 * B30)</f>
+        <v>0.19999884292187092</v>
+      </c>
+      <c r="G30" s="48">
         <f>$B$5 * (D30 + F30 / 2)</f>
-        <v>0.27905174201606908</v>
-      </c>
-      <c r="H30" s="1">
-        <f>$B$5 * (-(D30 + F30 / 2) + 2 *(C30 + E30 / 2) + 2 * (B30 + $B$5/2))</f>
-        <v>-0.2396778744354302</v>
-      </c>
-      <c r="I30" s="1">
+        <v>0.109999363607029</v>
+      </c>
+      <c r="H30" s="48">
+        <f>$B$5 * (2 * (D30 + F30 / 2) - 2 * (C30 + E30 / 2) + 2 * (B30 + $B$5/2))</f>
+        <v>0.21999878506796447</v>
+      </c>
+      <c r="I30" s="48">
         <f>$B$5 * (D30 + H30 / 2)</f>
-        <v>0.28175478208461702</v>
-      </c>
-      <c r="J30" s="1">
-        <f>$B$5 * (-(D30 + H30 / 2) + 2 *(C30 + G30 / 2) + 2 * (B30 + $B$5/2))</f>
-        <v>-0.24384960788301011</v>
-      </c>
-      <c r="K30" s="1">
+        <v>0.11099936071433368</v>
+      </c>
+      <c r="J30" s="48">
+        <f>$B$5 * (2 * (D30 + H30 / 2) - 2 * (C30 + G30 / 2) + 2 * (B30 + $B$5/2))</f>
+        <v>0.22099878506796444</v>
+      </c>
+      <c r="K30" s="48">
         <f>$B$5 * (D30 + J30)</f>
-        <v>0.26935371501808753</v>
-      </c>
-      <c r="L30" s="1">
-        <f>$B$5 * (-(D30 + J30) + 2 *(C30 + I30)  + 2 * (B30 + $B$5))</f>
-        <v>-0.19300275860116411</v>
-      </c>
-      <c r="M30" s="18">
+        <v>0.1220992999677319</v>
+      </c>
+      <c r="L30" s="48">
+        <f>$B$5 * (2 * (D30 + J30) - 2 *(C30 + I30)  + 2 * (B30 + $B$5))</f>
+        <v>0.24199872779259712</v>
+      </c>
+      <c r="M30" s="49">
         <f xml:space="preserve"> -EXP(B30) * COS(B30) + EXP(B30) * SIN(B30) + B30 + 1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
+    <row r="31" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="47">
         <v>1</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="48">
         <f>B30 + 1 / 10</f>
         <v>0.1</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="48">
         <f>C30 + (E30 + 2*G30 + 2*I30 + K30) / 6</f>
-        <v>0.28078423983764139</v>
-      </c>
-      <c r="D31" s="1">
+        <v>0.1106826950118988</v>
+      </c>
+      <c r="D31" s="48">
         <f>D30 + (F30 + 2 * H30 + 2 * J30 + L30)/6</f>
-        <v>2.6950873582231463</v>
-      </c>
-      <c r="E31" s="1">
+        <v>1.2206596664404088</v>
+      </c>
+      <c r="E31" s="48">
         <f t="shared" ref="E31:E40" si="24">$B$5 * (D31)</f>
-        <v>0.26950873582231466</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" ref="F31:F40" si="25">$B$5 * (-D31 + 2 * C31 + 2 * B31)</f>
-        <v>-0.19335188785478635</v>
-      </c>
-      <c r="G31" s="1">
+        <v>0.12206596664404089</v>
+      </c>
+      <c r="F31" s="48">
+        <f t="shared" ref="F31:F40" si="25">$B$5 * (2 * D31 - 2 * C31 + 2 * B31)</f>
+        <v>0.24199539428570202</v>
+      </c>
+      <c r="G31" s="48">
         <f t="shared" ref="G31:G40" si="26">$B$5 * (D31 + F31 / 2)</f>
-        <v>0.25984114142957532</v>
-      </c>
-      <c r="H31" s="1">
-        <f t="shared" ref="H31:H40" si="27">$B$5 * (-(D31 + F31 / 2) + 2 *(C31 + E31 / 2) + 2 * (B31 + $B$5/2))</f>
-        <v>-0.14673341987981559</v>
-      </c>
-      <c r="I31" s="1">
+        <v>0.13416573635832599</v>
+      </c>
+      <c r="H31" s="48">
+        <f t="shared" ref="H31:H40" si="27">$B$5 * (2 * (D31 + F31 / 2) - 2 * (C31 + E31 / 2) + 2 * (B31 + $B$5/2))</f>
+        <v>0.26398833704986807</v>
+      </c>
+      <c r="I31" s="48">
         <f t="shared" ref="I31:I40" si="28">$B$5 * (D31 + H31 / 2)</f>
-        <v>0.26217206482832384</v>
-      </c>
-      <c r="J31" s="1">
-        <f t="shared" ref="J31:J40" si="29">$B$5 * (-(D31 + H31 / 2) + 2 *(C31 + G31 / 2) + 2 * (B31 + $B$5/2))</f>
-        <v>-0.15003110271783804</v>
-      </c>
-      <c r="K31" s="1">
+        <v>0.13526538349653427</v>
+      </c>
+      <c r="J31" s="48">
+        <f t="shared" ref="J31:J40" si="29">$B$5 * (2 * (D31 + H31 / 2) - 2 * (C31 + G31 / 2) + 2 * (B31 + $B$5/2))</f>
+        <v>0.26497765435485621</v>
+      </c>
+      <c r="K31" s="48">
         <f t="shared" ref="K31:K40" si="30">$B$5 * (D31 + J31)</f>
-        <v>0.25450562555053086</v>
-      </c>
-      <c r="L31" s="1">
-        <f t="shared" ref="L31:L40" si="31">$B$5 * (-(D31 + J31) + 2 *(C31 + I31)  + 2 * (B31 + $B$5))</f>
-        <v>-0.10591436461733778</v>
-      </c>
-      <c r="M31" s="18">
+        <v>0.14856373207952653</v>
+      </c>
+      <c r="L31" s="48">
+        <f t="shared" ref="L31:L40" si="31">$B$5 * (2 * (D31 + J31) - 2 *(C31 + I31)  + 2 * (B31 + $B$5))</f>
+        <v>0.28793784845736642</v>
+      </c>
+      <c r="M31" s="49">
         <f t="shared" ref="M31:M40" si="32" xml:space="preserve"> -EXP(B31) * COS(B31) + EXP(B31) * SIN(B31) + B31 + 1</f>
         <v>0.11068332190079433</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+    <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="47">
         <v>2</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="48">
         <f t="shared" ref="B32:B40" si="33">B31 + 1 / 10</f>
         <v>0.2</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="48">
         <f t="shared" ref="C32:C40" si="34">C31 + (E31 + 2*G31 + 2*I31 + K31) / 6</f>
-        <v>0.54212436881908199</v>
-      </c>
-      <c r="D32" s="1">
+        <v>0.24559801808411347</v>
+      </c>
+      <c r="D32" s="48">
         <f t="shared" ref="D32:D40" si="35">D31 + (F31 + 2 * H31 + 2 * J31 + L31)/6</f>
-        <v>2.546288141945241</v>
-      </c>
-      <c r="E32" s="1">
+        <v>1.4853038706991617</v>
+      </c>
+      <c r="E32" s="48">
         <f t="shared" si="24"/>
-        <v>0.2546288141945241</v>
-      </c>
-      <c r="F32" s="1">
+        <v>0.14853038706991617</v>
+      </c>
+      <c r="F32" s="48">
         <f t="shared" si="25"/>
-        <v>-0.10620394043070772</v>
-      </c>
-      <c r="G32" s="1">
+        <v>0.28794117052300966</v>
+      </c>
+      <c r="G32" s="48">
         <f t="shared" si="26"/>
-        <v>0.24931861717298875</v>
-      </c>
-      <c r="H32" s="1">
+        <v>0.16292744559606664</v>
+      </c>
+      <c r="H32" s="48">
         <f t="shared" si="27"/>
-        <v>-6.5430861989719924E-2</v>
-      </c>
-      <c r="I32" s="1">
+        <v>0.311882248868319</v>
+      </c>
+      <c r="I32" s="48">
         <f t="shared" si="28"/>
-        <v>0.25135727109503814</v>
-      </c>
-      <c r="J32" s="1">
+        <v>0.16412449951333213</v>
+      </c>
+      <c r="J32" s="48">
         <f t="shared" si="29"/>
-        <v>-6.800053561392283E-2</v>
-      </c>
-      <c r="K32" s="1">
+        <v>0.31283665085023493</v>
+      </c>
+      <c r="K32" s="48">
         <f t="shared" si="30"/>
-        <v>0.24782876063313186</v>
-      </c>
-      <c r="L32" s="1">
+        <v>0.17981405215493967</v>
+      </c>
+      <c r="L32" s="48">
         <f t="shared" si="31"/>
-        <v>-2.9132432650307807E-2</v>
-      </c>
-      <c r="M32" s="18">
+        <v>0.33768360079039023</v>
+      </c>
+      <c r="M32" s="49">
         <f t="shared" si="32"/>
         <v>0.24559924723903159</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+    <row r="33" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="47">
         <v>3</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="48">
         <f t="shared" si="33"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="48">
         <f t="shared" si="34"/>
-        <v>0.7927592607130336</v>
-      </c>
-      <c r="D33" s="1">
+        <v>0.40933940632472238</v>
+      </c>
+      <c r="D33" s="48">
         <f t="shared" si="35"/>
-        <v>2.4792549472305243</v>
-      </c>
-      <c r="E33" s="1">
+        <v>1.7978142991575796</v>
+      </c>
+      <c r="E33" s="48">
         <f t="shared" si="24"/>
-        <v>0.24792549472305245</v>
-      </c>
-      <c r="F33" s="1">
+        <v>0.17978142991575796</v>
+      </c>
+      <c r="F33" s="48">
         <f t="shared" si="25"/>
-        <v>-2.9373642580445704E-2</v>
-      </c>
-      <c r="G33" s="1">
+        <v>0.33769497856657149</v>
+      </c>
+      <c r="G33" s="48">
         <f t="shared" si="26"/>
-        <v>0.24645681259403018</v>
-      </c>
-      <c r="H33" s="1">
+        <v>0.19666617884408655</v>
+      </c>
+      <c r="H33" s="48">
         <f t="shared" si="27"/>
-        <v>6.8875890208818132E-3</v>
-      </c>
-      <c r="I33" s="1">
+        <v>0.36348633343165282</v>
+      </c>
+      <c r="I33" s="48">
         <f t="shared" si="28"/>
-        <v>0.24826987417409652</v>
-      </c>
-      <c r="J33" s="1">
+        <v>0.19795574658734061</v>
+      </c>
+      <c r="J33" s="48">
         <f t="shared" si="29"/>
-        <v>4.927659227913217E-3</v>
-      </c>
-      <c r="K33" s="1">
+        <v>0.36437699402532814</v>
+      </c>
+      <c r="K33" s="48">
         <f t="shared" si="30"/>
-        <v>0.24841826064584374</v>
-      </c>
-      <c r="L33" s="1">
+        <v>0.21621912931829079</v>
+      </c>
+      <c r="L33" s="48">
         <f t="shared" si="31"/>
-        <v>3.9787566331582293E-2</v>
-      </c>
-      <c r="M33" s="18">
+        <v>0.39097922805416901</v>
+      </c>
+      <c r="M33" s="49">
         <f t="shared" si="32"/>
         <v>0.40934117973355399</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
+    <row r="34" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="47">
         <v>4</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="48">
         <f t="shared" si="33"/>
         <v>0.4</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="48">
         <f t="shared" si="34"/>
-        <v>1.0403921155305587</v>
-      </c>
-      <c r="D34" s="1">
+        <v>0.60688014134087287</v>
+      </c>
+      <c r="D34" s="48">
         <f t="shared" si="35"/>
-        <v>2.4849290172719787</v>
-      </c>
-      <c r="E34" s="1">
+        <v>2.1618811094133634</v>
+      </c>
+      <c r="E34" s="48">
         <f t="shared" si="24"/>
-        <v>0.24849290172719787</v>
-      </c>
-      <c r="F34" s="1">
+        <v>0.21618811094133636</v>
+      </c>
+      <c r="F34" s="48">
         <f t="shared" si="25"/>
-        <v>3.9585521378913871E-2</v>
-      </c>
-      <c r="G34" s="1">
+        <v>0.39100019361449817</v>
+      </c>
+      <c r="G34" s="48">
         <f t="shared" si="26"/>
-        <v>0.25047217779614356</v>
-      </c>
-      <c r="H34" s="1">
+        <v>0.23573812062206123</v>
+      </c>
+      <c r="H34" s="48">
         <f t="shared" si="27"/>
-        <v>7.2455535482687961E-2</v>
-      </c>
-      <c r="I34" s="1">
+        <v>0.41848140188181432</v>
+      </c>
+      <c r="I34" s="48">
         <f t="shared" si="28"/>
-        <v>0.25211567850133226</v>
-      </c>
-      <c r="J34" s="1">
+        <v>0.23711218103542706</v>
+      </c>
+      <c r="J34" s="48">
         <f t="shared" si="29"/>
-        <v>7.1009962384393804E-2</v>
-      </c>
-      <c r="K34" s="1">
+        <v>0.41927452174047342</v>
+      </c>
+      <c r="K34" s="48">
         <f t="shared" si="30"/>
-        <v>0.25559389796563725</v>
-      </c>
-      <c r="L34" s="1">
+        <v>0.25811556311538369</v>
+      </c>
+      <c r="L34" s="48">
         <f t="shared" si="31"/>
-        <v>0.10290766084074097</v>
-      </c>
-      <c r="M34" s="18">
+        <v>0.44743266175550733</v>
+      </c>
+      <c r="M34" s="49">
         <f t="shared" si="32"/>
         <v>0.60688236188304534</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
+    <row r="35" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="47">
         <v>5</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="48">
         <f t="shared" si="33"/>
         <v>0.5</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="48">
         <f t="shared" si="34"/>
-        <v>1.2919358675785231</v>
-      </c>
-      <c r="D35" s="1">
+        <v>0.84354752090282237</v>
+      </c>
+      <c r="D35" s="48">
         <f t="shared" si="35"/>
-        <v>2.5564997135976153</v>
-      </c>
-      <c r="E35" s="1">
+        <v>2.5808718931824601</v>
+      </c>
+      <c r="E35" s="48">
         <f t="shared" si="24"/>
-        <v>0.25564997135976153</v>
-      </c>
-      <c r="F35" s="1">
+        <v>0.25808718931824604</v>
+      </c>
+      <c r="F35" s="48">
         <f t="shared" si="25"/>
-        <v>0.10273720215594309</v>
-      </c>
-      <c r="G35" s="1">
+        <v>0.44746487445592759</v>
+      </c>
+      <c r="G35" s="48">
         <f t="shared" si="26"/>
-        <v>0.26078683146755871</v>
-      </c>
-      <c r="H35" s="1">
+        <v>0.2804604330410424</v>
+      </c>
+      <c r="H35" s="48">
         <f t="shared" si="27"/>
-        <v>0.1331653391841221</v>
-      </c>
-      <c r="I35" s="1">
+        <v>0.4764026429696957</v>
+      </c>
+      <c r="I35" s="48">
         <f t="shared" si="28"/>
-        <v>0.26230823831896766</v>
-      </c>
-      <c r="J35" s="1">
+        <v>0.28190732146673081</v>
+      </c>
+      <c r="J35" s="48">
         <f t="shared" si="29"/>
-        <v>0.13215761834349285</v>
-      </c>
-      <c r="K35" s="1">
+        <v>0.47705909544879294</v>
+      </c>
+      <c r="K35" s="48">
         <f t="shared" si="30"/>
-        <v>0.26886573319411083</v>
-      </c>
-      <c r="L35" s="1">
+        <v>0.30579309886312533</v>
+      </c>
+      <c r="L35" s="48">
         <f t="shared" si="31"/>
-        <v>0.16198308798538735</v>
-      </c>
-      <c r="M35" s="18">
+        <v>0.50649522925234003</v>
+      </c>
+      <c r="M35" s="49">
         <f t="shared" si="32"/>
         <v>0.84355004662944555</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
+    <row r="36" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="47">
         <v>6</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="48">
         <f t="shared" si="33"/>
         <v>0.6</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="48">
         <f t="shared" si="34"/>
-        <v>1.5537201749330105</v>
-      </c>
-      <c r="D36" s="1">
+        <v>1.1249834871023086</v>
+      </c>
+      <c r="D36" s="48">
         <f t="shared" si="35"/>
-        <v>2.6890607477970421</v>
-      </c>
-      <c r="E36" s="1">
+        <v>3.0576858232733342</v>
+      </c>
+      <c r="E36" s="48">
         <f t="shared" si="24"/>
-        <v>0.26890607477970424</v>
-      </c>
-      <c r="F36" s="1">
+        <v>0.30576858232733345</v>
+      </c>
+      <c r="F36" s="48">
         <f t="shared" si="25"/>
-        <v>0.16183796020689789</v>
-      </c>
-      <c r="G36" s="1">
+        <v>0.50654046723420521</v>
+      </c>
+      <c r="G36" s="48">
         <f t="shared" si="26"/>
-        <v>0.27699797279004912</v>
-      </c>
-      <c r="H36" s="1">
+        <v>0.33109560568904373</v>
+      </c>
+      <c r="H36" s="48">
         <f t="shared" si="27"/>
-        <v>0.19063666967452342</v>
-      </c>
-      <c r="I36" s="1">
+        <v>0.53661765572489228</v>
+      </c>
+      <c r="I36" s="48">
         <f t="shared" si="28"/>
-        <v>0.2784379082634304</v>
-      </c>
-      <c r="J36" s="1">
+        <v>0.33259946511357807</v>
+      </c>
+      <c r="J36" s="48">
         <f t="shared" si="29"/>
-        <v>0.19000592400217664</v>
-      </c>
-      <c r="K36" s="1">
+        <v>0.53709267223779</v>
+      </c>
+      <c r="K36" s="48">
         <f t="shared" si="30"/>
-        <v>0.28790666717992192</v>
-      </c>
-      <c r="L36" s="1">
+        <v>0.35947784955111245</v>
+      </c>
+      <c r="L36" s="48">
         <f t="shared" si="31"/>
-        <v>0.21852494945936632</v>
-      </c>
-      <c r="M36" s="18">
+        <v>0.56743910865904756</v>
+      </c>
+      <c r="M36" s="49">
         <f t="shared" si="32"/>
         <v>1.1249861257133058</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
+    <row r="37" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="47">
         <v>7</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="48">
         <f t="shared" si="33"/>
         <v>0.7</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="48">
         <f t="shared" si="34"/>
-        <v>1.8316675922774415</v>
-      </c>
-      <c r="D37" s="1">
+        <v>1.4570895826829235</v>
+      </c>
+      <c r="D37" s="48">
         <f t="shared" si="35"/>
-        <v>2.8793354306336529</v>
-      </c>
-      <c r="E37" s="1">
+        <v>3.5945858619097706</v>
+      </c>
+      <c r="E37" s="48">
         <f t="shared" si="24"/>
-        <v>0.28793354306336533</v>
-      </c>
-      <c r="F37" s="1">
+        <v>0.35945858619097709</v>
+      </c>
+      <c r="F37" s="48">
         <f t="shared" si="25"/>
-        <v>0.218399975392123</v>
-      </c>
-      <c r="G37" s="1">
+        <v>0.56749925584536942</v>
+      </c>
+      <c r="G37" s="48">
         <f t="shared" si="26"/>
-        <v>0.29885354183297147</v>
-      </c>
-      <c r="H37" s="1">
+        <v>0.38783354898324557</v>
+      </c>
+      <c r="H37" s="48">
         <f t="shared" si="27"/>
-        <v>0.24627333092885337</v>
-      </c>
-      <c r="I37" s="1">
+        <v>0.59830332281080867</v>
+      </c>
+      <c r="I37" s="48">
         <f t="shared" si="28"/>
-        <v>0.300247209609808</v>
-      </c>
-      <c r="J37" s="1">
+        <v>0.3893737523315175</v>
+      </c>
+      <c r="J37" s="48">
         <f t="shared" si="29"/>
-        <v>0.24597166302897749</v>
-      </c>
-      <c r="K37" s="1">
+        <v>0.59854623322812572</v>
+      </c>
+      <c r="K37" s="48">
         <f t="shared" si="30"/>
-        <v>0.31253070936626304</v>
-      </c>
-      <c r="L37" s="1">
+        <v>0.41931320951378964</v>
+      </c>
+      <c r="L37" s="48">
         <f t="shared" si="31"/>
-        <v>0.27385225101118688</v>
-      </c>
-      <c r="M37" s="18">
+        <v>0.629333752024691</v>
+      </c>
+      <c r="M37" s="49">
         <f t="shared" si="32"/>
         <v>1.4570920864434889</v>
       </c>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
+    <row r="38" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="47">
         <v>8</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="48">
         <f t="shared" si="33"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="48">
         <f t="shared" si="34"/>
-        <v>2.1314452181633059</v>
-      </c>
-      <c r="D38" s="1">
+        <v>1.8459539824053057</v>
+      </c>
+      <c r="D38" s="48">
         <f t="shared" si="35"/>
-        <v>3.125459133020148</v>
-      </c>
-      <c r="E38" s="1">
+        <v>4.1930078819010923</v>
+      </c>
+      <c r="E38" s="48">
         <f t="shared" si="24"/>
-        <v>0.31254591330201481</v>
-      </c>
-      <c r="F38" s="1">
+        <v>0.41930078819010924</v>
+      </c>
+      <c r="F38" s="48">
         <f t="shared" si="25"/>
-        <v>0.27374313033064634</v>
-      </c>
-      <c r="G38" s="1">
+        <v>0.62941077989915728</v>
+      </c>
+      <c r="G38" s="48">
         <f t="shared" si="26"/>
-        <v>0.32623306981854716</v>
-      </c>
-      <c r="H38" s="1">
+        <v>0.45077132718506707</v>
+      </c>
+      <c r="H38" s="48">
         <f t="shared" si="27"/>
-        <v>0.30131056514431553</v>
-      </c>
-      <c r="I38" s="1">
+        <v>0.66042177907006216</v>
+      </c>
+      <c r="I38" s="48">
         <f t="shared" si="28"/>
-        <v>0.32761144155923061</v>
-      </c>
-      <c r="J38" s="1">
+        <v>0.45232187714361238</v>
+      </c>
+      <c r="J38" s="48">
         <f t="shared" si="29"/>
-        <v>0.30130090905528528</v>
-      </c>
-      <c r="K38" s="1">
+        <v>0.66037582508765702</v>
+      </c>
+      <c r="K38" s="48">
         <f t="shared" si="30"/>
-        <v>0.34267600420754335</v>
-      </c>
-      <c r="L38" s="1">
+        <v>0.48533837069887498</v>
+      </c>
+      <c r="L38" s="48">
         <f t="shared" si="31"/>
-        <v>0.32913532773696397</v>
-      </c>
-      <c r="M38" s="18">
+        <v>0.69102156948796623</v>
+      </c>
+      <c r="M38" s="49">
         <f t="shared" si="32"/>
         <v>1.8459560437928282</v>
       </c>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
+    <row r="39" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="47">
         <v>9</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="48">
         <f t="shared" si="33"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="48">
         <f t="shared" si="34"/>
-        <v>2.4585970415408247</v>
-      </c>
-      <c r="D39" s="1">
+        <v>2.2977582436630297</v>
+      </c>
+      <c r="D39" s="48">
         <f t="shared" si="35"/>
-        <v>3.4268093674312832</v>
-      </c>
-      <c r="E39" s="1">
+        <v>4.8533458081848524</v>
+      </c>
+      <c r="E39" s="48">
         <f t="shared" si="24"/>
-        <v>0.34268093674312833</v>
-      </c>
-      <c r="F39" s="1">
+        <v>0.48533458081848524</v>
+      </c>
+      <c r="F39" s="48">
         <f t="shared" si="25"/>
-        <v>0.32903847156503663</v>
-      </c>
-      <c r="G39" s="1">
+        <v>0.69111751290436452</v>
+      </c>
+      <c r="G39" s="48">
         <f t="shared" si="26"/>
-        <v>0.35913286032138014</v>
-      </c>
-      <c r="H39" s="1">
+        <v>0.51989045646370347</v>
+      </c>
+      <c r="H39" s="48">
         <f t="shared" si="27"/>
-        <v>0.35685464166109759</v>
-      </c>
-      <c r="I39" s="1">
+        <v>0.72169580611295248</v>
+      </c>
+      <c r="I39" s="48">
         <f t="shared" si="28"/>
-        <v>0.36052366882618325</v>
-      </c>
-      <c r="J39" s="1">
+        <v>0.52141937112413295</v>
+      </c>
+      <c r="J39" s="48">
         <f t="shared" si="29"/>
-        <v>0.35710902551411977</v>
-      </c>
-      <c r="K39" s="1">
+        <v>0.72129804786928953</v>
+      </c>
+      <c r="K39" s="48">
         <f t="shared" si="30"/>
-        <v>0.37839183929454029</v>
-      </c>
-      <c r="L39" s="1">
+        <v>0.55746438560541423</v>
+      </c>
+      <c r="L39" s="48">
         <f t="shared" si="31"/>
-        <v>0.38543230277886126</v>
-      </c>
-      <c r="M39" s="18">
+        <v>0.75109324825339596</v>
+      </c>
+      <c r="M39" s="49">
         <f t="shared" si="32"/>
         <v>2.2977594920880176</v>
       </c>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
+    <row r="40" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="47">
         <v>10</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="48">
         <f t="shared" si="33"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="48">
         <f t="shared" si="34"/>
-        <v>2.8186613472629571</v>
-      </c>
-      <c r="D40" s="1">
+        <v>2.8186613472629585</v>
+      </c>
+      <c r="D40" s="48">
         <f t="shared" si="35"/>
-        <v>3.7838757188803385</v>
-      </c>
-      <c r="E40" s="1">
+        <v>5.5747122197052263</v>
+      </c>
+      <c r="E40" s="48">
         <f t="shared" si="24"/>
-        <v>0.37838757188803385</v>
-      </c>
-      <c r="F40" s="1">
+        <v>0.55747122197052268</v>
+      </c>
+      <c r="F40" s="48">
         <f t="shared" si="25"/>
-        <v>0.38534469756455758</v>
-      </c>
-      <c r="G40" s="1">
+        <v>0.75121017448845362</v>
+      </c>
+      <c r="G40" s="48">
         <f t="shared" si="26"/>
-        <v>0.39765480676626175</v>
-      </c>
-      <c r="H40" s="1">
+        <v>0.59503173069494542</v>
+      </c>
+      <c r="H40" s="48">
         <f t="shared" si="27"/>
-        <v>0.41391621987513311</v>
-      </c>
-      <c r="I40" s="1">
+        <v>0.78058406974024674</v>
+      </c>
+      <c r="I40" s="48">
         <f t="shared" si="28"/>
-        <v>0.39908338288179052</v>
-      </c>
-      <c r="J40" s="1">
+        <v>0.59650042545753501</v>
+      </c>
+      <c r="J40" s="48">
         <f t="shared" si="29"/>
-        <v>0.4144143672474272</v>
-      </c>
-      <c r="K40" s="1">
+        <v>0.77976540839298369</v>
+      </c>
+      <c r="K40" s="48">
         <f t="shared" si="30"/>
-        <v>0.41982900861277656</v>
-      </c>
-      <c r="L40" s="1">
+        <v>0.63544776280982107</v>
+      </c>
+      <c r="L40" s="48">
         <f t="shared" si="31"/>
-        <v>0.44371993741617288</v>
-      </c>
-      <c r="M40" s="18">
+        <v>0.80786317107554328</v>
+      </c>
+      <c r="M40" s="49">
         <f t="shared" si="32"/>
         <v>2.8186613472629567</v>
       </c>
-      <c r="O40" s="31"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="31"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
@@ -11607,8 +11766,8 @@
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
@@ -11620,14 +11779,14 @@
       <c r="O42" s="13"/>
       <c r="P42" s="14"/>
       <c r="Q42" s="14"/>
-      <c r="R42" s="32"/>
+      <c r="R42" s="31"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
@@ -11641,23 +11800,23 @@
       <c r="Q43" s="14"/>
       <c r="R43" s="14"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="57" t="s">
         <v>25</v>
       </c>
       <c r="H44" s="14"/>
@@ -11671,28 +11830,28 @@
       <c r="Q44" s="14"/>
       <c r="R44" s="14"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
+    <row r="45" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="47">
         <v>0</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="58">
         <f>ABS(C30-M30)</f>
         <v>0</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="57">
         <v>0</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="59">
         <f>($M$14 - 1) / (1 - 0)</f>
         <v>1.8186613472629567</v>
       </c>
-      <c r="E45" s="29">
+      <c r="E45" s="60">
         <f>C14</f>
-        <v>1.8554610700916503</v>
-      </c>
-      <c r="F45" s="29">
+        <v>4.6912535100029134</v>
+      </c>
+      <c r="F45" s="60">
         <f>ABS(E45 - $M$14)</f>
-        <v>0.96320027717130641</v>
+        <v>1.8725921627399567</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
@@ -11700,33 +11859,33 @@
       <c r="K45" s="14"/>
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="31"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="30"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
+    <row r="46" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="47">
         <v>1</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="58">
         <f t="shared" ref="B46:B55" si="36">ABS(C31-M31)</f>
-        <v>0.17010091793684706</v>
-      </c>
-      <c r="C46" s="7">
+        <v>6.2688889553019767E-7</v>
+      </c>
+      <c r="C46" s="57">
         <v>1</v>
       </c>
-      <c r="D46" s="25">
+      <c r="D46" s="59">
         <f>($M$14 - 1) / (1 - 0) + 0.5</f>
         <v>2.3186613472629567</v>
       </c>
-      <c r="E46" s="26">
+      <c r="E46" s="61">
         <f>C27</f>
-        <v>2.2859511027090926</v>
-      </c>
-      <c r="F46" s="29">
+        <v>5.8349369974969054</v>
+      </c>
+      <c r="F46" s="60">
         <f>ABS(E46 - $M$14)</f>
-        <v>0.53271024455386407</v>
+        <v>3.0162756502339487</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
@@ -11734,33 +11893,33 @@
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
       <c r="M46" s="14"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="31"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
+    <row r="47" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A47" s="47">
         <v>2</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="58">
         <f t="shared" si="36"/>
-        <v>0.2965251215800504</v>
-      </c>
-      <c r="C47" s="7">
+        <v>1.2291549181253636E-6</v>
+      </c>
+      <c r="C47" s="57">
         <v>2</v>
       </c>
-      <c r="D47" s="25">
+      <c r="D47" s="59">
         <f>D46-(E46 - $M$14) * (D46 - D45) / (C27-C14)</f>
-        <v>2.9373867580638851</v>
-      </c>
-      <c r="E47" s="26">
+        <v>0.99999421460935456</v>
+      </c>
+      <c r="E47" s="61">
         <f>C40</f>
-        <v>2.8186613472629571</v>
-      </c>
-      <c r="F47" s="29">
+        <v>2.8186613472629585</v>
+      </c>
+      <c r="F47" s="60">
         <f>ABS(E47 - $M$14)</f>
-        <v>4.4408920985006262E-16</v>
+        <v>1.7763568394002505E-15</v>
       </c>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
@@ -11768,71 +11927,72 @@
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
       <c r="M47" s="14"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="31"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
+    <row r="48" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A48" s="47">
         <v>3</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="58">
         <f t="shared" si="36"/>
-        <v>0.3834180809794796</v>
-      </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+        <v>1.7734088316179175E-6</v>
+      </c>
+      <c r="C48" s="50"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="26"/>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
       <c r="M48" s="14"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="31"/>
-      <c r="R48" s="31"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
+    <row r="49" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="47">
         <v>4</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="58">
         <f t="shared" si="36"/>
-        <v>0.43350975364751332</v>
-      </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
+        <v>2.2205421724708074E-6</v>
+      </c>
+      <c r="C49" s="63"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="26"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
       <c r="M49" s="14"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="31"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="30"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
+    <row r="50" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A50" s="47">
         <v>5</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="58">
         <f t="shared" si="36"/>
-        <v>0.44838582094907753</v>
-      </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
+        <v>2.5257266231815123E-6</v>
+      </c>
+      <c r="C50" s="52"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="26"/>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
@@ -11840,19 +12000,19 @@
       <c r="L50" s="14"/>
       <c r="M50" s="14"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
+    <row r="51" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A51" s="47">
         <v>6</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="58">
         <f t="shared" si="36"/>
-        <v>0.4287340492197047</v>
-      </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
+        <v>2.6386109972520444E-6</v>
+      </c>
+      <c r="C51" s="52"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="26"/>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
@@ -11860,19 +12020,19 @@
       <c r="L51" s="14"/>
       <c r="M51" s="14"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+    <row r="52" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A52" s="47">
         <v>7</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="58">
         <f t="shared" si="36"/>
-        <v>0.3745755058339526</v>
-      </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
+        <v>2.503760565319979E-6</v>
+      </c>
+      <c r="C52" s="52"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="26"/>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
@@ -11880,19 +12040,19 @@
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
+    <row r="53" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="47">
         <v>8</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="58">
         <f t="shared" si="36"/>
-        <v>0.28548917437047772</v>
-      </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
+        <v>2.061387522456215E-6</v>
+      </c>
+      <c r="C53" s="52"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="26"/>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="14"/>
@@ -11900,19 +12060,19 @@
       <c r="L53" s="14"/>
       <c r="M53" s="14"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A54" s="5">
+    <row r="54" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A54" s="47">
         <v>9</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="58">
         <f t="shared" si="36"/>
-        <v>0.16083754945280715</v>
-      </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
+        <v>1.2484249878319531E-6</v>
+      </c>
+      <c r="C54" s="52"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="26"/>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
@@ -11920,19 +12080,19 @@
       <c r="L54" s="14"/>
       <c r="M54" s="14"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+    <row r="55" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="47">
         <v>10</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="58">
         <f t="shared" si="36"/>
-        <v>4.4408920985006262E-16</v>
-      </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
+        <v>1.7763568394002505E-15</v>
+      </c>
+      <c r="C55" s="52"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="26"/>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
       <c r="J55" s="14"/>
@@ -12221,10 +12381,10 @@
       <c r="A81" s="13"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
       <c r="J81" s="14"/>
@@ -12236,10 +12396,10 @@
       <c r="A82" s="13"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
       <c r="J82" s="14"/>
@@ -12936,7 +13096,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12977,25 +13138,25 @@
     <row r="1" spans="1:73" x14ac:dyDescent="0.3">
       <c r="C1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="22" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:73" x14ac:dyDescent="0.3">
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="28" t="s">
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="27" t="s">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
@@ -13004,37 +13165,37 @@
       <c r="AE2" t="s">
         <v>23</v>
       </c>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
       <c r="AS2" t="s">
         <v>26</v>
       </c>
-      <c r="AX2" s="33"/>
-      <c r="AY2" s="33"/>
-      <c r="AZ2" s="33"/>
-      <c r="BA2" s="33"/>
-      <c r="BB2" s="33"/>
-      <c r="BC2" s="33"/>
+      <c r="AX2" s="32"/>
+      <c r="AY2" s="32"/>
+      <c r="AZ2" s="32"/>
+      <c r="BA2" s="32"/>
+      <c r="BB2" s="32"/>
+      <c r="BC2" s="32"/>
       <c r="BE2" s="13"/>
-      <c r="BF2" s="30"/>
-      <c r="BG2" s="30"/>
-      <c r="BH2" s="34"/>
-      <c r="BI2" s="34"/>
-      <c r="BJ2" s="34"/>
-      <c r="BK2" s="33"/>
-      <c r="BL2" s="30"/>
-      <c r="BM2" s="30"/>
-      <c r="BN2" s="30"/>
-      <c r="BO2" s="30"/>
-      <c r="BP2" s="30"/>
-      <c r="BQ2" s="30"/>
+      <c r="BF2" s="29"/>
+      <c r="BG2" s="29"/>
+      <c r="BH2" s="33"/>
+      <c r="BI2" s="33"/>
+      <c r="BJ2" s="33"/>
+      <c r="BK2" s="32"/>
+      <c r="BL2" s="29"/>
+      <c r="BM2" s="29"/>
+      <c r="BN2" s="29"/>
+      <c r="BO2" s="29"/>
+      <c r="BP2" s="29"/>
+      <c r="BQ2" s="29"/>
       <c r="BS2" s="13"/>
-      <c r="BT2" s="30"/>
-      <c r="BU2" s="30"/>
+      <c r="BT2" s="29"/>
+      <c r="BU2" s="29"/>
     </row>
     <row r="3" spans="1:73" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
@@ -13147,7 +13308,7 @@
       <c r="AN3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AO3" s="36" t="s">
+      <c r="AO3" s="35" t="s">
         <v>27</v>
       </c>
       <c r="AQ3" s="19" t="s">
@@ -13186,25 +13347,25 @@
       <c r="BB3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="BC3" s="36" t="s">
+      <c r="BC3" s="35" t="s">
         <v>27</v>
       </c>
       <c r="BE3" s="13"/>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="35"/>
-      <c r="BI3" s="35"/>
-      <c r="BJ3" s="35"/>
-      <c r="BK3" s="33"/>
-      <c r="BL3" s="30"/>
-      <c r="BM3" s="30"/>
-      <c r="BN3" s="30"/>
-      <c r="BO3" s="30"/>
-      <c r="BP3" s="30"/>
-      <c r="BQ3" s="30"/>
+      <c r="BF3" s="29"/>
+      <c r="BG3" s="29"/>
+      <c r="BH3" s="34"/>
+      <c r="BI3" s="34"/>
+      <c r="BJ3" s="34"/>
+      <c r="BK3" s="32"/>
+      <c r="BL3" s="29"/>
+      <c r="BM3" s="29"/>
+      <c r="BN3" s="29"/>
+      <c r="BO3" s="29"/>
+      <c r="BP3" s="29"/>
+      <c r="BQ3" s="29"/>
       <c r="BS3" s="13"/>
-      <c r="BT3" s="30"/>
-      <c r="BU3" s="30"/>
+      <c r="BT3" s="29"/>
+      <c r="BU3" s="29"/>
     </row>
     <row r="4" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -13421,15 +13582,15 @@
       <c r="BJ4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="BL4" s="30"/>
-      <c r="BM4" s="30"/>
-      <c r="BN4" s="30"/>
-      <c r="BO4" s="30"/>
-      <c r="BP4" s="30"/>
-      <c r="BQ4" s="30"/>
+      <c r="BL4" s="29"/>
+      <c r="BM4" s="29"/>
+      <c r="BN4" s="29"/>
+      <c r="BO4" s="29"/>
+      <c r="BP4" s="29"/>
+      <c r="BQ4" s="29"/>
       <c r="BS4" s="13"/>
-      <c r="BT4" s="30"/>
-      <c r="BU4" s="30"/>
+      <c r="BT4" s="29"/>
+      <c r="BU4" s="29"/>
     </row>
     <row r="5" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
@@ -13646,21 +13807,21 @@
       <c r="BG5" s="7">
         <v>0</v>
       </c>
-      <c r="BH5" s="25">
+      <c r="BH5" s="24">
         <f>($M$104 - $M$4) / (3 - 0)</f>
         <v>621748.19725183747</v>
       </c>
-      <c r="BI5" s="29"/>
-      <c r="BJ5" s="29"/>
-      <c r="BL5" s="30"/>
-      <c r="BM5" s="30"/>
-      <c r="BN5" s="30"/>
-      <c r="BO5" s="30"/>
-      <c r="BP5" s="30"/>
-      <c r="BQ5" s="30"/>
-      <c r="BS5" s="31"/>
-      <c r="BT5" s="31"/>
-      <c r="BU5" s="31"/>
+      <c r="BI5" s="28"/>
+      <c r="BJ5" s="28"/>
+      <c r="BL5" s="29"/>
+      <c r="BM5" s="29"/>
+      <c r="BN5" s="29"/>
+      <c r="BO5" s="29"/>
+      <c r="BP5" s="29"/>
+      <c r="BQ5" s="29"/>
+      <c r="BS5" s="30"/>
+      <c r="BT5" s="30"/>
+      <c r="BU5" s="30"/>
     </row>
     <row r="6" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
@@ -13877,27 +14038,27 @@
       <c r="BG6" s="7">
         <v>1</v>
       </c>
-      <c r="BH6" s="25">
+      <c r="BH6" s="24">
         <f>($M$104 - $M$4) / (3 - 0) + 0.5</f>
         <v>621748.69725183747</v>
       </c>
-      <c r="BI6" s="26">
+      <c r="BI6" s="25">
         <f>Q104</f>
         <v>6172019112.5177717</v>
       </c>
-      <c r="BJ6" s="29">
+      <c r="BJ6" s="28">
         <f>ABS(BI6 - $M$14)</f>
         <v>6172019107.2192106</v>
       </c>
-      <c r="BL6" s="30"/>
-      <c r="BM6" s="30"/>
-      <c r="BN6" s="30"/>
-      <c r="BO6" s="30"/>
-      <c r="BP6" s="30"/>
-      <c r="BQ6" s="30"/>
-      <c r="BS6" s="31"/>
-      <c r="BT6" s="31"/>
-      <c r="BU6" s="31"/>
+      <c r="BL6" s="29"/>
+      <c r="BM6" s="29"/>
+      <c r="BN6" s="29"/>
+      <c r="BO6" s="29"/>
+      <c r="BP6" s="29"/>
+      <c r="BQ6" s="29"/>
+      <c r="BS6" s="30"/>
+      <c r="BT6" s="30"/>
+      <c r="BU6" s="30"/>
     </row>
     <row r="7" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
@@ -14114,27 +14275,27 @@
       <c r="BG7" s="7">
         <v>2</v>
       </c>
-      <c r="BH7" s="25">
+      <c r="BH7" s="24">
         <f>BH6-(BI6 - $M$104) * (BH6 - BH5) / (Q104-C104)</f>
         <v>4.0012763176346198</v>
       </c>
-      <c r="BI7" s="26">
+      <c r="BI7" s="25">
         <f>AE104</f>
         <v>1865249.5855399079</v>
       </c>
-      <c r="BJ7" s="29">
+      <c r="BJ7" s="28">
         <f>ABS(BI7 - $M$104)</f>
         <v>1.9937843955121934</v>
       </c>
-      <c r="BL7" s="30"/>
-      <c r="BM7" s="30"/>
-      <c r="BN7" s="30"/>
-      <c r="BO7" s="30"/>
-      <c r="BP7" s="30"/>
-      <c r="BQ7" s="30"/>
-      <c r="BS7" s="31"/>
-      <c r="BT7" s="31"/>
-      <c r="BU7" s="31"/>
+      <c r="BL7" s="29"/>
+      <c r="BM7" s="29"/>
+      <c r="BN7" s="29"/>
+      <c r="BO7" s="29"/>
+      <c r="BP7" s="29"/>
+      <c r="BQ7" s="29"/>
+      <c r="BS7" s="30"/>
+      <c r="BT7" s="30"/>
+      <c r="BU7" s="30"/>
     </row>
     <row r="8" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -14351,28 +14512,28 @@
       <c r="BG8" s="7">
         <v>3</v>
       </c>
-      <c r="BH8" s="25">
+      <c r="BH8" s="24">
         <f>BH7-(BI7 - $M$104) * (BH7 - BH6) / (AE104-Q104)</f>
         <v>4.0010754109959255</v>
       </c>
-      <c r="BI8" s="26">
+      <c r="BI8" s="25">
         <f>AS104</f>
         <v>1865247.5917555126</v>
       </c>
-      <c r="BJ8" s="29">
+      <c r="BJ8" s="28">
         <f>ABS(BI8 - $M$104)</f>
         <v>2.3283064365386963E-10</v>
       </c>
-      <c r="BK8" s="27"/>
-      <c r="BL8" s="30"/>
-      <c r="BM8" s="30"/>
-      <c r="BN8" s="30"/>
-      <c r="BO8" s="30"/>
-      <c r="BP8" s="30"/>
-      <c r="BQ8" s="30"/>
-      <c r="BS8" s="31"/>
-      <c r="BT8" s="31"/>
-      <c r="BU8" s="31"/>
+      <c r="BK8" s="26"/>
+      <c r="BL8" s="29"/>
+      <c r="BM8" s="29"/>
+      <c r="BN8" s="29"/>
+      <c r="BO8" s="29"/>
+      <c r="BP8" s="29"/>
+      <c r="BQ8" s="29"/>
+      <c r="BS8" s="30"/>
+      <c r="BT8" s="30"/>
+      <c r="BU8" s="30"/>
     </row>
     <row r="9" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
@@ -14586,20 +14747,20 @@
         <f t="shared" si="36"/>
         <v>1.6383756296445284E-4</v>
       </c>
-      <c r="BG9" s="24"/>
-      <c r="BH9" s="27"/>
-      <c r="BI9" s="27"/>
-      <c r="BJ9" s="27"/>
-      <c r="BK9" s="27"/>
-      <c r="BL9" s="30"/>
-      <c r="BM9" s="30"/>
-      <c r="BN9" s="30"/>
-      <c r="BO9" s="30"/>
-      <c r="BP9" s="30"/>
-      <c r="BQ9" s="30"/>
-      <c r="BS9" s="31"/>
-      <c r="BT9" s="31"/>
-      <c r="BU9" s="31"/>
+      <c r="BG9" s="23"/>
+      <c r="BH9" s="26"/>
+      <c r="BI9" s="26"/>
+      <c r="BJ9" s="26"/>
+      <c r="BK9" s="26"/>
+      <c r="BL9" s="29"/>
+      <c r="BM9" s="29"/>
+      <c r="BN9" s="29"/>
+      <c r="BO9" s="29"/>
+      <c r="BP9" s="29"/>
+      <c r="BQ9" s="29"/>
+      <c r="BS9" s="30"/>
+      <c r="BT9" s="30"/>
+      <c r="BU9" s="30"/>
     </row>
     <row r="10" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
@@ -14813,17 +14974,17 @@
         <f t="shared" si="36"/>
         <v>2.1795795886880853E-4</v>
       </c>
-      <c r="BG10" s="30"/>
-      <c r="BH10" s="27"/>
-      <c r="BI10" s="27"/>
-      <c r="BJ10" s="27"/>
-      <c r="BK10" s="27"/>
-      <c r="BL10" s="30"/>
-      <c r="BM10" s="30"/>
-      <c r="BN10" s="30"/>
-      <c r="BO10" s="30"/>
-      <c r="BP10" s="30"/>
-      <c r="BQ10" s="30"/>
+      <c r="BG10" s="29"/>
+      <c r="BH10" s="26"/>
+      <c r="BI10" s="26"/>
+      <c r="BJ10" s="26"/>
+      <c r="BK10" s="26"/>
+      <c r="BL10" s="29"/>
+      <c r="BM10" s="29"/>
+      <c r="BN10" s="29"/>
+      <c r="BO10" s="29"/>
+      <c r="BP10" s="29"/>
+      <c r="BQ10" s="29"/>
     </row>
     <row r="11" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
@@ -15037,17 +15198,17 @@
         <f t="shared" si="36"/>
         <v>2.7851627127439826E-4</v>
       </c>
-      <c r="BG11" s="30"/>
-      <c r="BH11" s="27"/>
-      <c r="BI11" s="27"/>
-      <c r="BJ11" s="27"/>
-      <c r="BK11" s="27"/>
-      <c r="BL11" s="30"/>
-      <c r="BM11" s="30"/>
-      <c r="BN11" s="30"/>
-      <c r="BO11" s="30"/>
-      <c r="BP11" s="30"/>
-      <c r="BQ11" s="30"/>
+      <c r="BG11" s="29"/>
+      <c r="BH11" s="26"/>
+      <c r="BI11" s="26"/>
+      <c r="BJ11" s="26"/>
+      <c r="BK11" s="26"/>
+      <c r="BL11" s="29"/>
+      <c r="BM11" s="29"/>
+      <c r="BN11" s="29"/>
+      <c r="BO11" s="29"/>
+      <c r="BP11" s="29"/>
+      <c r="BQ11" s="29"/>
     </row>
     <row r="12" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
@@ -15261,17 +15422,17 @@
         <f t="shared" si="36"/>
         <v>3.462100850857297E-4</v>
       </c>
-      <c r="BG12" s="30"/>
-      <c r="BH12" s="27"/>
-      <c r="BI12" s="27"/>
-      <c r="BJ12" s="27"/>
-      <c r="BK12" s="27"/>
-      <c r="BL12" s="30"/>
-      <c r="BM12" s="30"/>
-      <c r="BN12" s="30"/>
-      <c r="BO12" s="30"/>
-      <c r="BP12" s="30"/>
-      <c r="BQ12" s="30"/>
+      <c r="BG12" s="29"/>
+      <c r="BH12" s="26"/>
+      <c r="BI12" s="26"/>
+      <c r="BJ12" s="26"/>
+      <c r="BK12" s="26"/>
+      <c r="BL12" s="29"/>
+      <c r="BM12" s="29"/>
+      <c r="BN12" s="29"/>
+      <c r="BO12" s="29"/>
+      <c r="BP12" s="29"/>
+      <c r="BQ12" s="29"/>
     </row>
     <row r="13" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
@@ -15485,17 +15646,17 @@
         <f t="shared" si="36"/>
         <v>4.2181107068550716E-4</v>
       </c>
-      <c r="BG13" s="30"/>
-      <c r="BH13" s="27"/>
-      <c r="BI13" s="27"/>
-      <c r="BJ13" s="27"/>
-      <c r="BK13" s="27"/>
-      <c r="BL13" s="30"/>
-      <c r="BM13" s="30"/>
-      <c r="BN13" s="30"/>
-      <c r="BO13" s="30"/>
-      <c r="BP13" s="30"/>
-      <c r="BQ13" s="30"/>
+      <c r="BG13" s="29"/>
+      <c r="BH13" s="26"/>
+      <c r="BI13" s="26"/>
+      <c r="BJ13" s="26"/>
+      <c r="BK13" s="26"/>
+      <c r="BL13" s="29"/>
+      <c r="BM13" s="29"/>
+      <c r="BN13" s="29"/>
+      <c r="BO13" s="29"/>
+      <c r="BP13" s="29"/>
+      <c r="BQ13" s="29"/>
     </row>
     <row r="14" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
@@ -15709,17 +15870,17 @@
         <f t="shared" si="36"/>
         <v>5.0617275737785405E-4</v>
       </c>
-      <c r="BG14" s="30"/>
-      <c r="BH14" s="27"/>
-      <c r="BI14" s="27"/>
-      <c r="BJ14" s="27"/>
-      <c r="BK14" s="27"/>
-      <c r="BL14" s="30"/>
-      <c r="BM14" s="30"/>
-      <c r="BN14" s="30"/>
-      <c r="BO14" s="30"/>
-      <c r="BP14" s="30"/>
-      <c r="BQ14" s="30"/>
+      <c r="BG14" s="29"/>
+      <c r="BH14" s="26"/>
+      <c r="BI14" s="26"/>
+      <c r="BJ14" s="26"/>
+      <c r="BK14" s="26"/>
+      <c r="BL14" s="29"/>
+      <c r="BM14" s="29"/>
+      <c r="BN14" s="29"/>
+      <c r="BO14" s="29"/>
+      <c r="BP14" s="29"/>
+      <c r="BQ14" s="29"/>
     </row>
     <row r="15" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
@@ -15933,17 +16094,17 @@
         <f t="shared" si="36"/>
         <v>6.0023910951123582E-4</v>
       </c>
-      <c r="BG15" s="30"/>
-      <c r="BH15" s="27"/>
-      <c r="BI15" s="27"/>
-      <c r="BJ15" s="27"/>
-      <c r="BK15" s="27"/>
-      <c r="BL15" s="30"/>
-      <c r="BM15" s="30"/>
-      <c r="BN15" s="30"/>
-      <c r="BO15" s="30"/>
-      <c r="BP15" s="30"/>
-      <c r="BQ15" s="30"/>
+      <c r="BG15" s="29"/>
+      <c r="BH15" s="26"/>
+      <c r="BI15" s="26"/>
+      <c r="BJ15" s="26"/>
+      <c r="BK15" s="26"/>
+      <c r="BL15" s="29"/>
+      <c r="BM15" s="29"/>
+      <c r="BN15" s="29"/>
+      <c r="BO15" s="29"/>
+      <c r="BP15" s="29"/>
+      <c r="BQ15" s="29"/>
     </row>
     <row r="16" spans="1:73" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
@@ -16157,17 +16318,17 @@
         <f t="shared" ref="BF16:BF79" si="93">ABS(AS15-BC15)</f>
         <v>7.0505398599518543E-4</v>
       </c>
-      <c r="BG16" s="30"/>
-      <c r="BH16" s="30"/>
-      <c r="BI16" s="30"/>
-      <c r="BJ16" s="30"/>
-      <c r="BK16" s="30"/>
-      <c r="BL16" s="30"/>
-      <c r="BM16" s="30"/>
-      <c r="BN16" s="30"/>
-      <c r="BO16" s="30"/>
-      <c r="BP16" s="30"/>
-      <c r="BQ16" s="30"/>
+      <c r="BG16" s="29"/>
+      <c r="BH16" s="29"/>
+      <c r="BI16" s="29"/>
+      <c r="BJ16" s="29"/>
+      <c r="BK16" s="29"/>
+      <c r="BL16" s="29"/>
+      <c r="BM16" s="29"/>
+      <c r="BN16" s="29"/>
+      <c r="BO16" s="29"/>
+      <c r="BP16" s="29"/>
+      <c r="BQ16" s="29"/>
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
@@ -16381,17 +16542,17 @@
         <f t="shared" si="93"/>
         <v>8.2177157177820703E-4</v>
       </c>
-      <c r="BG17" s="30"/>
-      <c r="BH17" s="30"/>
-      <c r="BI17" s="30"/>
-      <c r="BJ17" s="30"/>
-      <c r="BK17" s="30"/>
-      <c r="BL17" s="30"/>
-      <c r="BM17" s="30"/>
-      <c r="BN17" s="30"/>
-      <c r="BO17" s="30"/>
-      <c r="BP17" s="30"/>
-      <c r="BQ17" s="30"/>
+      <c r="BG17" s="29"/>
+      <c r="BH17" s="29"/>
+      <c r="BI17" s="29"/>
+      <c r="BJ17" s="29"/>
+      <c r="BK17" s="29"/>
+      <c r="BL17" s="29"/>
+      <c r="BM17" s="29"/>
+      <c r="BN17" s="29"/>
+      <c r="BO17" s="29"/>
+      <c r="BP17" s="29"/>
+      <c r="BQ17" s="29"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
@@ -16605,17 +16766,17 @@
         <f t="shared" si="93"/>
         <v>9.516678782572896E-4</v>
       </c>
-      <c r="BG18" s="30"/>
-      <c r="BH18" s="30"/>
-      <c r="BI18" s="30"/>
-      <c r="BJ18" s="30"/>
-      <c r="BK18" s="30"/>
-      <c r="BL18" s="30"/>
-      <c r="BM18" s="30"/>
-      <c r="BN18" s="30"/>
-      <c r="BO18" s="30"/>
-      <c r="BP18" s="30"/>
-      <c r="BQ18" s="30"/>
+      <c r="BG18" s="29"/>
+      <c r="BH18" s="29"/>
+      <c r="BI18" s="29"/>
+      <c r="BJ18" s="29"/>
+      <c r="BK18" s="29"/>
+      <c r="BL18" s="29"/>
+      <c r="BM18" s="29"/>
+      <c r="BN18" s="29"/>
+      <c r="BO18" s="29"/>
+      <c r="BP18" s="29"/>
+      <c r="BQ18" s="29"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
@@ -16829,17 +16990,17 @@
         <f t="shared" si="93"/>
         <v>1.0961534188060895E-3</v>
       </c>
-      <c r="BG19" s="30"/>
-      <c r="BH19" s="30"/>
-      <c r="BI19" s="30"/>
-      <c r="BJ19" s="30"/>
-      <c r="BK19" s="30"/>
-      <c r="BL19" s="30"/>
-      <c r="BM19" s="30"/>
-      <c r="BN19" s="30"/>
-      <c r="BO19" s="30"/>
-      <c r="BP19" s="30"/>
-      <c r="BQ19" s="30"/>
+      <c r="BG19" s="29"/>
+      <c r="BH19" s="29"/>
+      <c r="BI19" s="29"/>
+      <c r="BJ19" s="29"/>
+      <c r="BK19" s="29"/>
+      <c r="BL19" s="29"/>
+      <c r="BM19" s="29"/>
+      <c r="BN19" s="29"/>
+      <c r="BO19" s="29"/>
+      <c r="BP19" s="29"/>
+      <c r="BQ19" s="29"/>
     </row>
     <row r="20" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
@@ -17053,17 +17214,17 @@
         <f t="shared" si="93"/>
         <v>1.2567871755635451E-3</v>
       </c>
-      <c r="BG20" s="30"/>
-      <c r="BH20" s="30"/>
-      <c r="BI20" s="30"/>
-      <c r="BJ20" s="30"/>
-      <c r="BK20" s="30"/>
-      <c r="BL20" s="30"/>
-      <c r="BM20" s="30"/>
-      <c r="BN20" s="30"/>
-      <c r="BO20" s="30"/>
-      <c r="BP20" s="30"/>
-      <c r="BQ20" s="30"/>
+      <c r="BG20" s="29"/>
+      <c r="BH20" s="29"/>
+      <c r="BI20" s="29"/>
+      <c r="BJ20" s="29"/>
+      <c r="BK20" s="29"/>
+      <c r="BL20" s="29"/>
+      <c r="BM20" s="29"/>
+      <c r="BN20" s="29"/>
+      <c r="BO20" s="29"/>
+      <c r="BP20" s="29"/>
+      <c r="BQ20" s="29"/>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
@@ -17277,17 +17438,17 @@
         <f t="shared" si="93"/>
         <v>1.4352919844586864E-3</v>
       </c>
-      <c r="BG21" s="30"/>
-      <c r="BH21" s="30"/>
-      <c r="BI21" s="30"/>
-      <c r="BJ21" s="30"/>
-      <c r="BK21" s="30"/>
-      <c r="BL21" s="30"/>
-      <c r="BM21" s="30"/>
-      <c r="BN21" s="30"/>
-      <c r="BO21" s="30"/>
-      <c r="BP21" s="30"/>
-      <c r="BQ21" s="30"/>
+      <c r="BG21" s="29"/>
+      <c r="BH21" s="29"/>
+      <c r="BI21" s="29"/>
+      <c r="BJ21" s="29"/>
+      <c r="BK21" s="29"/>
+      <c r="BL21" s="29"/>
+      <c r="BM21" s="29"/>
+      <c r="BN21" s="29"/>
+      <c r="BO21" s="29"/>
+      <c r="BP21" s="29"/>
+      <c r="BQ21" s="29"/>
     </row>
     <row r="22" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
@@ -17501,17 +17662,17 @@
         <f t="shared" si="93"/>
         <v>1.6335714771411602E-3</v>
       </c>
-      <c r="BG22" s="30"/>
-      <c r="BH22" s="30"/>
-      <c r="BI22" s="30"/>
-      <c r="BJ22" s="30"/>
-      <c r="BK22" s="30"/>
-      <c r="BL22" s="30"/>
-      <c r="BM22" s="30"/>
-      <c r="BN22" s="30"/>
-      <c r="BO22" s="30"/>
-      <c r="BP22" s="30"/>
-      <c r="BQ22" s="30"/>
+      <c r="BG22" s="29"/>
+      <c r="BH22" s="29"/>
+      <c r="BI22" s="29"/>
+      <c r="BJ22" s="29"/>
+      <c r="BK22" s="29"/>
+      <c r="BL22" s="29"/>
+      <c r="BM22" s="29"/>
+      <c r="BN22" s="29"/>
+      <c r="BO22" s="29"/>
+      <c r="BP22" s="29"/>
+      <c r="BQ22" s="29"/>
     </row>
     <row r="23" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
@@ -17725,17 +17886,17 @@
         <f t="shared" si="93"/>
         <v>1.8537287310902428E-3</v>
       </c>
-      <c r="BG23" s="30"/>
-      <c r="BH23" s="30"/>
-      <c r="BI23" s="30"/>
-      <c r="BJ23" s="30"/>
-      <c r="BK23" s="30"/>
-      <c r="BL23" s="30"/>
-      <c r="BM23" s="30"/>
-      <c r="BN23" s="30"/>
-      <c r="BO23" s="30"/>
-      <c r="BP23" s="30"/>
-      <c r="BQ23" s="30"/>
+      <c r="BG23" s="29"/>
+      <c r="BH23" s="29"/>
+      <c r="BI23" s="29"/>
+      <c r="BJ23" s="29"/>
+      <c r="BK23" s="29"/>
+      <c r="BL23" s="29"/>
+      <c r="BM23" s="29"/>
+      <c r="BN23" s="29"/>
+      <c r="BO23" s="29"/>
+      <c r="BP23" s="29"/>
+      <c r="BQ23" s="29"/>
     </row>
     <row r="24" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
@@ -17949,17 +18110,17 @@
         <f t="shared" si="93"/>
         <v>2.0980867928752645E-3</v>
       </c>
-      <c r="BG24" s="30"/>
-      <c r="BH24" s="30"/>
-      <c r="BI24" s="30"/>
-      <c r="BJ24" s="30"/>
-      <c r="BK24" s="30"/>
-      <c r="BL24" s="30"/>
-      <c r="BM24" s="30"/>
-      <c r="BN24" s="30"/>
-      <c r="BO24" s="30"/>
-      <c r="BP24" s="30"/>
-      <c r="BQ24" s="30"/>
+      <c r="BG24" s="29"/>
+      <c r="BH24" s="29"/>
+      <c r="BI24" s="29"/>
+      <c r="BJ24" s="29"/>
+      <c r="BK24" s="29"/>
+      <c r="BL24" s="29"/>
+      <c r="BM24" s="29"/>
+      <c r="BN24" s="29"/>
+      <c r="BO24" s="29"/>
+      <c r="BP24" s="29"/>
+      <c r="BQ24" s="29"/>
     </row>
     <row r="25" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
@@ -18173,17 +18334,17 @@
         <f t="shared" si="93"/>
         <v>2.3692112541411348E-3</v>
       </c>
-      <c r="BG25" s="30"/>
-      <c r="BH25" s="30"/>
-      <c r="BI25" s="30"/>
-      <c r="BJ25" s="30"/>
-      <c r="BK25" s="30"/>
-      <c r="BL25" s="30"/>
-      <c r="BM25" s="30"/>
-      <c r="BN25" s="30"/>
-      <c r="BO25" s="30"/>
-      <c r="BP25" s="30"/>
-      <c r="BQ25" s="30"/>
+      <c r="BG25" s="29"/>
+      <c r="BH25" s="29"/>
+      <c r="BI25" s="29"/>
+      <c r="BJ25" s="29"/>
+      <c r="BK25" s="29"/>
+      <c r="BL25" s="29"/>
+      <c r="BM25" s="29"/>
+      <c r="BN25" s="29"/>
+      <c r="BO25" s="29"/>
+      <c r="BP25" s="29"/>
+      <c r="BQ25" s="29"/>
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A26" s="5">

--- a/Вычислительная математика/Практическая работа 4/Расчёты по практике №4.xlsx
+++ b/Вычислительная математика/Практическая работа 4/Расчёты по практике №4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Programming\Вычислительная математика\Практическая работа 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vladimir\Documents\GitHub\Programming\Вычислительная математика\Практическая работа 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="795" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -431,35 +431,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -516,6 +489,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4771,10 +4771,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>868763</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38663</xdr:rowOff>
+      <xdr:rowOff>70064</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3841531" cy="361856"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4792,7 +4792,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12061371" y="38663"/>
+              <a:off x="11712609" y="70064"/>
               <a:ext cx="3841531" cy="361856"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5134,7 +5134,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12061371" y="38663"/>
+              <a:off x="11712609" y="70064"/>
               <a:ext cx="3841531" cy="361856"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5368,8 +5368,8 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2629562" cy="342899"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -5687,7 +5687,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -5766,14 +5766,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2679560</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>157005</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3247208" cy="381000"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -5787,7 +5787,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5844988" y="2680447"/>
+              <a:off x="5777802" y="10006483"/>
               <a:ext cx="3247208" cy="381000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6109,7 +6109,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -6123,7 +6123,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5844988" y="2680447"/>
+              <a:off x="5777802" y="10006483"/>
               <a:ext cx="3247208" cy="381000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6268,7 +6268,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -8927,22 +8927,22 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" customWidth="1"/>
-    <col min="7" max="8" width="8.44140625" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" customWidth="1"/>
-    <col min="10" max="10" width="31.77734375" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="8" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" customWidth="1"/>
     <col min="11" max="11" width="45" customWidth="1"/>
-    <col min="12" max="12" width="26.5546875" customWidth="1"/>
-    <col min="13" max="13" width="46.21875" customWidth="1"/>
+    <col min="12" max="12" width="26.5703125" customWidth="1"/>
+    <col min="13" max="13" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="J1" s="10"/>
@@ -8951,17 +8951,17 @@
       </c>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J2" s="37" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="38"/>
+      <c r="K2" s="60"/>
       <c r="L2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="13"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -8994,7 +8994,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -9040,7 +9040,7 @@
       </c>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -9090,7 +9090,7 @@
       </c>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -9140,7 +9140,7 @@
       </c>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -9190,7 +9190,7 @@
       </c>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -9240,7 +9240,7 @@
       </c>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -9290,7 +9290,7 @@
       </c>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -9340,7 +9340,7 @@
       </c>
       <c r="M10" s="14"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -9390,7 +9390,7 @@
       </c>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -9440,7 +9440,7 @@
       </c>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -9490,7 +9490,7 @@
       </c>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -9540,14 +9540,14 @@
       </c>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C15" s="36" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>0</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>1</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>1.8209805040303451E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>2</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>3.2989562118168614E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>3</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>4.3336659522164034E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>4</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>4.8562658611639442E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>5</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>4.839295804059951E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>6</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>4.3017248218646387E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>7</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>3.3088162591010661E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>8</v>
       </c>
@@ -9714,7 +9714,7 @@
         <v>1.9669970914362733E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>9</v>
       </c>
@@ -9731,7 +9731,7 @@
         <v>4.1435881253937268E-6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>10</v>
       </c>
@@ -9763,1807 +9763,1807 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.33203125" customWidth="1"/>
-    <col min="3" max="3" width="44.109375" customWidth="1"/>
-    <col min="4" max="4" width="44.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" customWidth="1"/>
-    <col min="12" max="12" width="11.77734375" customWidth="1"/>
-    <col min="13" max="13" width="38.44140625" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" customWidth="1"/>
-    <col min="15" max="15" width="12.77734375" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" customWidth="1"/>
-    <col min="17" max="17" width="9.77734375" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" customWidth="1"/>
-    <col min="20" max="20" width="9.5546875" customWidth="1"/>
-    <col min="21" max="21" width="10.44140625" customWidth="1"/>
-    <col min="22" max="22" width="11.33203125" customWidth="1"/>
-    <col min="23" max="23" width="12.109375" customWidth="1"/>
-    <col min="25" max="25" width="25.88671875" customWidth="1"/>
-    <col min="27" max="27" width="33.44140625" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="38.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" customWidth="1"/>
+    <col min="25" max="25" width="25.85546875" customWidth="1"/>
+    <col min="27" max="27" width="33.42578125" customWidth="1"/>
     <col min="28" max="28" width="35" customWidth="1"/>
-    <col min="37" max="37" width="24.109375" customWidth="1"/>
+    <col min="37" max="37" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="65" t="s">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="56" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="64" t="s">
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="66" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="57" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="53" t="s">
+    <row r="3" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="54" t="s">
+      <c r="K3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="54" t="s">
+      <c r="L3" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="46"/>
     </row>
-    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="47">
+    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="38">
         <v>0</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="39">
         <v>0</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="39">
         <v>0</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="39">
         <f>D45</f>
         <v>1.8186613472629567</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="39">
         <f>$B$5 * (D4)</f>
         <v>0.18186613472629568</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="39">
         <f>$B$5 * (2 * D4 - 2 * C4 + 2 * B4)</f>
         <v>0.36373226945259135</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="39">
         <f>$B$5 * (D4 + F4 / 2)</f>
         <v>0.20005274819892527</v>
       </c>
-      <c r="H4" s="48">
+      <c r="H4" s="39">
         <f>$B$5 * (2 * (D4 + F4 / 2) - 2 * (C4 + E4 / 2) + 2 * (B4 + $B$5/2))</f>
         <v>0.39191888292522092</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="39">
         <f>$B$5 * (D4 + H4 / 2)</f>
         <v>0.20146207887255674</v>
       </c>
-      <c r="J4" s="48">
+      <c r="J4" s="39">
         <f>$B$5 * (2 * (D4 + H4 / 2) - 2 * (C4 + G4 / 2) + 2 * (B4 + $B$5/2))</f>
         <v>0.39291888292522098</v>
       </c>
-      <c r="K4" s="48">
+      <c r="K4" s="39">
         <f>$B$5 * (D4 + J4)</f>
         <v>0.22115802301881776</v>
       </c>
-      <c r="L4" s="48">
+      <c r="L4" s="39">
         <f>$B$5 * (2 * (D4 + J4) - 2 *(C4 + I4)  + 2 * (B4 + $B$5))</f>
         <v>0.42202363026312417</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="40">
         <f xml:space="preserve"> -EXP(B4) * COS(B4) + EXP(B4) * SIN(B4) + B4 + 1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="47">
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="38">
         <v>1</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="39">
         <f>B4 + 1 / 10</f>
         <v>0.1</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="39">
         <f>C4 + (E4 + 2*G4 + 2*I4 + K4) / 6</f>
         <v>0.2010089686480129</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="39">
         <f>D4 + (F4 + 2 * H4 + 2 * J4 + L4)/6</f>
         <v>2.2112332524990563</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="39">
         <f t="shared" ref="E5:E14" si="0">$B$5 * (D5)</f>
         <v>0.22112332524990563</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="39">
         <f t="shared" ref="F5:F14" si="1">$B$5 * (2 * D5 - 2 * C5 + 2 * B5)</f>
         <v>0.42204485677020875</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="39">
         <f t="shared" ref="G5:G14" si="2">$B$5 * (D5 + F5 / 2)</f>
         <v>0.24222556808841611</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="39">
         <f t="shared" ref="H5:H14" si="3">$B$5 * (2 * (D5 + F5 / 2) - 2 * (C5 + E5 / 2) + 2 * (B5 + $B$5/2))</f>
         <v>0.45213700992223904</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="39">
         <f t="shared" ref="I5:I14" si="4">$B$5 * (D5 + H5 / 2)</f>
         <v>0.24373017574601763</v>
       </c>
-      <c r="J5" s="48">
+      <c r="J5" s="39">
         <f t="shared" ref="J5:J14" si="5">$B$5 * (2 * (D5 + H5 / 2) - 2 * (C5 + G5 / 2) + 2 * (B5 + $B$5/2))</f>
         <v>0.45303600095359098</v>
       </c>
-      <c r="K5" s="48">
+      <c r="K5" s="39">
         <f t="shared" ref="K5:K14" si="6">$B$5 * (D5 + J5)</f>
         <v>0.26642692534526474</v>
       </c>
-      <c r="L5" s="48">
+      <c r="L5" s="39">
         <f t="shared" ref="L5:L14" si="7">$B$5 * (2 * (D5 + J5) - 2 *(C5 + I5)  + 2 * (B5 + $B$5))</f>
         <v>0.48390602181172349</v>
       </c>
-      <c r="M5" s="49">
+      <c r="M5" s="40">
         <f t="shared" ref="M5:M14" si="8" xml:space="preserve"> -EXP(B5) * COS(B5) + EXP(B5) * SIN(B5) + B5 + 1</f>
         <v>0.11068332190079433</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="47">
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="38">
         <v>2</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="39">
         <f t="shared" ref="B6:B14" si="9">B5 + 1 / 10</f>
         <v>0.2</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="39">
         <f t="shared" ref="C6:C14" si="10">C5 + (E5 + 2*G5 + 2*I5 + K5) / 6</f>
         <v>0.44425259169201919</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="39">
         <f t="shared" ref="D6:D14" si="11">D5 + (F5 + 2 * H5 + 2 * J5 + L5)/6</f>
         <v>2.6639494025546551</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="39">
         <f t="shared" si="0"/>
         <v>0.26639494025546551</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="39">
         <f t="shared" si="1"/>
         <v>0.48393936217252725</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="39">
         <f t="shared" si="2"/>
         <v>0.29059190836409188</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="39">
         <f t="shared" si="3"/>
         <v>0.51569380436423329</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="39">
         <f t="shared" si="4"/>
         <v>0.29217963047367718</v>
       </c>
-      <c r="J6" s="48">
+      <c r="J6" s="39">
         <f t="shared" si="5"/>
         <v>0.51644955177254137</v>
       </c>
-      <c r="K6" s="48">
+      <c r="K6" s="39">
         <f t="shared" si="6"/>
         <v>0.31803989543271965</v>
       </c>
-      <c r="L6" s="48">
+      <c r="L6" s="39">
         <f t="shared" si="7"/>
         <v>0.54879334643229993</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="40">
         <f t="shared" si="8"/>
         <v>0.24559924723903159</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="47">
+    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="38">
         <v>3</v>
       </c>
-      <c r="B7" s="48">
+      <c r="B7" s="39">
         <f t="shared" si="9"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="39">
         <f t="shared" si="10"/>
         <v>0.73591557725263979</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="39">
         <f t="shared" si="11"/>
         <v>3.1801193060343844</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="39">
         <f t="shared" si="0"/>
         <v>0.31801193060343846</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="39">
         <f t="shared" si="1"/>
         <v>0.548840745756349</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="39">
         <f t="shared" si="2"/>
         <v>0.34545396789125593</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="39">
         <f t="shared" si="3"/>
         <v>0.58192362727164004</v>
       </c>
-      <c r="I7" s="48">
+      <c r="I7" s="39">
         <f t="shared" si="4"/>
         <v>0.34710811196702046</v>
       </c>
-      <c r="J7" s="48">
+      <c r="J7" s="39">
         <f t="shared" si="5"/>
         <v>0.58248771169438729</v>
       </c>
-      <c r="K7" s="48">
+      <c r="K7" s="39">
         <f t="shared" si="6"/>
         <v>0.37626070177287718</v>
       </c>
-      <c r="L7" s="48">
+      <c r="L7" s="39">
         <f t="shared" si="7"/>
         <v>0.61591666570182235</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M7" s="40">
         <f t="shared" si="8"/>
         <v>0.40934117973355399</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="47">
+    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="38">
         <v>4</v>
       </c>
-      <c r="B8" s="48">
+      <c r="B8" s="39">
         <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="39">
         <f t="shared" si="10"/>
         <v>1.0824817092681178</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="39">
         <f t="shared" si="11"/>
         <v>3.762382654266089</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="39">
         <f t="shared" si="0"/>
         <v>0.37623826542660893</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="39">
         <f t="shared" si="1"/>
         <v>0.61598018899959428</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="39">
         <f t="shared" si="2"/>
         <v>0.40703727487658869</v>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="39">
         <f t="shared" si="3"/>
         <v>0.64995438135689287</v>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="39">
         <f t="shared" si="4"/>
         <v>0.40873598449445353</v>
       </c>
-      <c r="J8" s="48">
+      <c r="J8" s="39">
         <f t="shared" si="5"/>
         <v>0.65027189964762466</v>
       </c>
-      <c r="K8" s="48">
+      <c r="K8" s="39">
         <f t="shared" si="6"/>
         <v>0.44126545539137141</v>
       </c>
-      <c r="L8" s="48">
+      <c r="L8" s="39">
         <f t="shared" si="7"/>
         <v>0.68428737203022849</v>
       </c>
-      <c r="M8" s="49">
+      <c r="M8" s="40">
         <f t="shared" si="8"/>
         <v>0.60688236188304534</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="47">
+    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="38">
         <v>5</v>
       </c>
-      <c r="B9" s="48">
+      <c r="B9" s="39">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="39">
         <f t="shared" si="10"/>
         <v>1.4906567491947953</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="39">
         <f t="shared" si="11"/>
         <v>4.4125026747725649</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="39">
         <f t="shared" si="0"/>
         <v>0.44125026747725649</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="39">
         <f t="shared" si="1"/>
         <v>0.68436918511555389</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="39">
         <f t="shared" si="2"/>
         <v>0.4754687267330342</v>
       </c>
-      <c r="H9" s="48">
+      <c r="H9" s="39">
         <f t="shared" si="3"/>
         <v>0.71868107687938354</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="39">
         <f t="shared" si="4"/>
         <v>0.47718432132122568</v>
       </c>
-      <c r="J9" s="48">
+      <c r="J9" s="39">
         <f t="shared" si="5"/>
         <v>0.7186904201301888</v>
       </c>
-      <c r="K9" s="48">
+      <c r="K9" s="39">
         <f t="shared" si="6"/>
         <v>0.5131193094902754</v>
       </c>
-      <c r="L9" s="48">
+      <c r="L9" s="39">
         <f t="shared" si="7"/>
         <v>0.7526704048773466</v>
       </c>
-      <c r="M9" s="49">
+      <c r="M9" s="40">
         <f t="shared" si="8"/>
         <v>0.84355004662944555</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="47">
+    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="38">
         <v>6</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="39">
         <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="39">
         <f t="shared" si="10"/>
         <v>1.9672693613741372</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="39">
         <f t="shared" si="11"/>
         <v>5.131133105441239</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="39">
         <f t="shared" si="0"/>
         <v>0.5131133105441239</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="39">
         <f t="shared" si="1"/>
         <v>0.75277274881342038</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="39">
         <f t="shared" si="2"/>
         <v>0.55075194798479499</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="39">
         <f t="shared" si="3"/>
         <v>0.78673869264035012</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="39">
         <f t="shared" si="4"/>
         <v>0.55245024517614139</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="39">
         <f t="shared" si="5"/>
         <v>0.78637142327897591</v>
       </c>
-      <c r="K10" s="48">
+      <c r="K10" s="39">
         <f t="shared" si="6"/>
         <v>0.59175045287202155</v>
       </c>
-      <c r="L10" s="48">
+      <c r="L10" s="39">
         <f t="shared" si="7"/>
         <v>0.81955698443398739</v>
       </c>
-      <c r="M10" s="49">
+      <c r="M10" s="40">
         <f t="shared" si="8"/>
         <v>1.1249861257133058</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="47">
+    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="38">
         <v>7</v>
       </c>
-      <c r="B11" s="48">
+      <c r="B11" s="39">
         <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="39">
         <f t="shared" si="10"/>
         <v>2.5191473863304736</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="39">
         <f t="shared" si="11"/>
         <v>5.9175580996222488</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="39">
         <f t="shared" si="0"/>
         <v>0.59175580996222488</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="39">
         <f t="shared" si="1"/>
         <v>0.81968214265835515</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="39">
         <f t="shared" si="2"/>
         <v>0.63273991709514266</v>
       </c>
-      <c r="H11" s="48">
+      <c r="H11" s="39">
         <f t="shared" si="3"/>
         <v>0.85247477592796805</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="39">
         <f t="shared" si="4"/>
         <v>0.63437954875862335</v>
       </c>
-      <c r="J11" s="48">
+      <c r="J11" s="39">
         <f t="shared" si="5"/>
         <v>0.85165562854163745</v>
       </c>
-      <c r="K11" s="48">
+      <c r="K11" s="39">
         <f t="shared" si="6"/>
         <v>0.67692137281638864</v>
       </c>
-      <c r="L11" s="48">
+      <c r="L11" s="39">
         <f t="shared" si="7"/>
         <v>0.88313735861495779</v>
       </c>
-      <c r="M11" s="49">
+      <c r="M11" s="40">
         <f t="shared" si="8"/>
         <v>1.4570920864434889</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="47">
+    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="38">
         <v>8</v>
       </c>
-      <c r="B12" s="48">
+      <c r="B12" s="39">
         <f t="shared" si="9"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="39">
         <f t="shared" si="10"/>
         <v>3.1529667387448312</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="39">
         <f t="shared" si="11"/>
         <v>6.7694048179910027</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="39">
         <f t="shared" si="0"/>
         <v>0.67694048179910027</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="39">
         <f t="shared" si="1"/>
         <v>0.88328761584923443</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="39">
         <f t="shared" si="2"/>
         <v>0.72110486259156203</v>
       </c>
-      <c r="H12" s="48">
+      <c r="H12" s="39">
         <f t="shared" si="3"/>
         <v>0.91392232925424777</v>
       </c>
-      <c r="I12" s="48">
+      <c r="I12" s="39">
         <f t="shared" si="4"/>
         <v>0.7226365982618127</v>
       </c>
-      <c r="J12" s="48">
+      <c r="J12" s="39">
         <f t="shared" si="5"/>
         <v>0.91256936251550291</v>
       </c>
-      <c r="K12" s="48">
+      <c r="K12" s="39">
         <f t="shared" si="6"/>
         <v>0.76819741805065067</v>
       </c>
-      <c r="L12" s="48">
+      <c r="L12" s="39">
         <f t="shared" si="7"/>
         <v>0.94127416869997238</v>
       </c>
-      <c r="M12" s="49">
+      <c r="M12" s="40">
         <f t="shared" si="8"/>
         <v>1.8459560437928282</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="47">
+    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="38">
         <v>9</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B13" s="39">
         <f t="shared" si="9"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="39">
         <f t="shared" si="10"/>
         <v>3.8750702090042481</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="39">
         <f t="shared" si="11"/>
         <v>7.6823290126724544</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="39">
         <f t="shared" si="0"/>
         <v>0.76823290126724553</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="39">
         <f t="shared" si="1"/>
         <v>0.94145176073364123</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="39">
         <f t="shared" si="2"/>
         <v>0.81530548930392754</v>
       </c>
-      <c r="H13" s="48">
+      <c r="H13" s="39">
         <f t="shared" si="3"/>
         <v>0.96877364668028099</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="39">
         <f t="shared" si="4"/>
         <v>0.81667158360125947</v>
       </c>
-      <c r="J13" s="48">
+      <c r="J13" s="39">
         <f t="shared" si="5"/>
         <v>0.96679857647127665</v>
       </c>
-      <c r="K13" s="48">
+      <c r="K13" s="39">
         <f t="shared" si="6"/>
         <v>0.86491275891437314</v>
       </c>
-      <c r="L13" s="48">
+      <c r="L13" s="39">
         <f t="shared" si="7"/>
         <v>0.99147715930764468</v>
       </c>
-      <c r="M13" s="49">
+      <c r="M13" s="40">
         <f t="shared" si="8"/>
         <v>2.2977594920880176</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="47">
+    <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="38">
         <v>10</v>
       </c>
-      <c r="B14" s="48">
+      <c r="B14" s="39">
         <f t="shared" si="9"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="39">
         <f t="shared" si="10"/>
         <v>4.6912535100029134</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="39">
         <f t="shared" si="11"/>
         <v>8.6496745737298539</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="39">
         <f t="shared" si="0"/>
         <v>0.86496745737298542</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="39">
         <f t="shared" si="1"/>
         <v>0.9916842127453882</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="39">
         <f t="shared" si="2"/>
         <v>0.91455166801025478</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="39">
         <f t="shared" si="3"/>
         <v>1.0143558882826282</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="39">
         <f t="shared" si="4"/>
         <v>0.91568525178711691</v>
       </c>
-      <c r="J14" s="48">
+      <c r="J14" s="39">
         <f t="shared" si="5"/>
         <v>1.0116646347726257</v>
       </c>
-      <c r="K14" s="48">
+      <c r="K14" s="39">
         <f t="shared" si="6"/>
         <v>0.96613392085024796</v>
       </c>
-      <c r="L14" s="48">
+      <c r="L14" s="39">
         <f t="shared" si="7"/>
         <v>1.0308800893424896</v>
       </c>
-      <c r="M14" s="49">
+      <c r="M14" s="40">
         <f t="shared" si="8"/>
         <v>2.8186613472629567</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51" t="s">
+    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
     </row>
-    <row r="16" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="53" t="s">
+    <row r="16" spans="1:13" ht="26.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="54" t="s">
+      <c r="G16" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="54" t="s">
+      <c r="H16" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="54" t="s">
+      <c r="I16" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="54" t="s">
+      <c r="J16" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="54" t="s">
+      <c r="K16" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="54" t="s">
+      <c r="L16" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="M16" s="55"/>
+      <c r="M16" s="46"/>
     </row>
-    <row r="17" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="47">
+    <row r="17" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="38">
         <v>0</v>
       </c>
-      <c r="B17" s="48">
+      <c r="B17" s="39">
         <v>0</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="39">
         <v>0</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="39">
         <f>D46</f>
         <v>2.3186613472629567</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="39">
         <f>$B$5 * (D17)</f>
         <v>0.23186613472629569</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="39">
         <f>$B$5 * (2 * D17 - 2 * C17 + 2 * B17)</f>
         <v>0.46373226945259138</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="39">
         <f>$B$5 * (D17 + F17 / 2)</f>
         <v>0.25505274819892526</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="39">
         <f>$B$5 * (2 * (D17 + F17 / 2) - 2 * (C17 + E17 / 2) + 2 * (B17 + $B$5/2))</f>
         <v>0.49691888292522085</v>
       </c>
-      <c r="I17" s="48">
+      <c r="I17" s="39">
         <f>$B$5 * (D17 + H17 / 2)</f>
         <v>0.2567120788725567</v>
       </c>
-      <c r="J17" s="48">
+      <c r="J17" s="39">
         <f>$B$5 * (2 * (D17 + H17 / 2) - 2 * (C17 + G17 / 2) + 2 * (B17 + $B$5/2))</f>
         <v>0.49791888292522091</v>
       </c>
-      <c r="K17" s="48">
+      <c r="K17" s="39">
         <f>$B$5 * (D17 + J17)</f>
         <v>0.28165802301881776</v>
       </c>
-      <c r="L17" s="48">
+      <c r="L17" s="39">
         <f>$B$5 * (2 * (D17 + J17) - 2 *(C17 + I17)  + 2 * (B17 + $B$5))</f>
         <v>0.53197363026312416</v>
       </c>
-      <c r="M17" s="49">
+      <c r="M17" s="40">
         <f xml:space="preserve"> -EXP(B17) * COS(B17) + EXP(B17) * SIN(B17) + B17 + 1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="47">
+    <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="38">
         <v>1</v>
       </c>
-      <c r="B18" s="48">
+      <c r="B18" s="39">
         <f>B17 + 1 / 10</f>
         <v>0.1</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="39">
         <f>C17 + (E17 + 2*G17 + 2*I17 + K17) / 6</f>
         <v>0.25617563531467957</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="39">
         <f>D17 + (F17 + 2 * H17 + 2 * J17 + L17)/6</f>
         <v>2.8162249191657232</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="39">
         <f t="shared" ref="E18:E27" si="12">$B$5 * (D18)</f>
         <v>0.28162249191657235</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="39">
         <f t="shared" ref="F18:F27" si="13">$B$5 * (2 * D18 - 2 * C18 + 2 * B18)</f>
         <v>0.53200985677020873</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="39">
         <f t="shared" ref="G18:G27" si="14">$B$5 * (D18 + F18 / 2)</f>
         <v>0.30822298475508281</v>
       </c>
-      <c r="H18" s="48">
+      <c r="H18" s="39">
         <f t="shared" ref="H18:H27" si="15">$B$5 * (2 * (D18 + F18 / 2) - 2 * (C18 + E18 / 2) + 2 * (B18 + $B$5/2))</f>
         <v>0.56704859325557233</v>
       </c>
-      <c r="I18" s="48">
+      <c r="I18" s="39">
         <f t="shared" ref="I18:I27" si="16">$B$5 * (D18 + H18 / 2)</f>
         <v>0.30997492157935097</v>
       </c>
-      <c r="J18" s="48">
+      <c r="J18" s="39">
         <f t="shared" ref="J18:J27" si="17">$B$5 * (2 * (D18 + H18 / 2) - 2 * (C18 + G18 / 2) + 2 * (B18 + $B$5/2))</f>
         <v>0.56789241762025766</v>
       </c>
-      <c r="K18" s="48">
+      <c r="K18" s="39">
         <f t="shared" ref="K18:K27" si="18">$B$5 * (D18 + J18)</f>
         <v>0.33841173367859811</v>
       </c>
-      <c r="L18" s="48">
+      <c r="L18" s="39">
         <f t="shared" ref="L18:L27" si="19">$B$5 * (2 * (D18 + J18) - 2 *(C18 + I18)  + 2 * (B18 + $B$5))</f>
         <v>0.60359335597839014</v>
       </c>
-      <c r="M18" s="49">
+      <c r="M18" s="40">
         <f t="shared" ref="M18:M27" si="20" xml:space="preserve"> -EXP(B18) * COS(B18) + EXP(B18) * SIN(B18) + B18 + 1</f>
         <v>0.11068332190079433</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="47">
+    <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="38">
         <v>2</v>
       </c>
-      <c r="B19" s="48">
+      <c r="B19" s="39">
         <f t="shared" ref="B19:B27" si="21">B18 + 1 / 10</f>
         <v>0.2</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="39">
         <f t="shared" ref="C19:C27" si="22">C18 + (E18 + 2*G18 + 2*I18 + K18) / 6</f>
         <v>0.56558064169201927</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="39">
         <f t="shared" ref="D19:D27" si="23">D18 + (F18 + 2 * H18 + 2 * J18 + L18)/6</f>
         <v>3.3838057915824331</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="39">
         <f t="shared" si="12"/>
         <v>0.33838057915824332</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="39">
         <f t="shared" si="13"/>
         <v>0.60364502997808289</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="39">
         <f t="shared" si="14"/>
         <v>0.36856283065714746</v>
       </c>
-      <c r="H19" s="48">
+      <c r="H19" s="39">
         <f t="shared" si="15"/>
         <v>0.64017147506006677</v>
       </c>
-      <c r="I19" s="48">
+      <c r="I19" s="39">
         <f t="shared" si="16"/>
         <v>0.37038915291124663</v>
       </c>
-      <c r="J19" s="48">
+      <c r="J19" s="39">
         <f t="shared" si="17"/>
         <v>0.64080589441837477</v>
       </c>
-      <c r="K19" s="48">
+      <c r="K19" s="39">
         <f t="shared" si="18"/>
         <v>0.40246116860008085</v>
       </c>
-      <c r="L19" s="48">
+      <c r="L19" s="39">
         <f t="shared" si="19"/>
         <v>0.67772837827950849</v>
       </c>
-      <c r="M19" s="49">
+      <c r="M19" s="40">
         <f t="shared" si="20"/>
         <v>0.24559924723903159</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="47">
+    <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="38">
         <v>3</v>
       </c>
-      <c r="B20" s="48">
+      <c r="B20" s="39">
         <f t="shared" si="21"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="39">
         <f t="shared" si="22"/>
         <v>0.93537159417453797</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="39">
         <f t="shared" si="23"/>
         <v>4.0243604827848456</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="39">
         <f t="shared" si="12"/>
         <v>0.40243604827848456</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="39">
         <f t="shared" si="13"/>
         <v>0.67779777772206151</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G20" s="39">
         <f t="shared" si="14"/>
         <v>0.43632593716458762</v>
       </c>
-      <c r="H20" s="48">
+      <c r="H20" s="39">
         <f t="shared" si="15"/>
         <v>0.71533395066641914</v>
       </c>
-      <c r="I20" s="48">
+      <c r="I20" s="39">
         <f t="shared" si="16"/>
         <v>0.43820274581180557</v>
       </c>
-      <c r="J20" s="48">
+      <c r="J20" s="39">
         <f t="shared" si="17"/>
         <v>0.71569857907224477</v>
       </c>
-      <c r="K20" s="48">
+      <c r="K20" s="39">
         <f t="shared" si="18"/>
         <v>0.47400590618570909</v>
       </c>
-      <c r="L20" s="48">
+      <c r="L20" s="39">
         <f t="shared" si="19"/>
         <v>0.7532969443741494</v>
       </c>
-      <c r="M20" s="49">
+      <c r="M20" s="40">
         <f t="shared" si="20"/>
         <v>0.40934117973355399</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="47">
+    <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="38">
         <v>4</v>
       </c>
-      <c r="B21" s="48">
+      <c r="B21" s="39">
         <f t="shared" si="21"/>
         <v>0.4</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="39">
         <f t="shared" si="22"/>
         <v>1.3729548142440346</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="39">
         <f t="shared" si="23"/>
         <v>4.7398871130471019</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="39">
         <f t="shared" si="12"/>
         <v>0.47398871130471021</v>
       </c>
-      <c r="F21" s="48">
+      <c r="F21" s="39">
         <f t="shared" si="13"/>
         <v>0.75338645976061347</v>
       </c>
-      <c r="G21" s="48">
+      <c r="G21" s="39">
         <f t="shared" si="14"/>
         <v>0.51165803429274082</v>
       </c>
-      <c r="H21" s="48">
+      <c r="H21" s="39">
         <f t="shared" si="15"/>
         <v>0.79132623460620377</v>
       </c>
-      <c r="I21" s="48">
+      <c r="I21" s="39">
         <f t="shared" si="16"/>
         <v>0.51355502303502043</v>
       </c>
-      <c r="J21" s="48">
+      <c r="J21" s="39">
         <f t="shared" si="17"/>
         <v>0.79135327979195991</v>
       </c>
-      <c r="K21" s="48">
+      <c r="K21" s="39">
         <f t="shared" si="18"/>
         <v>0.55312403928390619</v>
       </c>
-      <c r="L21" s="48">
+      <c r="L21" s="39">
         <f t="shared" si="19"/>
         <v>0.82894611111200145</v>
       </c>
-      <c r="M21" s="49">
+      <c r="M21" s="40">
         <f t="shared" si="20"/>
         <v>0.60688236188304534</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="47">
+    <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="38">
         <v>5</v>
       </c>
-      <c r="B22" s="48">
+      <c r="B22" s="39">
         <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="39">
         <f t="shared" si="22"/>
         <v>1.8858779584513912</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="39">
         <f t="shared" si="23"/>
         <v>5.5311690463252585</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="39">
         <f t="shared" si="12"/>
         <v>0.55311690463252583</v>
       </c>
-      <c r="F22" s="48">
+      <c r="F22" s="39">
         <f t="shared" si="13"/>
         <v>0.8290582175747736</v>
       </c>
-      <c r="G22" s="48">
+      <c r="G22" s="39">
         <f t="shared" si="14"/>
         <v>0.59456981551126453</v>
       </c>
-      <c r="H22" s="48">
+      <c r="H22" s="39">
         <f t="shared" si="15"/>
         <v>0.86665234886899833</v>
       </c>
-      <c r="I22" s="48">
+      <c r="I22" s="39">
         <f t="shared" si="16"/>
         <v>0.59644952207597579</v>
       </c>
-      <c r="J22" s="48">
+      <c r="J22" s="39">
         <f t="shared" si="17"/>
         <v>0.86626647091054698</v>
       </c>
-      <c r="K22" s="48">
+      <c r="K22" s="39">
         <f t="shared" si="18"/>
         <v>0.63974355172358066</v>
       </c>
-      <c r="L22" s="48">
+      <c r="L22" s="39">
         <f t="shared" si="19"/>
         <v>0.90302160734168779</v>
       </c>
-      <c r="M22" s="49">
+      <c r="M22" s="40">
         <f t="shared" si="20"/>
         <v>0.84355004662944555</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="47">
+    <row r="23" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="38">
         <v>6</v>
       </c>
-      <c r="B23" s="48">
+      <c r="B23" s="39">
         <f t="shared" si="21"/>
         <v>0.6</v>
       </c>
-      <c r="C23" s="48">
+      <c r="C23" s="39">
         <f t="shared" si="22"/>
         <v>2.4816944803731555</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="39">
         <f t="shared" si="23"/>
         <v>6.3974886237378508</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="39">
         <f t="shared" si="12"/>
         <v>0.63974886237378514</v>
       </c>
-      <c r="F23" s="48">
+      <c r="F23" s="39">
         <f t="shared" si="13"/>
         <v>0.90315882867293906</v>
       </c>
-      <c r="G23" s="48">
+      <c r="G23" s="39">
         <f t="shared" si="14"/>
         <v>0.68490680380743207</v>
       </c>
-      <c r="H23" s="48">
+      <c r="H23" s="39">
         <f t="shared" si="15"/>
         <v>0.9394998253028547</v>
       </c>
-      <c r="I23" s="48">
+      <c r="I23" s="39">
         <f t="shared" si="16"/>
         <v>0.68672385363892785</v>
       </c>
-      <c r="J23" s="48">
+      <c r="J23" s="39">
         <f t="shared" si="17"/>
         <v>0.93861813082248136</v>
       </c>
-      <c r="K23" s="48">
+      <c r="K23" s="39">
         <f t="shared" si="18"/>
         <v>0.73361067545603331</v>
       </c>
-      <c r="L23" s="48">
+      <c r="L23" s="39">
         <f t="shared" si="19"/>
         <v>0.9735376841096498</v>
       </c>
-      <c r="M23" s="49">
+      <c r="M23" s="40">
         <f t="shared" si="20"/>
         <v>1.1249861257133058</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="47">
+    <row r="24" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="38">
         <v>7</v>
       </c>
-      <c r="B24" s="48">
+      <c r="B24" s="39">
         <f t="shared" si="21"/>
         <v>0.7</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C24" s="39">
         <f t="shared" si="22"/>
         <v>3.167797955826912</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="39">
         <f t="shared" si="23"/>
         <v>7.3363106945767278</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="39">
         <f t="shared" si="12"/>
         <v>0.73363106945767287</v>
       </c>
-      <c r="F24" s="48">
+      <c r="F24" s="39">
         <f t="shared" si="13"/>
         <v>0.97370254774996323</v>
       </c>
-      <c r="G24" s="48">
+      <c r="G24" s="39">
         <f t="shared" si="14"/>
         <v>0.78231619684517106</v>
       </c>
-      <c r="H24" s="48">
+      <c r="H24" s="39">
         <f t="shared" si="15"/>
         <v>1.0077096955791924</v>
       </c>
-      <c r="I24" s="48">
+      <c r="I24" s="39">
         <f t="shared" si="16"/>
         <v>0.78401655423663241</v>
       </c>
-      <c r="J24" s="48">
+      <c r="J24" s="39">
         <f t="shared" si="17"/>
         <v>1.0062418976233654</v>
       </c>
-      <c r="K24" s="48">
+      <c r="K24" s="39">
         <f t="shared" si="18"/>
         <v>0.83425525922000932</v>
       </c>
-      <c r="L24" s="48">
+      <c r="L24" s="39">
         <f t="shared" si="19"/>
         <v>1.0381476164273098</v>
       </c>
-      <c r="M24" s="49">
+      <c r="M24" s="40">
         <f t="shared" si="20"/>
         <v>1.4570920864434889</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="47">
+    <row r="25" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="38">
         <v>8</v>
       </c>
-      <c r="B25" s="48">
+      <c r="B25" s="39">
         <f t="shared" si="21"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C25" s="39">
         <f t="shared" si="22"/>
         <v>3.9512232609671267</v>
       </c>
-      <c r="D25" s="48">
+      <c r="D25" s="39">
         <f t="shared" si="23"/>
         <v>8.3429362530071263</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E25" s="39">
         <f t="shared" si="12"/>
         <v>0.83429362530071272</v>
       </c>
-      <c r="F25" s="48">
+      <c r="F25" s="39">
         <f t="shared" si="13"/>
         <v>1.0383425984079999</v>
       </c>
-      <c r="G25" s="48">
+      <c r="G25" s="39">
         <f t="shared" si="14"/>
         <v>0.8862107552211127</v>
       </c>
-      <c r="H25" s="48">
+      <c r="H25" s="39">
         <f t="shared" si="15"/>
         <v>1.0687474957187286</v>
       </c>
-      <c r="I25" s="48">
+      <c r="I25" s="39">
         <f t="shared" si="16"/>
         <v>0.88773100008664907</v>
       </c>
-      <c r="J25" s="48">
+      <c r="J25" s="39">
         <f t="shared" si="17"/>
         <v>1.0665962724577616</v>
       </c>
-      <c r="K25" s="48">
+      <c r="K25" s="39">
         <f t="shared" si="18"/>
         <v>0.94095325254648887</v>
       </c>
-      <c r="L25" s="48">
+      <c r="L25" s="39">
         <f t="shared" si="19"/>
         <v>1.0941156528822222</v>
       </c>
-      <c r="M25" s="49">
+      <c r="M25" s="40">
         <f t="shared" si="20"/>
         <v>1.8459560437928282</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="47">
+    <row r="26" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="38">
         <v>9</v>
       </c>
-      <c r="B26" s="48">
+      <c r="B26" s="39">
         <f t="shared" si="21"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="39">
         <f t="shared" si="22"/>
         <v>4.8384116590442474</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="39">
         <f t="shared" si="23"/>
         <v>9.4101272176143276</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="39">
         <f t="shared" si="12"/>
         <v>0.9410127217614328</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="39">
         <f t="shared" si="13"/>
         <v>1.0943431117140161</v>
       </c>
-      <c r="G26" s="48">
+      <c r="G26" s="39">
         <f t="shared" si="14"/>
         <v>0.9957298773471337</v>
       </c>
-      <c r="H26" s="48">
+      <c r="H26" s="39">
         <f t="shared" si="15"/>
         <v>1.1196761507092745</v>
       </c>
-      <c r="I26" s="48">
+      <c r="I26" s="39">
         <f t="shared" si="16"/>
         <v>0.99699652929689653</v>
       </c>
-      <c r="J26" s="48">
+      <c r="J26" s="39">
         <f t="shared" si="17"/>
         <v>1.1167377390502302</v>
       </c>
-      <c r="K26" s="48">
+      <c r="K26" s="39">
         <f t="shared" si="18"/>
         <v>1.0526864956664557</v>
       </c>
-      <c r="L26" s="48">
+      <c r="L26" s="39">
         <f t="shared" si="19"/>
         <v>1.1382913536646828</v>
       </c>
-      <c r="M26" s="49">
+      <c r="M26" s="40">
         <f t="shared" si="20"/>
         <v>2.2977594920880176</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="47">
+    <row r="27" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="38">
         <v>10</v>
       </c>
-      <c r="B27" s="48">
+      <c r="B27" s="39">
         <f t="shared" si="21"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="C27" s="48">
+      <c r="C27" s="39">
         <f t="shared" si="22"/>
         <v>5.8349369974969054</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="39">
         <f t="shared" si="23"/>
         <v>10.527704258430612</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="39">
         <f t="shared" si="12"/>
         <v>1.0527704258430612</v>
       </c>
-      <c r="F27" s="48">
+      <c r="F27" s="39">
         <f t="shared" si="13"/>
         <v>1.1385534521867413</v>
       </c>
-      <c r="G27" s="48">
+      <c r="G27" s="39">
         <f t="shared" si="14"/>
         <v>1.1096980984523983</v>
       </c>
-      <c r="H27" s="48">
+      <c r="H27" s="39">
         <f t="shared" si="15"/>
         <v>1.1571317548211093</v>
       </c>
-      <c r="I27" s="48">
+      <c r="I27" s="39">
         <f t="shared" si="16"/>
         <v>1.1106270135841168</v>
       </c>
-      <c r="J27" s="48">
+      <c r="J27" s="39">
         <f t="shared" si="17"/>
         <v>1.1532968178236123</v>
       </c>
-      <c r="K27" s="48">
+      <c r="K27" s="39">
         <f t="shared" si="18"/>
         <v>1.1681001076254225</v>
       </c>
-      <c r="L27" s="48">
+      <c r="L27" s="39">
         <f t="shared" si="19"/>
         <v>1.1670874130346405</v>
       </c>
-      <c r="M27" s="49">
+      <c r="M27" s="40">
         <f t="shared" si="20"/>
         <v>2.8186613472629567</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51" t="s">
+    <row r="28" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
     </row>
-    <row r="29" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="53" t="s">
+    <row r="29" spans="1:13" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="54" t="s">
+      <c r="E29" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="54" t="s">
+      <c r="F29" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="54" t="s">
+      <c r="G29" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="54" t="s">
+      <c r="H29" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="54" t="s">
+      <c r="I29" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="54" t="s">
+      <c r="J29" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="54" t="s">
+      <c r="K29" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="54" t="s">
+      <c r="L29" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="M29" s="55"/>
+      <c r="M29" s="46"/>
     </row>
-    <row r="30" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="47">
+    <row r="30" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="38">
         <v>0</v>
       </c>
-      <c r="B30" s="48">
+      <c r="B30" s="39">
         <v>0</v>
       </c>
-      <c r="C30" s="48">
+      <c r="C30" s="39">
         <v>0</v>
       </c>
-      <c r="D30" s="48">
+      <c r="D30" s="39">
         <f>D47</f>
         <v>0.99999421460935456</v>
       </c>
-      <c r="E30" s="48">
+      <c r="E30" s="39">
         <f>$B$5 * (D30)</f>
         <v>9.9999421460935461E-2</v>
       </c>
-      <c r="F30" s="48">
+      <c r="F30" s="39">
         <f>$B$5 * (2 * D30 - 2 * C30 + 2 * B30)</f>
         <v>0.19999884292187092</v>
       </c>
-      <c r="G30" s="48">
+      <c r="G30" s="39">
         <f>$B$5 * (D30 + F30 / 2)</f>
         <v>0.109999363607029</v>
       </c>
-      <c r="H30" s="48">
+      <c r="H30" s="39">
         <f>$B$5 * (2 * (D30 + F30 / 2) - 2 * (C30 + E30 / 2) + 2 * (B30 + $B$5/2))</f>
         <v>0.21999878506796447</v>
       </c>
-      <c r="I30" s="48">
+      <c r="I30" s="39">
         <f>$B$5 * (D30 + H30 / 2)</f>
         <v>0.11099936071433368</v>
       </c>
-      <c r="J30" s="48">
+      <c r="J30" s="39">
         <f>$B$5 * (2 * (D30 + H30 / 2) - 2 * (C30 + G30 / 2) + 2 * (B30 + $B$5/2))</f>
         <v>0.22099878506796444</v>
       </c>
-      <c r="K30" s="48">
+      <c r="K30" s="39">
         <f>$B$5 * (D30 + J30)</f>
         <v>0.1220992999677319</v>
       </c>
-      <c r="L30" s="48">
+      <c r="L30" s="39">
         <f>$B$5 * (2 * (D30 + J30) - 2 *(C30 + I30)  + 2 * (B30 + $B$5))</f>
         <v>0.24199872779259712</v>
       </c>
-      <c r="M30" s="49">
+      <c r="M30" s="40">
         <f xml:space="preserve"> -EXP(B30) * COS(B30) + EXP(B30) * SIN(B30) + B30 + 1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="47">
+    <row r="31" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="38">
         <v>1</v>
       </c>
-      <c r="B31" s="48">
+      <c r="B31" s="39">
         <f>B30 + 1 / 10</f>
         <v>0.1</v>
       </c>
-      <c r="C31" s="48">
+      <c r="C31" s="39">
         <f>C30 + (E30 + 2*G30 + 2*I30 + K30) / 6</f>
         <v>0.1106826950118988</v>
       </c>
-      <c r="D31" s="48">
+      <c r="D31" s="39">
         <f>D30 + (F30 + 2 * H30 + 2 * J30 + L30)/6</f>
         <v>1.2206596664404088</v>
       </c>
-      <c r="E31" s="48">
+      <c r="E31" s="39">
         <f t="shared" ref="E31:E40" si="24">$B$5 * (D31)</f>
         <v>0.12206596664404089</v>
       </c>
-      <c r="F31" s="48">
+      <c r="F31" s="39">
         <f t="shared" ref="F31:F40" si="25">$B$5 * (2 * D31 - 2 * C31 + 2 * B31)</f>
         <v>0.24199539428570202</v>
       </c>
-      <c r="G31" s="48">
+      <c r="G31" s="39">
         <f t="shared" ref="G31:G40" si="26">$B$5 * (D31 + F31 / 2)</f>
         <v>0.13416573635832599</v>
       </c>
-      <c r="H31" s="48">
+      <c r="H31" s="39">
         <f t="shared" ref="H31:H40" si="27">$B$5 * (2 * (D31 + F31 / 2) - 2 * (C31 + E31 / 2) + 2 * (B31 + $B$5/2))</f>
         <v>0.26398833704986807</v>
       </c>
-      <c r="I31" s="48">
+      <c r="I31" s="39">
         <f t="shared" ref="I31:I40" si="28">$B$5 * (D31 + H31 / 2)</f>
         <v>0.13526538349653427</v>
       </c>
-      <c r="J31" s="48">
+      <c r="J31" s="39">
         <f t="shared" ref="J31:J40" si="29">$B$5 * (2 * (D31 + H31 / 2) - 2 * (C31 + G31 / 2) + 2 * (B31 + $B$5/2))</f>
         <v>0.26497765435485621</v>
       </c>
-      <c r="K31" s="48">
+      <c r="K31" s="39">
         <f t="shared" ref="K31:K40" si="30">$B$5 * (D31 + J31)</f>
         <v>0.14856373207952653</v>
       </c>
-      <c r="L31" s="48">
+      <c r="L31" s="39">
         <f t="shared" ref="L31:L40" si="31">$B$5 * (2 * (D31 + J31) - 2 *(C31 + I31)  + 2 * (B31 + $B$5))</f>
         <v>0.28793784845736642</v>
       </c>
-      <c r="M31" s="49">
+      <c r="M31" s="40">
         <f t="shared" ref="M31:M40" si="32" xml:space="preserve"> -EXP(B31) * COS(B31) + EXP(B31) * SIN(B31) + B31 + 1</f>
         <v>0.11068332190079433</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="47">
+    <row r="32" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="38">
         <v>2</v>
       </c>
-      <c r="B32" s="48">
+      <c r="B32" s="39">
         <f t="shared" ref="B32:B40" si="33">B31 + 1 / 10</f>
         <v>0.2</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C32" s="39">
         <f t="shared" ref="C32:C40" si="34">C31 + (E31 + 2*G31 + 2*I31 + K31) / 6</f>
         <v>0.24559801808411347</v>
       </c>
-      <c r="D32" s="48">
+      <c r="D32" s="39">
         <f t="shared" ref="D32:D40" si="35">D31 + (F31 + 2 * H31 + 2 * J31 + L31)/6</f>
         <v>1.4853038706991617</v>
       </c>
-      <c r="E32" s="48">
+      <c r="E32" s="39">
         <f t="shared" si="24"/>
         <v>0.14853038706991617</v>
       </c>
-      <c r="F32" s="48">
+      <c r="F32" s="39">
         <f t="shared" si="25"/>
         <v>0.28794117052300966</v>
       </c>
-      <c r="G32" s="48">
+      <c r="G32" s="39">
         <f t="shared" si="26"/>
         <v>0.16292744559606664</v>
       </c>
-      <c r="H32" s="48">
+      <c r="H32" s="39">
         <f t="shared" si="27"/>
         <v>0.311882248868319</v>
       </c>
-      <c r="I32" s="48">
+      <c r="I32" s="39">
         <f t="shared" si="28"/>
         <v>0.16412449951333213</v>
       </c>
-      <c r="J32" s="48">
+      <c r="J32" s="39">
         <f t="shared" si="29"/>
         <v>0.31283665085023493</v>
       </c>
-      <c r="K32" s="48">
+      <c r="K32" s="39">
         <f t="shared" si="30"/>
         <v>0.17981405215493967</v>
       </c>
-      <c r="L32" s="48">
+      <c r="L32" s="39">
         <f t="shared" si="31"/>
         <v>0.33768360079039023</v>
       </c>
-      <c r="M32" s="49">
+      <c r="M32" s="40">
         <f t="shared" si="32"/>
         <v>0.24559924723903159</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="47">
+    <row r="33" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="38">
         <v>3</v>
       </c>
-      <c r="B33" s="48">
+      <c r="B33" s="39">
         <f t="shared" si="33"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="C33" s="48">
+      <c r="C33" s="39">
         <f t="shared" si="34"/>
         <v>0.40933940632472238</v>
       </c>
-      <c r="D33" s="48">
+      <c r="D33" s="39">
         <f t="shared" si="35"/>
         <v>1.7978142991575796</v>
       </c>
-      <c r="E33" s="48">
+      <c r="E33" s="39">
         <f t="shared" si="24"/>
         <v>0.17978142991575796</v>
       </c>
-      <c r="F33" s="48">
+      <c r="F33" s="39">
         <f t="shared" si="25"/>
         <v>0.33769497856657149</v>
       </c>
-      <c r="G33" s="48">
+      <c r="G33" s="39">
         <f t="shared" si="26"/>
         <v>0.19666617884408655</v>
       </c>
-      <c r="H33" s="48">
+      <c r="H33" s="39">
         <f t="shared" si="27"/>
         <v>0.36348633343165282</v>
       </c>
-      <c r="I33" s="48">
+      <c r="I33" s="39">
         <f t="shared" si="28"/>
         <v>0.19795574658734061</v>
       </c>
-      <c r="J33" s="48">
+      <c r="J33" s="39">
         <f t="shared" si="29"/>
         <v>0.36437699402532814</v>
       </c>
-      <c r="K33" s="48">
+      <c r="K33" s="39">
         <f t="shared" si="30"/>
         <v>0.21621912931829079</v>
       </c>
-      <c r="L33" s="48">
+      <c r="L33" s="39">
         <f t="shared" si="31"/>
         <v>0.39097922805416901</v>
       </c>
-      <c r="M33" s="49">
+      <c r="M33" s="40">
         <f t="shared" si="32"/>
         <v>0.40934117973355399</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A34" s="47">
+    <row r="34" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="38">
         <v>4</v>
       </c>
-      <c r="B34" s="48">
+      <c r="B34" s="39">
         <f t="shared" si="33"/>
         <v>0.4</v>
       </c>
-      <c r="C34" s="48">
+      <c r="C34" s="39">
         <f t="shared" si="34"/>
         <v>0.60688014134087287</v>
       </c>
-      <c r="D34" s="48">
+      <c r="D34" s="39">
         <f t="shared" si="35"/>
         <v>2.1618811094133634</v>
       </c>
-      <c r="E34" s="48">
+      <c r="E34" s="39">
         <f t="shared" si="24"/>
         <v>0.21618811094133636</v>
       </c>
-      <c r="F34" s="48">
+      <c r="F34" s="39">
         <f t="shared" si="25"/>
         <v>0.39100019361449817</v>
       </c>
-      <c r="G34" s="48">
+      <c r="G34" s="39">
         <f t="shared" si="26"/>
         <v>0.23573812062206123</v>
       </c>
-      <c r="H34" s="48">
+      <c r="H34" s="39">
         <f t="shared" si="27"/>
         <v>0.41848140188181432</v>
       </c>
-      <c r="I34" s="48">
+      <c r="I34" s="39">
         <f t="shared" si="28"/>
         <v>0.23711218103542706</v>
       </c>
-      <c r="J34" s="48">
+      <c r="J34" s="39">
         <f t="shared" si="29"/>
         <v>0.41927452174047342</v>
       </c>
-      <c r="K34" s="48">
+      <c r="K34" s="39">
         <f t="shared" si="30"/>
         <v>0.25811556311538369</v>
       </c>
-      <c r="L34" s="48">
+      <c r="L34" s="39">
         <f t="shared" si="31"/>
         <v>0.44743266175550733</v>
       </c>
-      <c r="M34" s="49">
+      <c r="M34" s="40">
         <f t="shared" si="32"/>
         <v>0.60688236188304534</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A35" s="47">
+    <row r="35" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="38">
         <v>5</v>
       </c>
-      <c r="B35" s="48">
+      <c r="B35" s="39">
         <f t="shared" si="33"/>
         <v>0.5</v>
       </c>
-      <c r="C35" s="48">
+      <c r="C35" s="39">
         <f t="shared" si="34"/>
         <v>0.84354752090282237</v>
       </c>
-      <c r="D35" s="48">
+      <c r="D35" s="39">
         <f t="shared" si="35"/>
         <v>2.5808718931824601</v>
       </c>
-      <c r="E35" s="48">
+      <c r="E35" s="39">
         <f t="shared" si="24"/>
         <v>0.25808718931824604</v>
       </c>
-      <c r="F35" s="48">
+      <c r="F35" s="39">
         <f t="shared" si="25"/>
         <v>0.44746487445592759</v>
       </c>
-      <c r="G35" s="48">
+      <c r="G35" s="39">
         <f t="shared" si="26"/>
         <v>0.2804604330410424</v>
       </c>
-      <c r="H35" s="48">
+      <c r="H35" s="39">
         <f t="shared" si="27"/>
         <v>0.4764026429696957</v>
       </c>
-      <c r="I35" s="48">
+      <c r="I35" s="39">
         <f t="shared" si="28"/>
         <v>0.28190732146673081</v>
       </c>
-      <c r="J35" s="48">
+      <c r="J35" s="39">
         <f t="shared" si="29"/>
         <v>0.47705909544879294</v>
       </c>
-      <c r="K35" s="48">
+      <c r="K35" s="39">
         <f t="shared" si="30"/>
         <v>0.30579309886312533</v>
       </c>
-      <c r="L35" s="48">
+      <c r="L35" s="39">
         <f t="shared" si="31"/>
         <v>0.50649522925234003</v>
       </c>
-      <c r="M35" s="49">
+      <c r="M35" s="40">
         <f t="shared" si="32"/>
         <v>0.84355004662944555</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="47">
+    <row r="36" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="38">
         <v>6</v>
       </c>
-      <c r="B36" s="48">
+      <c r="B36" s="39">
         <f t="shared" si="33"/>
         <v>0.6</v>
       </c>
-      <c r="C36" s="48">
+      <c r="C36" s="39">
         <f t="shared" si="34"/>
         <v>1.1249834871023086</v>
       </c>
-      <c r="D36" s="48">
+      <c r="D36" s="39">
         <f t="shared" si="35"/>
         <v>3.0576858232733342</v>
       </c>
-      <c r="E36" s="48">
+      <c r="E36" s="39">
         <f t="shared" si="24"/>
         <v>0.30576858232733345</v>
       </c>
-      <c r="F36" s="48">
+      <c r="F36" s="39">
         <f t="shared" si="25"/>
         <v>0.50654046723420521</v>
       </c>
-      <c r="G36" s="48">
+      <c r="G36" s="39">
         <f t="shared" si="26"/>
         <v>0.33109560568904373</v>
       </c>
-      <c r="H36" s="48">
+      <c r="H36" s="39">
         <f t="shared" si="27"/>
         <v>0.53661765572489228</v>
       </c>
-      <c r="I36" s="48">
+      <c r="I36" s="39">
         <f t="shared" si="28"/>
         <v>0.33259946511357807</v>
       </c>
-      <c r="J36" s="48">
+      <c r="J36" s="39">
         <f t="shared" si="29"/>
         <v>0.53709267223779</v>
       </c>
-      <c r="K36" s="48">
+      <c r="K36" s="39">
         <f t="shared" si="30"/>
         <v>0.35947784955111245</v>
       </c>
-      <c r="L36" s="48">
+      <c r="L36" s="39">
         <f t="shared" si="31"/>
         <v>0.56743910865904756</v>
       </c>
-      <c r="M36" s="49">
+      <c r="M36" s="40">
         <f t="shared" si="32"/>
         <v>1.1249861257133058</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="47">
+    <row r="37" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="38">
         <v>7</v>
       </c>
-      <c r="B37" s="48">
+      <c r="B37" s="39">
         <f t="shared" si="33"/>
         <v>0.7</v>
       </c>
-      <c r="C37" s="48">
+      <c r="C37" s="39">
         <f t="shared" si="34"/>
         <v>1.4570895826829235</v>
       </c>
-      <c r="D37" s="48">
+      <c r="D37" s="39">
         <f t="shared" si="35"/>
         <v>3.5945858619097706</v>
       </c>
-      <c r="E37" s="48">
+      <c r="E37" s="39">
         <f t="shared" si="24"/>
         <v>0.35945858619097709</v>
       </c>
-      <c r="F37" s="48">
+      <c r="F37" s="39">
         <f t="shared" si="25"/>
         <v>0.56749925584536942</v>
       </c>
-      <c r="G37" s="48">
+      <c r="G37" s="39">
         <f t="shared" si="26"/>
         <v>0.38783354898324557</v>
       </c>
-      <c r="H37" s="48">
+      <c r="H37" s="39">
         <f t="shared" si="27"/>
         <v>0.59830332281080867</v>
       </c>
-      <c r="I37" s="48">
+      <c r="I37" s="39">
         <f t="shared" si="28"/>
         <v>0.3893737523315175</v>
       </c>
-      <c r="J37" s="48">
+      <c r="J37" s="39">
         <f t="shared" si="29"/>
         <v>0.59854623322812572</v>
       </c>
-      <c r="K37" s="48">
+      <c r="K37" s="39">
         <f t="shared" si="30"/>
         <v>0.41931320951378964</v>
       </c>
-      <c r="L37" s="48">
+      <c r="L37" s="39">
         <f t="shared" si="31"/>
         <v>0.629333752024691</v>
       </c>
-      <c r="M37" s="49">
+      <c r="M37" s="40">
         <f t="shared" si="32"/>
         <v>1.4570920864434889</v>
       </c>
@@ -11572,55 +11572,55 @@
       <c r="Q37" s="30"/>
       <c r="R37" s="30"/>
     </row>
-    <row r="38" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="47">
+    <row r="38" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="38">
         <v>8</v>
       </c>
-      <c r="B38" s="48">
+      <c r="B38" s="39">
         <f t="shared" si="33"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="C38" s="48">
+      <c r="C38" s="39">
         <f t="shared" si="34"/>
         <v>1.8459539824053057</v>
       </c>
-      <c r="D38" s="48">
+      <c r="D38" s="39">
         <f t="shared" si="35"/>
         <v>4.1930078819010923</v>
       </c>
-      <c r="E38" s="48">
+      <c r="E38" s="39">
         <f t="shared" si="24"/>
         <v>0.41930078819010924</v>
       </c>
-      <c r="F38" s="48">
+      <c r="F38" s="39">
         <f t="shared" si="25"/>
         <v>0.62941077989915728</v>
       </c>
-      <c r="G38" s="48">
+      <c r="G38" s="39">
         <f t="shared" si="26"/>
         <v>0.45077132718506707</v>
       </c>
-      <c r="H38" s="48">
+      <c r="H38" s="39">
         <f t="shared" si="27"/>
         <v>0.66042177907006216</v>
       </c>
-      <c r="I38" s="48">
+      <c r="I38" s="39">
         <f t="shared" si="28"/>
         <v>0.45232187714361238</v>
       </c>
-      <c r="J38" s="48">
+      <c r="J38" s="39">
         <f t="shared" si="29"/>
         <v>0.66037582508765702</v>
       </c>
-      <c r="K38" s="48">
+      <c r="K38" s="39">
         <f t="shared" si="30"/>
         <v>0.48533837069887498</v>
       </c>
-      <c r="L38" s="48">
+      <c r="L38" s="39">
         <f t="shared" si="31"/>
         <v>0.69102156948796623</v>
       </c>
-      <c r="M38" s="49">
+      <c r="M38" s="40">
         <f t="shared" si="32"/>
         <v>1.8459560437928282</v>
       </c>
@@ -11629,55 +11629,55 @@
       <c r="Q38" s="30"/>
       <c r="R38" s="30"/>
     </row>
-    <row r="39" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A39" s="47">
+    <row r="39" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="38">
         <v>9</v>
       </c>
-      <c r="B39" s="48">
+      <c r="B39" s="39">
         <f t="shared" si="33"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="C39" s="48">
+      <c r="C39" s="39">
         <f t="shared" si="34"/>
         <v>2.2977582436630297</v>
       </c>
-      <c r="D39" s="48">
+      <c r="D39" s="39">
         <f t="shared" si="35"/>
         <v>4.8533458081848524</v>
       </c>
-      <c r="E39" s="48">
+      <c r="E39" s="39">
         <f t="shared" si="24"/>
         <v>0.48533458081848524</v>
       </c>
-      <c r="F39" s="48">
+      <c r="F39" s="39">
         <f t="shared" si="25"/>
         <v>0.69111751290436452</v>
       </c>
-      <c r="G39" s="48">
+      <c r="G39" s="39">
         <f t="shared" si="26"/>
         <v>0.51989045646370347</v>
       </c>
-      <c r="H39" s="48">
+      <c r="H39" s="39">
         <f t="shared" si="27"/>
         <v>0.72169580611295248</v>
       </c>
-      <c r="I39" s="48">
+      <c r="I39" s="39">
         <f t="shared" si="28"/>
         <v>0.52141937112413295</v>
       </c>
-      <c r="J39" s="48">
+      <c r="J39" s="39">
         <f t="shared" si="29"/>
         <v>0.72129804786928953</v>
       </c>
-      <c r="K39" s="48">
+      <c r="K39" s="39">
         <f t="shared" si="30"/>
         <v>0.55746438560541423</v>
       </c>
-      <c r="L39" s="48">
+      <c r="L39" s="39">
         <f t="shared" si="31"/>
         <v>0.75109324825339596</v>
       </c>
-      <c r="M39" s="49">
+      <c r="M39" s="40">
         <f t="shared" si="32"/>
         <v>2.2977594920880176</v>
       </c>
@@ -11686,55 +11686,55 @@
       <c r="Q39" s="30"/>
       <c r="R39" s="30"/>
     </row>
-    <row r="40" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="47">
+    <row r="40" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="38">
         <v>10</v>
       </c>
-      <c r="B40" s="48">
+      <c r="B40" s="39">
         <f t="shared" si="33"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="C40" s="48">
+      <c r="C40" s="39">
         <f t="shared" si="34"/>
         <v>2.8186613472629585</v>
       </c>
-      <c r="D40" s="48">
+      <c r="D40" s="39">
         <f t="shared" si="35"/>
         <v>5.5747122197052263</v>
       </c>
-      <c r="E40" s="48">
+      <c r="E40" s="39">
         <f t="shared" si="24"/>
         <v>0.55747122197052268</v>
       </c>
-      <c r="F40" s="48">
+      <c r="F40" s="39">
         <f t="shared" si="25"/>
         <v>0.75121017448845362</v>
       </c>
-      <c r="G40" s="48">
+      <c r="G40" s="39">
         <f t="shared" si="26"/>
         <v>0.59503173069494542</v>
       </c>
-      <c r="H40" s="48">
+      <c r="H40" s="39">
         <f t="shared" si="27"/>
         <v>0.78058406974024674</v>
       </c>
-      <c r="I40" s="48">
+      <c r="I40" s="39">
         <f t="shared" si="28"/>
         <v>0.59650042545753501</v>
       </c>
-      <c r="J40" s="48">
+      <c r="J40" s="39">
         <f t="shared" si="29"/>
         <v>0.77976540839298369</v>
       </c>
-      <c r="K40" s="48">
+      <c r="K40" s="39">
         <f t="shared" si="30"/>
         <v>0.63544776280982107</v>
       </c>
-      <c r="L40" s="48">
+      <c r="L40" s="39">
         <f t="shared" si="31"/>
         <v>0.80786317107554328</v>
       </c>
-      <c r="M40" s="49">
+      <c r="M40" s="40">
         <f t="shared" si="32"/>
         <v>2.8186613472629567</v>
       </c>
@@ -11743,7 +11743,7 @@
       <c r="Q40" s="30"/>
       <c r="R40" s="30"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -11762,12 +11762,12 @@
       <c r="Q41" s="13"/>
       <c r="R41" s="13"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
@@ -11781,12 +11781,12 @@
       <c r="Q42" s="14"/>
       <c r="R42" s="31"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
@@ -11800,23 +11800,23 @@
       <c r="Q43" s="14"/>
       <c r="R43" s="14"/>
     </row>
-    <row r="44" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A44" s="47" t="s">
+    <row r="44" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="57" t="s">
+      <c r="C44" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="57" t="s">
+      <c r="D44" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="57" t="s">
+      <c r="E44" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="57" t="s">
+      <c r="F44" s="48" t="s">
         <v>25</v>
       </c>
       <c r="H44" s="14"/>
@@ -11830,26 +11830,26 @@
       <c r="Q44" s="14"/>
       <c r="R44" s="14"/>
     </row>
-    <row r="45" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A45" s="47">
+    <row r="45" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="38">
         <v>0</v>
       </c>
-      <c r="B45" s="58">
+      <c r="B45" s="49">
         <f>ABS(C30-M30)</f>
         <v>0</v>
       </c>
-      <c r="C45" s="57">
+      <c r="C45" s="48">
         <v>0</v>
       </c>
-      <c r="D45" s="59">
+      <c r="D45" s="50">
         <f>($M$14 - 1) / (1 - 0)</f>
         <v>1.8186613472629567</v>
       </c>
-      <c r="E45" s="60">
+      <c r="E45" s="51">
         <f>C14</f>
         <v>4.6912535100029134</v>
       </c>
-      <c r="F45" s="60">
+      <c r="F45" s="51">
         <f>ABS(E45 - $M$14)</f>
         <v>1.8725921627399567</v>
       </c>
@@ -11864,26 +11864,26 @@
       <c r="Q45" s="30"/>
       <c r="R45" s="30"/>
     </row>
-    <row r="46" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A46" s="47">
+    <row r="46" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="38">
         <v>1</v>
       </c>
-      <c r="B46" s="58">
+      <c r="B46" s="49">
         <f t="shared" ref="B46:B55" si="36">ABS(C31-M31)</f>
         <v>6.2688889553019767E-7</v>
       </c>
-      <c r="C46" s="57">
+      <c r="C46" s="48">
         <v>1</v>
       </c>
-      <c r="D46" s="59">
+      <c r="D46" s="50">
         <f>($M$14 - 1) / (1 - 0) + 0.5</f>
         <v>2.3186613472629567</v>
       </c>
-      <c r="E46" s="61">
+      <c r="E46" s="52">
         <f>C27</f>
         <v>5.8349369974969054</v>
       </c>
-      <c r="F46" s="60">
+      <c r="F46" s="51">
         <f>ABS(E46 - $M$14)</f>
         <v>3.0162756502339487</v>
       </c>
@@ -11898,26 +11898,26 @@
       <c r="Q46" s="30"/>
       <c r="R46" s="30"/>
     </row>
-    <row r="47" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A47" s="47">
+    <row r="47" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="38">
         <v>2</v>
       </c>
-      <c r="B47" s="58">
+      <c r="B47" s="49">
         <f t="shared" si="36"/>
         <v>1.2291549181253636E-6</v>
       </c>
-      <c r="C47" s="57">
+      <c r="C47" s="48">
         <v>2</v>
       </c>
-      <c r="D47" s="59">
+      <c r="D47" s="50">
         <f>D46-(E46 - $M$14) * (D46 - D45) / (C27-C14)</f>
         <v>0.99999421460935456</v>
       </c>
-      <c r="E47" s="61">
+      <c r="E47" s="52">
         <f>C40</f>
         <v>2.8186613472629585</v>
       </c>
-      <c r="F47" s="60">
+      <c r="F47" s="51">
         <f>ABS(E47 - $M$14)</f>
         <v>1.7763568394002505E-15</v>
       </c>
@@ -11932,18 +11932,18 @@
       <c r="Q47" s="30"/>
       <c r="R47" s="30"/>
     </row>
-    <row r="48" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A48" s="47">
+    <row r="48" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="38">
         <v>3</v>
       </c>
-      <c r="B48" s="58">
+      <c r="B48" s="49">
         <f t="shared" si="36"/>
         <v>1.7734088316179175E-6</v>
       </c>
-      <c r="C48" s="50"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
       <c r="G48" s="26"/>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
@@ -11956,18 +11956,18 @@
       <c r="Q48" s="30"/>
       <c r="R48" s="30"/>
     </row>
-    <row r="49" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A49" s="47">
+    <row r="49" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="38">
         <v>4</v>
       </c>
-      <c r="B49" s="58">
+      <c r="B49" s="49">
         <f t="shared" si="36"/>
         <v>2.2205421724708074E-6</v>
       </c>
-      <c r="C49" s="63"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
       <c r="G49" s="26"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
@@ -11980,18 +11980,18 @@
       <c r="Q49" s="30"/>
       <c r="R49" s="30"/>
     </row>
-    <row r="50" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A50" s="47">
+    <row r="50" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="38">
         <v>5</v>
       </c>
-      <c r="B50" s="58">
+      <c r="B50" s="49">
         <f t="shared" si="36"/>
         <v>2.5257266231815123E-6</v>
       </c>
-      <c r="C50" s="52"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
       <c r="G50" s="26"/>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
@@ -12000,18 +12000,18 @@
       <c r="L50" s="14"/>
       <c r="M50" s="14"/>
     </row>
-    <row r="51" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A51" s="47">
+    <row r="51" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="38">
         <v>6</v>
       </c>
-      <c r="B51" s="58">
+      <c r="B51" s="49">
         <f t="shared" si="36"/>
         <v>2.6386109972520444E-6</v>
       </c>
-      <c r="C51" s="52"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
       <c r="G51" s="26"/>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
@@ -12020,18 +12020,18 @@
       <c r="L51" s="14"/>
       <c r="M51" s="14"/>
     </row>
-    <row r="52" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A52" s="47">
+    <row r="52" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="38">
         <v>7</v>
       </c>
-      <c r="B52" s="58">
+      <c r="B52" s="49">
         <f t="shared" si="36"/>
         <v>2.503760565319979E-6</v>
       </c>
-      <c r="C52" s="52"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
       <c r="G52" s="26"/>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
@@ -12040,18 +12040,18 @@
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
     </row>
-    <row r="53" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A53" s="47">
+    <row r="53" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="38">
         <v>8</v>
       </c>
-      <c r="B53" s="58">
+      <c r="B53" s="49">
         <f t="shared" si="36"/>
         <v>2.061387522456215E-6</v>
       </c>
-      <c r="C53" s="52"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
       <c r="G53" s="26"/>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
@@ -12060,18 +12060,18 @@
       <c r="L53" s="14"/>
       <c r="M53" s="14"/>
     </row>
-    <row r="54" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A54" s="47">
+    <row r="54" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="38">
         <v>9</v>
       </c>
-      <c r="B54" s="58">
+      <c r="B54" s="49">
         <f t="shared" si="36"/>
         <v>1.2484249878319531E-6</v>
       </c>
-      <c r="C54" s="52"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="62"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
       <c r="G54" s="26"/>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
@@ -12080,18 +12080,18 @@
       <c r="L54" s="14"/>
       <c r="M54" s="14"/>
     </row>
-    <row r="55" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="47">
+    <row r="55" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="38">
         <v>10</v>
       </c>
-      <c r="B55" s="58">
+      <c r="B55" s="49">
         <f t="shared" si="36"/>
         <v>1.7763568394002505E-15</v>
       </c>
-      <c r="C55" s="52"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
       <c r="G55" s="26"/>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
@@ -12100,7 +12100,7 @@
       <c r="L55" s="14"/>
       <c r="M55" s="14"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -12115,7 +12115,7 @@
       <c r="L56" s="14"/>
       <c r="M56" s="14"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -12130,7 +12130,7 @@
       <c r="L57" s="14"/>
       <c r="M57" s="14"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -12145,7 +12145,7 @@
       <c r="L58" s="14"/>
       <c r="M58" s="14"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -12160,7 +12160,7 @@
       <c r="L59" s="14"/>
       <c r="M59" s="14"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -12175,7 +12175,7 @@
       <c r="L60" s="14"/>
       <c r="M60" s="14"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -12190,7 +12190,7 @@
       <c r="L61" s="14"/>
       <c r="M61" s="14"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -12205,7 +12205,7 @@
       <c r="L62" s="14"/>
       <c r="M62" s="14"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -12220,7 +12220,7 @@
       <c r="L63" s="14"/>
       <c r="M63" s="14"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -12235,7 +12235,7 @@
       <c r="L64" s="14"/>
       <c r="M64" s="14"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -12250,7 +12250,7 @@
       <c r="L65" s="14"/>
       <c r="M65" s="14"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -12265,7 +12265,7 @@
       <c r="L66" s="14"/>
       <c r="M66" s="14"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
       <c r="J67" s="14"/>
@@ -12273,7 +12273,7 @@
       <c r="L67" s="14"/>
       <c r="M67" s="14"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
@@ -12281,7 +12281,7 @@
       <c r="L68" s="14"/>
       <c r="M68" s="14"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
@@ -12289,7 +12289,7 @@
       <c r="L69" s="14"/>
       <c r="M69" s="14"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
       <c r="J70" s="14"/>
@@ -12297,7 +12297,7 @@
       <c r="L70" s="14"/>
       <c r="M70" s="14"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
@@ -12305,7 +12305,7 @@
       <c r="L71" s="14"/>
       <c r="M71" s="14"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14"/>
@@ -12313,7 +12313,7 @@
       <c r="L72" s="14"/>
       <c r="M72" s="14"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14"/>
@@ -12321,7 +12321,7 @@
       <c r="L73" s="14"/>
       <c r="M73" s="14"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
       <c r="J74" s="14"/>
@@ -12329,7 +12329,7 @@
       <c r="L74" s="14"/>
       <c r="M74" s="14"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14"/>
@@ -12337,7 +12337,7 @@
       <c r="L75" s="14"/>
       <c r="M75" s="14"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
       <c r="J76" s="14"/>
@@ -12345,7 +12345,7 @@
       <c r="L76" s="14"/>
       <c r="M76" s="14"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="14"/>
@@ -12353,7 +12353,7 @@
       <c r="L77" s="14"/>
       <c r="M77" s="14"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
       <c r="J78" s="14"/>
@@ -12361,7 +12361,7 @@
       <c r="L78" s="14"/>
       <c r="M78" s="14"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
       <c r="J79" s="14"/>
@@ -12369,7 +12369,7 @@
       <c r="L79" s="14"/>
       <c r="M79" s="14"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
       <c r="J80" s="14"/>
@@ -12377,7 +12377,7 @@
       <c r="L80" s="14"/>
       <c r="M80" s="14"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -12392,7 +12392,7 @@
       <c r="L81" s="14"/>
       <c r="M81" s="14"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -12407,7 +12407,7 @@
       <c r="L82" s="14"/>
       <c r="M82" s="14"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="13"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -12422,7 +12422,7 @@
       <c r="L83" s="14"/>
       <c r="M83" s="14"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -12437,7 +12437,7 @@
       <c r="L84" s="14"/>
       <c r="M84" s="14"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -12452,7 +12452,7 @@
       <c r="L85" s="14"/>
       <c r="M85" s="14"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="13"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -12467,7 +12467,7 @@
       <c r="L86" s="14"/>
       <c r="M86" s="14"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -12482,7 +12482,7 @@
       <c r="L87" s="14"/>
       <c r="M87" s="14"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -12497,7 +12497,7 @@
       <c r="L88" s="14"/>
       <c r="M88" s="14"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -12512,7 +12512,7 @@
       <c r="L89" s="14"/>
       <c r="M89" s="14"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="13"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -12527,7 +12527,7 @@
       <c r="L90" s="14"/>
       <c r="M90" s="14"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="13"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -12542,7 +12542,7 @@
       <c r="L91" s="14"/>
       <c r="M91" s="14"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="13"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -12557,7 +12557,7 @@
       <c r="L92" s="14"/>
       <c r="M92" s="14"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -12572,7 +12572,7 @@
       <c r="L93" s="14"/>
       <c r="M93" s="14"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="13"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -12587,7 +12587,7 @@
       <c r="L94" s="14"/>
       <c r="M94" s="14"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="13"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -12602,7 +12602,7 @@
       <c r="L95" s="14"/>
       <c r="M95" s="14"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="13"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -12617,7 +12617,7 @@
       <c r="L96" s="14"/>
       <c r="M96" s="14"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="13"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -12632,7 +12632,7 @@
       <c r="L97" s="14"/>
       <c r="M97" s="14"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="13"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -12647,7 +12647,7 @@
       <c r="L98" s="14"/>
       <c r="M98" s="14"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -12662,7 +12662,7 @@
       <c r="L99" s="14"/>
       <c r="M99" s="14"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -12677,7 +12677,7 @@
       <c r="L100" s="14"/>
       <c r="M100" s="14"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -12692,7 +12692,7 @@
       <c r="L101" s="14"/>
       <c r="M101" s="14"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -12707,7 +12707,7 @@
       <c r="L102" s="14"/>
       <c r="M102" s="14"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -12722,370 +12722,370 @@
       <c r="L103" s="14"/>
       <c r="M103" s="14"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="13"/>
       <c r="B118" s="14"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="13"/>
       <c r="B119" s="14"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="13"/>
       <c r="B120" s="14"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
       <c r="B121" s="14"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="13"/>
       <c r="B122" s="14"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="13"/>
       <c r="B123" s="14"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="13"/>
       <c r="B124" s="14"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="13"/>
       <c r="B125" s="14"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="13"/>
       <c r="B126" s="14"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="13"/>
       <c r="B127" s="14"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
       <c r="B128" s="14"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="13"/>
       <c r="B129" s="14"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="13"/>
       <c r="B130" s="14"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="13"/>
       <c r="B131" s="14"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="13"/>
       <c r="B132" s="14"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="13"/>
       <c r="B133" s="14"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="13"/>
       <c r="B134" s="14"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="13"/>
       <c r="B135" s="14"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="13"/>
       <c r="B136" s="14"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="13"/>
       <c r="B137" s="14"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="13"/>
       <c r="B138" s="14"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="13"/>
       <c r="B139" s="14"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="13"/>
       <c r="B140" s="14"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="13"/>
       <c r="B141" s="14"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="13"/>
       <c r="B142" s="14"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="13"/>
       <c r="B143" s="14"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="13"/>
       <c r="B144" s="14"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="13"/>
       <c r="B145" s="14"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="13"/>
       <c r="B146" s="14"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="13"/>
       <c r="B147" s="14"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="13"/>
       <c r="B148" s="14"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="13"/>
       <c r="B149" s="14"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="13"/>
       <c r="B150" s="14"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="13"/>
       <c r="B151" s="14"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="13"/>
       <c r="B152" s="14"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="13"/>
       <c r="B153" s="14"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="13"/>
       <c r="B154" s="14"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="13"/>
       <c r="B155" s="14"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="13"/>
       <c r="B156" s="14"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="13"/>
       <c r="B157" s="14"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="13"/>
       <c r="B158" s="14"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="13"/>
       <c r="B159" s="14"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="13"/>
       <c r="B160" s="14"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="13"/>
       <c r="B161" s="14"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="13"/>
       <c r="B162" s="14"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="13"/>
       <c r="B163" s="14"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="13"/>
       <c r="B164" s="14"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="13"/>
       <c r="B165" s="14"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="13"/>
       <c r="B166" s="14"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="13"/>
       <c r="B167" s="14"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="13"/>
       <c r="B168" s="14"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="13"/>
       <c r="B169" s="14"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="13"/>
       <c r="B170" s="14"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="13"/>
       <c r="B171" s="14"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="13"/>
       <c r="B172" s="14"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="13"/>
       <c r="B173" s="14"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="13"/>
       <c r="B174" s="14"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="13"/>
       <c r="B175" s="14"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="13"/>
       <c r="B176" s="14"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="13"/>
       <c r="B177" s="14"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="13"/>
       <c r="B178" s="14"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="13"/>
       <c r="B179" s="14"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="13"/>
       <c r="B180" s="14"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="13"/>
       <c r="B181" s="14"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="13"/>
       <c r="B182" s="14"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="13"/>
       <c r="B183" s="14"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="13"/>
       <c r="B184" s="14"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="13"/>
       <c r="B185" s="14"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="13"/>
       <c r="B186" s="14"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="13"/>
       <c r="B187" s="14"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="13"/>
       <c r="B188" s="14"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="13"/>
       <c r="B189" s="14"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="13"/>
       <c r="B190" s="14"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="13"/>
       <c r="B191" s="14"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="13"/>
       <c r="B192" s="14"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="13"/>
       <c r="B193" s="14"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="13"/>
       <c r="B194" s="14"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="13"/>
       <c r="B195" s="14"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="13"/>
       <c r="B196" s="14"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="13"/>
       <c r="B197" s="14"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="13"/>
       <c r="B198" s="14"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="13"/>
       <c r="B199" s="14"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="13"/>
       <c r="B200" s="14"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="13"/>
       <c r="B201" s="14"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="13"/>
       <c r="B202" s="14"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="13"/>
       <c r="B203" s="14"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="13"/>
       <c r="B204" s="14"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="13"/>
       <c r="B205" s="14"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="13"/>
       <c r="B206" s="14"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="13"/>
       <c r="B207" s="14"/>
     </row>
@@ -13109,53 +13109,53 @@
       <selection activeCell="BI8" sqref="BI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" customWidth="1"/>
     <col min="17" max="17" width="32" customWidth="1"/>
-    <col min="18" max="18" width="31.88671875" customWidth="1"/>
-    <col min="27" max="27" width="14.109375" customWidth="1"/>
-    <col min="31" max="31" width="31.88671875" customWidth="1"/>
+    <col min="18" max="18" width="31.85546875" customWidth="1"/>
+    <col min="27" max="27" width="14.140625" customWidth="1"/>
+    <col min="31" max="31" width="31.85546875" customWidth="1"/>
     <col min="32" max="32" width="32" customWidth="1"/>
-    <col min="41" max="41" width="14.33203125" customWidth="1"/>
-    <col min="45" max="45" width="32.109375" customWidth="1"/>
+    <col min="41" max="41" width="14.28515625" customWidth="1"/>
+    <col min="45" max="45" width="32.140625" customWidth="1"/>
     <col min="46" max="46" width="32" customWidth="1"/>
     <col min="55" max="55" width="14" customWidth="1"/>
-    <col min="58" max="58" width="25.77734375" customWidth="1"/>
-    <col min="60" max="60" width="19.109375" customWidth="1"/>
-    <col min="61" max="61" width="21.88671875" customWidth="1"/>
-    <col min="62" max="62" width="19.33203125" customWidth="1"/>
+    <col min="58" max="58" width="25.7109375" customWidth="1"/>
+    <col min="60" max="60" width="19.140625" customWidth="1"/>
+    <col min="61" max="61" width="21.85546875" customWidth="1"/>
+    <col min="62" max="62" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
       <c r="C1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
       <c r="M1" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
       <c r="C2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
       <c r="M2" s="27" t="s">
         <v>2</v>
       </c>
@@ -13197,7 +13197,7 @@
       <c r="BT2" s="29"/>
       <c r="BU2" s="29"/>
     </row>
-    <row r="3" spans="1:73" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:73" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
@@ -13367,7 +13367,7 @@
       <c r="BT3" s="29"/>
       <c r="BU3" s="29"/>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -13592,7 +13592,7 @@
       <c r="BT4" s="29"/>
       <c r="BU4" s="29"/>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -13823,7 +13823,7 @@
       <c r="BT5" s="30"/>
       <c r="BU5" s="30"/>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -14060,7 +14060,7 @@
       <c r="BT6" s="30"/>
       <c r="BU6" s="30"/>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -14297,7 +14297,7 @@
       <c r="BT7" s="30"/>
       <c r="BU7" s="30"/>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -14535,7 +14535,7 @@
       <c r="BT8" s="30"/>
       <c r="BU8" s="30"/>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -14762,7 +14762,7 @@
       <c r="BT9" s="30"/>
       <c r="BU9" s="30"/>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -14986,7 +14986,7 @@
       <c r="BP10" s="29"/>
       <c r="BQ10" s="29"/>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -15210,7 +15210,7 @@
       <c r="BP11" s="29"/>
       <c r="BQ11" s="29"/>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -15434,7 +15434,7 @@
       <c r="BP12" s="29"/>
       <c r="BQ12" s="29"/>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -15658,7 +15658,7 @@
       <c r="BP13" s="29"/>
       <c r="BQ13" s="29"/>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -15882,7 +15882,7 @@
       <c r="BP14" s="29"/>
       <c r="BQ14" s="29"/>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -16106,7 +16106,7 @@
       <c r="BP15" s="29"/>
       <c r="BQ15" s="29"/>
     </row>
-    <row r="16" spans="1:73" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:73" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -16330,7 +16330,7 @@
       <c r="BP16" s="29"/>
       <c r="BQ16" s="29"/>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -16554,7 +16554,7 @@
       <c r="BP17" s="29"/>
       <c r="BQ17" s="29"/>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -16778,7 +16778,7 @@
       <c r="BP18" s="29"/>
       <c r="BQ18" s="29"/>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>15</v>
       </c>
@@ -17002,7 +17002,7 @@
       <c r="BP19" s="29"/>
       <c r="BQ19" s="29"/>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>16</v>
       </c>
@@ -17226,7 +17226,7 @@
       <c r="BP20" s="29"/>
       <c r="BQ20" s="29"/>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>17</v>
       </c>
@@ -17450,7 +17450,7 @@
       <c r="BP21" s="29"/>
       <c r="BQ21" s="29"/>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>18</v>
       </c>
@@ -17674,7 +17674,7 @@
       <c r="BP22" s="29"/>
       <c r="BQ22" s="29"/>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>19</v>
       </c>
@@ -17898,7 +17898,7 @@
       <c r="BP23" s="29"/>
       <c r="BQ23" s="29"/>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>20</v>
       </c>
@@ -18122,7 +18122,7 @@
       <c r="BP24" s="29"/>
       <c r="BQ24" s="29"/>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>21</v>
       </c>
@@ -18346,7 +18346,7 @@
       <c r="BP25" s="29"/>
       <c r="BQ25" s="29"/>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>22</v>
       </c>
@@ -18559,7 +18559,7 @@
         <v>2.6699350756658191E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>23</v>
       </c>
@@ -18772,7 +18772,7 @@
         <v>3.0033858715761141E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>24</v>
       </c>
@@ -18985,7 +18985,7 @@
         <v>3.3730158840405977E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:69" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>25</v>
       </c>
@@ -19198,7 +19198,7 @@
         <v>3.7826348975755764E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>26</v>
       </c>
@@ -19411,7 +19411,7 @@
         <v>4.2364463625261806E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>27</v>
       </c>
@@ -19624,7 +19624,7 @@
         <v>4.7390870186632128E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>28</v>
       </c>
@@ -19837,7 +19837,7 @@
         <v>5.2956703322450949E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>29</v>
       </c>
@@ -20050,7 +20050,7 @@
         <v>5.9118340833137495E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>30</v>
       </c>
@@ -20263,7 +20263,7 @@
         <v>6.5937924641019663E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>31</v>
       </c>
@@ -20476,7 +20476,7 @@
         <v>7.3483930747428872E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>32</v>
       </c>
@@ -20689,7 +20689,7 @@
         <v>8.1831792269753123E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>33</v>
       </c>
@@ -20902,7 +20902,7 @@
         <v>9.1064579934254652E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>34</v>
       </c>
@@ -21115,7 +21115,7 @@
         <v>1.0127374463138494E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>35</v>
       </c>
@@ -21328,7 +21328,7 @@
         <v>1.1255992690081484E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>36</v>
       </c>
@@ -21541,7 +21541,7 @@
         <v>1.2503383843153415E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>37</v>
       </c>
@@ -21754,7 +21754,7 @@
         <v>1.3881722086836135E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:58" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:58" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>38</v>
       </c>
@@ -21967,7 +21967,7 @@
         <v>1.5404388738090802E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>39</v>
       </c>
@@ -22180,7 +22180,7 @@
         <v>1.7086085258711137E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>40</v>
       </c>
@@ -22393,7 +22393,7 @@
         <v>1.8942955645997017E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>41</v>
       </c>
@@ -22606,7 +22606,7 @@
         <v>2.0992718786999376E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>42</v>
       </c>
@@ -22819,7 +22819,7 @@
         <v>2.3254811323170088E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>43</v>
       </c>
@@ -23032,7 +23032,7 @@
         <v>2.5750541551190054E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>44</v>
       </c>
@@ -23245,7 +23245,7 @@
         <v>2.8503254843883497E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>45</v>
       </c>
@@ -23458,7 +23458,7 @@
         <v>3.1538511008818659E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>46</v>
       </c>
@@ -23671,7 +23671,7 @@
         <v>3.4884273916702568E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>47</v>
       </c>
@@ -23884,7 +23884,7 @@
         <v>3.8571113615375907E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>48</v>
       </c>
@@ -24097,7 +24097,7 @@
         <v>4.2632420979657581E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>49</v>
       </c>
@@ -24310,7 +24310,7 @@
         <v>4.7104634760557929E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>50</v>
       </c>
@@ -24523,7 +24523,7 @@
         <v>5.2027480618335176E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>51</v>
       </c>
@@ -24736,7 +24736,7 @@
         <v>5.7444221411856233E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>52</v>
       </c>
@@ -24949,7 +24949,7 @@
         <v>6.3401917617284198E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>53</v>
       </c>
@@ -25162,7 +25162,7 @@
         <v>6.9951696218140569E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>54</v>
       </c>
@@ -25375,7 +25375,7 @@
         <v>7.7149025825292483E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>55</v>
       </c>
@@ -25588,7 +25588,7 @@
         <v>8.5053994996997062E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>56</v>
       </c>
@@ -25801,7 +25801,7 @@
         <v>9.3731589829531003E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>57</v>
       </c>
@@ -26014,7 +26014,7 @@
         <v>0.10325196576332019</v>
       </c>
     </row>
-    <row r="62" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>58</v>
       </c>
@@ -26227,7 +26227,7 @@
         <v>0.11369070716500573</v>
       </c>
     </row>
-    <row r="63" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>59</v>
       </c>
@@ -26440,7 +26440,7 @@
         <v>0.12512906672509416</v>
       </c>
     </row>
-    <row r="64" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>60</v>
       </c>
@@ -26653,7 +26653,7 @@
         <v>0.1376541745889881</v>
       </c>
     </row>
-    <row r="65" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>61</v>
       </c>
@@ -26866,7 +26866,7 @@
         <v>0.1513592049568615</v>
       </c>
     </row>
-    <row r="66" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>62</v>
       </c>
@@ -27079,7 +27079,7 @@
         <v>0.16634348499519547</v>
       </c>
     </row>
-    <row r="67" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>63</v>
       </c>
@@ -27292,7 +27292,7 @@
         <v>0.1827125276076913</v>
       </c>
     </row>
-    <row r="68" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>64</v>
       </c>
@@ -27505,7 +27505,7 @@
         <v>0.20057796562923613</v>
       </c>
     </row>
-    <row r="69" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>65</v>
       </c>
@@ -27718,7 +27718,7 @@
         <v>0.22005736020400946</v>
       </c>
     </row>
-    <row r="70" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>66</v>
       </c>
@@ -27931,7 +27931,7 @@
         <v>0.24127385077736108</v>
       </c>
     </row>
-    <row r="71" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>67</v>
       </c>
@@ -28144,7 +28144,7 @@
         <v>0.2643556070397608</v>
       </c>
     </row>
-    <row r="72" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>68</v>
       </c>
@@ -28357,7 +28357,7 @@
         <v>0.28943503572918416</v>
       </c>
     </row>
-    <row r="73" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>69</v>
       </c>
@@ -28570,7 +28570,7 @@
         <v>0.31664768569316948</v>
       </c>
     </row>
-    <row r="74" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>70</v>
       </c>
@@ -28783,7 +28783,7 @@
         <v>0.34613078354595928</v>
       </c>
     </row>
-    <row r="75" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>71</v>
       </c>
@@ -28996,7 +28996,7 @@
         <v>0.37802131961143459</v>
       </c>
     </row>
-    <row r="76" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>72</v>
       </c>
@@ -29209,7 +29209,7 @@
         <v>0.41245358846208546</v>
       </c>
     </row>
-    <row r="77" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>73</v>
       </c>
@@ -29422,7 +29422,7 @@
         <v>0.4495560698233021</v>
       </c>
     </row>
-    <row r="78" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>74</v>
       </c>
@@ -29635,7 +29635,7 @@
         <v>0.48944751560702571</v>
       </c>
     </row>
-    <row r="79" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>75</v>
       </c>
@@ -29848,7 +29848,7 @@
         <v>0.53223208320559934</v>
       </c>
     </row>
-    <row r="80" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>76</v>
       </c>
@@ -30061,7 +30061,7 @@
         <v>0.57799332542344928</v>
       </c>
     </row>
-    <row r="81" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>77</v>
       </c>
@@ -30274,7 +30274,7 @@
         <v>0.62678681481338572</v>
       </c>
     </row>
-    <row r="82" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>78</v>
       </c>
@@ -30487,7 +30487,7 @@
         <v>0.67863113812927622</v>
       </c>
     </row>
-    <row r="83" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>79</v>
       </c>
@@ -30700,7 +30700,7 @@
         <v>0.73349695022625383</v>
       </c>
     </row>
-    <row r="84" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>80</v>
       </c>
@@ -30913,7 +30913,7 @@
         <v>0.79129372206807602</v>
       </c>
     </row>
-    <row r="85" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>81</v>
       </c>
@@ -31126,7 +31126,7 @@
         <v>0.85185375003493391</v>
       </c>
     </row>
-    <row r="86" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>82</v>
       </c>
@@ -31339,7 +31339,7 @@
         <v>0.91491292144928593</v>
       </c>
     </row>
-    <row r="87" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>83</v>
       </c>
@@ -31552,7 +31552,7 @@
         <v>0.98008764020050876</v>
       </c>
     </row>
-    <row r="88" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>84</v>
       </c>
@@ -31765,7 +31765,7 @@
         <v>1.0468472100328654</v>
       </c>
     </row>
-    <row r="89" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>85</v>
       </c>
@@ -31978,7 +31978,7 @@
         <v>1.1144808574172202</v>
       </c>
     </row>
-    <row r="90" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>86</v>
       </c>
@@ -32191,7 +32191,7 @@
         <v>1.1820584267552476</v>
       </c>
     </row>
-    <row r="91" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>87</v>
       </c>
@@ -32404,7 +32404,7 @@
         <v>1.2483836189494468</v>
       </c>
     </row>
-    <row r="92" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>88</v>
       </c>
@@ -32617,7 +32617,7 @@
         <v>1.3119384491583332</v>
       </c>
     </row>
-    <row r="93" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>89</v>
       </c>
@@ -32830,7 +32830,7 @@
         <v>1.3708173669292592</v>
       </c>
     </row>
-    <row r="94" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>90</v>
       </c>
@@ -33043,7 +33043,7 @@
         <v>1.4226492269081064</v>
       </c>
     </row>
-    <row r="95" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>91</v>
       </c>
@@ -33256,7 +33256,7 @@
         <v>1.4645049817627296</v>
       </c>
     </row>
-    <row r="96" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>92</v>
       </c>
@@ -33469,7 +33469,7 @@
         <v>1.4927886012592353</v>
       </c>
     </row>
-    <row r="97" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>93</v>
       </c>
@@ -33682,7 +33682,7 @@
         <v>1.5031083169160411</v>
       </c>
     </row>
-    <row r="98" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>94</v>
       </c>
@@ -33895,7 +33895,7 @@
         <v>1.4901247812667862</v>
       </c>
     </row>
-    <row r="99" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>95</v>
       </c>
@@ -34108,7 +34108,7 @@
         <v>1.4473721649264917</v>
       </c>
     </row>
-    <row r="100" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>96</v>
       </c>
@@ -34321,7 +34321,7 @@
         <v>1.3670475528342649</v>
       </c>
     </row>
-    <row r="101" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>97</v>
       </c>
@@ -34534,7 +34534,7 @@
         <v>1.2397631874773651</v>
       </c>
     </row>
-    <row r="102" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>98</v>
       </c>
@@ -34747,7 +34747,7 @@
         <v>1.0542552478145808</v>
       </c>
     </row>
-    <row r="103" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>99</v>
       </c>
@@ -34960,7 +34960,7 @@
         <v>0.79704175214283168</v>
       </c>
     </row>
-    <row r="104" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>100</v>
       </c>

--- a/Вычислительная математика/Практическая работа 4/Расчёты по практике №4.xlsx
+++ b/Вычислительная математика/Практическая работа 4/Расчёты по практике №4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vladimir\Documents\GitHub\Programming\Вычислительная математика\Практическая работа 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Programming\Вычислительная математика\Практическая работа 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="795" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="792" windowWidth="23256" windowHeight="12576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -4777,8 +4777,8 @@
       <xdr:rowOff>70064</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3841531" cy="361856"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -5120,7 +5120,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -5772,8 +5772,8 @@
       <xdr:rowOff>157005</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3247208" cy="381000"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -6109,7 +6109,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -8927,22 +8927,22 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="8" width="8.42578125" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="8" width="8.44140625" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="31.6640625" customWidth="1"/>
     <col min="11" max="11" width="45" customWidth="1"/>
-    <col min="12" max="12" width="26.5703125" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" customWidth="1"/>
+    <col min="12" max="12" width="26.5546875" customWidth="1"/>
+    <col min="13" max="13" width="46.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="J1" s="10"/>
@@ -8951,7 +8951,7 @@
       </c>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J2" s="59" t="s">
         <v>1</v>
       </c>
@@ -8961,7 +8961,7 @@
       </c>
       <c r="M2" s="13"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -8994,7 +8994,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -9040,7 +9040,7 @@
       </c>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -9090,7 +9090,7 @@
       </c>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -9140,7 +9140,7 @@
       </c>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -9190,7 +9190,7 @@
       </c>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -9240,7 +9240,7 @@
       </c>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -9290,7 +9290,7 @@
       </c>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -9340,7 +9340,7 @@
       </c>
       <c r="M10" s="14"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -9390,7 +9390,7 @@
       </c>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -9440,7 +9440,7 @@
       </c>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -9490,7 +9490,7 @@
       </c>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -9540,14 +9540,14 @@
       </c>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="58" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="58"/>
       <c r="E15" s="58"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>0</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>1</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>1.8209805040303451E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>2</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>3.2989562118168614E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>3</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>4.3336659522164034E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>4</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>4.8562658611639442E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>5</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>4.839295804059951E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>6</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>4.3017248218646387E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>7</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>3.3088162591010661E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>8</v>
       </c>
@@ -9714,7 +9714,7 @@
         <v>1.9669970914362733E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>9</v>
       </c>
@@ -9731,7 +9731,7 @@
         <v>4.1435881253937268E-6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>10</v>
       </c>
@@ -9763,41 +9763,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="37.28515625" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" customWidth="1"/>
-    <col min="4" max="4" width="44.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="38.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" customWidth="1"/>
-    <col min="25" max="25" width="25.85546875" customWidth="1"/>
-    <col min="27" max="27" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" customWidth="1"/>
+    <col min="3" max="3" width="44.109375" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="38.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" customWidth="1"/>
+    <col min="19" max="19" width="10.5546875" customWidth="1"/>
+    <col min="20" max="20" width="9.5546875" customWidth="1"/>
+    <col min="21" max="21" width="10.44140625" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" customWidth="1"/>
+    <col min="23" max="23" width="12.109375" customWidth="1"/>
+    <col min="25" max="25" width="25.88671875" customWidth="1"/>
+    <col min="27" max="27" width="33.44140625" customWidth="1"/>
     <col min="28" max="28" width="35" customWidth="1"/>
-    <col min="37" max="37" width="24.140625" customWidth="1"/>
+    <col min="37" max="37" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="36"/>
       <c r="B1" s="36"/>
       <c r="C1" s="37"/>
@@ -9814,7 +9814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
       <c r="C2" s="55" t="s">
@@ -9833,7 +9833,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="44" t="s">
         <v>3</v>
       </c>
@@ -9872,7 +9872,7 @@
       </c>
       <c r="M3" s="46"/>
     </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="38">
         <v>0</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="38">
         <v>1</v>
       </c>
@@ -9976,7 +9976,7 @@
         <v>0.11068332190079433</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="38">
         <v>2</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>0.24559924723903159</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="38">
         <v>3</v>
       </c>
@@ -10082,7 +10082,7 @@
         <v>0.40934117973355399</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="38">
         <v>4</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>0.60688236188304534</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="38">
         <v>5</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>0.84355004662944555</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="38">
         <v>6</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>1.1249861257133058</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="38">
         <v>7</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>1.4570920864434889</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="38">
         <v>8</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>1.8459560437928282</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="38">
         <v>9</v>
       </c>
@@ -10400,7 +10400,7 @@
         <v>2.2977594920880176</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="38">
         <v>10</v>
       </c>
@@ -10453,7 +10453,7 @@
         <v>2.8186613472629567</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
       <c r="C15" s="42" t="s">
@@ -10470,7 +10470,7 @@
       <c r="L15" s="41"/>
       <c r="M15" s="41"/>
     </row>
-    <row r="16" spans="1:13" ht="26.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="44" t="s">
         <v>3</v>
       </c>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="M16" s="46"/>
     </row>
-    <row r="17" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="38">
         <v>0</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="38">
         <v>1</v>
       </c>
@@ -10613,7 +10613,7 @@
         <v>0.11068332190079433</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="38">
         <v>2</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>0.24559924723903159</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="38">
         <v>3</v>
       </c>
@@ -10719,7 +10719,7 @@
         <v>0.40934117973355399</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="38">
         <v>4</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>0.60688236188304534</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="38">
         <v>5</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>0.84355004662944555</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="38">
         <v>6</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>1.1249861257133058</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="38">
         <v>7</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>1.4570920864434889</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="38">
         <v>8</v>
       </c>
@@ -10984,7 +10984,7 @@
         <v>1.8459560437928282</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="38">
         <v>9</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>2.2977594920880176</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="38">
         <v>10</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>2.8186613472629567</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="41"/>
       <c r="B28" s="41"/>
       <c r="C28" s="42" t="s">
@@ -11107,7 +11107,7 @@
       <c r="L28" s="43"/>
       <c r="M28" s="43"/>
     </row>
-    <row r="29" spans="1:13" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="28.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="44" t="s">
         <v>3</v>
       </c>
@@ -11146,7 +11146,7 @@
       </c>
       <c r="M29" s="46"/>
     </row>
-    <row r="30" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="38">
         <v>0</v>
       </c>
@@ -11197,7 +11197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="38">
         <v>1</v>
       </c>
@@ -11250,7 +11250,7 @@
         <v>0.11068332190079433</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="38">
         <v>2</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>0.24559924723903159</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="38">
         <v>3</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>0.40934117973355399</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="38">
         <v>4</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>0.60688236188304534</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="38">
         <v>5</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>0.84355004662944555</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="38">
         <v>6</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>1.1249861257133058</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="38">
         <v>7</v>
       </c>
@@ -11572,7 +11572,7 @@
       <c r="Q37" s="30"/>
       <c r="R37" s="30"/>
     </row>
-    <row r="38" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="38">
         <v>8</v>
       </c>
@@ -11629,7 +11629,7 @@
       <c r="Q38" s="30"/>
       <c r="R38" s="30"/>
     </row>
-    <row r="39" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="38">
         <v>9</v>
       </c>
@@ -11686,7 +11686,7 @@
       <c r="Q39" s="30"/>
       <c r="R39" s="30"/>
     </row>
-    <row r="40" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="38">
         <v>10</v>
       </c>
@@ -11743,7 +11743,7 @@
       <c r="Q40" s="30"/>
       <c r="R40" s="30"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -11762,7 +11762,7 @@
       <c r="Q41" s="13"/>
       <c r="R41" s="13"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -11781,7 +11781,7 @@
       <c r="Q42" s="14"/>
       <c r="R42" s="31"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -11800,7 +11800,7 @@
       <c r="Q43" s="14"/>
       <c r="R43" s="14"/>
     </row>
-    <row r="44" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="38" t="s">
         <v>3</v>
       </c>
@@ -11830,7 +11830,7 @@
       <c r="Q44" s="14"/>
       <c r="R44" s="14"/>
     </row>
-    <row r="45" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="38">
         <v>0</v>
       </c>
@@ -11864,7 +11864,7 @@
       <c r="Q45" s="30"/>
       <c r="R45" s="30"/>
     </row>
-    <row r="46" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="38">
         <v>1</v>
       </c>
@@ -11898,7 +11898,7 @@
       <c r="Q46" s="30"/>
       <c r="R46" s="30"/>
     </row>
-    <row r="47" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="38">
         <v>2</v>
       </c>
@@ -11932,7 +11932,7 @@
       <c r="Q47" s="30"/>
       <c r="R47" s="30"/>
     </row>
-    <row r="48" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="38">
         <v>3</v>
       </c>
@@ -11956,7 +11956,7 @@
       <c r="Q48" s="30"/>
       <c r="R48" s="30"/>
     </row>
-    <row r="49" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="38">
         <v>4</v>
       </c>
@@ -11980,7 +11980,7 @@
       <c r="Q49" s="30"/>
       <c r="R49" s="30"/>
     </row>
-    <row r="50" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="38">
         <v>5</v>
       </c>
@@ -12000,7 +12000,7 @@
       <c r="L50" s="14"/>
       <c r="M50" s="14"/>
     </row>
-    <row r="51" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="38">
         <v>6</v>
       </c>
@@ -12020,7 +12020,7 @@
       <c r="L51" s="14"/>
       <c r="M51" s="14"/>
     </row>
-    <row r="52" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="38">
         <v>7</v>
       </c>
@@ -12040,7 +12040,7 @@
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
     </row>
-    <row r="53" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="38">
         <v>8</v>
       </c>
@@ -12060,7 +12060,7 @@
       <c r="L53" s="14"/>
       <c r="M53" s="14"/>
     </row>
-    <row r="54" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="38">
         <v>9</v>
       </c>
@@ -12080,7 +12080,7 @@
       <c r="L54" s="14"/>
       <c r="M54" s="14"/>
     </row>
-    <row r="55" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="38">
         <v>10</v>
       </c>
@@ -12100,7 +12100,7 @@
       <c r="L55" s="14"/>
       <c r="M55" s="14"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="13"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -12115,7 +12115,7 @@
       <c r="L56" s="14"/>
       <c r="M56" s="14"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -12130,7 +12130,7 @@
       <c r="L57" s="14"/>
       <c r="M57" s="14"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -12145,7 +12145,7 @@
       <c r="L58" s="14"/>
       <c r="M58" s="14"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="13"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -12160,7 +12160,7 @@
       <c r="L59" s="14"/>
       <c r="M59" s="14"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -12175,7 +12175,7 @@
       <c r="L60" s="14"/>
       <c r="M60" s="14"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -12190,7 +12190,7 @@
       <c r="L61" s="14"/>
       <c r="M61" s="14"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="13"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -12205,7 +12205,7 @@
       <c r="L62" s="14"/>
       <c r="M62" s="14"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="13"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -12220,7 +12220,7 @@
       <c r="L63" s="14"/>
       <c r="M63" s="14"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="13"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -12235,7 +12235,7 @@
       <c r="L64" s="14"/>
       <c r="M64" s="14"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="13"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -12250,7 +12250,7 @@
       <c r="L65" s="14"/>
       <c r="M65" s="14"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="13"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -12265,7 +12265,7 @@
       <c r="L66" s="14"/>
       <c r="M66" s="14"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
       <c r="J67" s="14"/>
@@ -12273,7 +12273,7 @@
       <c r="L67" s="14"/>
       <c r="M67" s="14"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
@@ -12281,7 +12281,7 @@
       <c r="L68" s="14"/>
       <c r="M68" s="14"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
@@ -12289,7 +12289,7 @@
       <c r="L69" s="14"/>
       <c r="M69" s="14"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
       <c r="J70" s="14"/>
@@ -12297,7 +12297,7 @@
       <c r="L70" s="14"/>
       <c r="M70" s="14"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
@@ -12305,7 +12305,7 @@
       <c r="L71" s="14"/>
       <c r="M71" s="14"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14"/>
@@ -12313,7 +12313,7 @@
       <c r="L72" s="14"/>
       <c r="M72" s="14"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14"/>
@@ -12321,7 +12321,7 @@
       <c r="L73" s="14"/>
       <c r="M73" s="14"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
       <c r="J74" s="14"/>
@@ -12329,7 +12329,7 @@
       <c r="L74" s="14"/>
       <c r="M74" s="14"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14"/>
@@ -12337,7 +12337,7 @@
       <c r="L75" s="14"/>
       <c r="M75" s="14"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
       <c r="J76" s="14"/>
@@ -12345,7 +12345,7 @@
       <c r="L76" s="14"/>
       <c r="M76" s="14"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="14"/>
@@ -12353,7 +12353,7 @@
       <c r="L77" s="14"/>
       <c r="M77" s="14"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
       <c r="J78" s="14"/>
@@ -12361,7 +12361,7 @@
       <c r="L78" s="14"/>
       <c r="M78" s="14"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
       <c r="J79" s="14"/>
@@ -12369,7 +12369,7 @@
       <c r="L79" s="14"/>
       <c r="M79" s="14"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
       <c r="J80" s="14"/>
@@ -12377,7 +12377,7 @@
       <c r="L80" s="14"/>
       <c r="M80" s="14"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="13"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -12392,7 +12392,7 @@
       <c r="L81" s="14"/>
       <c r="M81" s="14"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="13"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -12407,7 +12407,7 @@
       <c r="L82" s="14"/>
       <c r="M82" s="14"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="13"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -12422,7 +12422,7 @@
       <c r="L83" s="14"/>
       <c r="M83" s="14"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="13"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -12437,7 +12437,7 @@
       <c r="L84" s="14"/>
       <c r="M84" s="14"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="13"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -12452,7 +12452,7 @@
       <c r="L85" s="14"/>
       <c r="M85" s="14"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="13"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -12467,7 +12467,7 @@
       <c r="L86" s="14"/>
       <c r="M86" s="14"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="13"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -12482,7 +12482,7 @@
       <c r="L87" s="14"/>
       <c r="M87" s="14"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="13"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -12497,7 +12497,7 @@
       <c r="L88" s="14"/>
       <c r="M88" s="14"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -12512,7 +12512,7 @@
       <c r="L89" s="14"/>
       <c r="M89" s="14"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="13"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -12527,7 +12527,7 @@
       <c r="L90" s="14"/>
       <c r="M90" s="14"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="13"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -12542,7 +12542,7 @@
       <c r="L91" s="14"/>
       <c r="M91" s="14"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="13"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -12557,7 +12557,7 @@
       <c r="L92" s="14"/>
       <c r="M92" s="14"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="13"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -12572,7 +12572,7 @@
       <c r="L93" s="14"/>
       <c r="M93" s="14"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="13"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -12587,7 +12587,7 @@
       <c r="L94" s="14"/>
       <c r="M94" s="14"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="13"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -12602,7 +12602,7 @@
       <c r="L95" s="14"/>
       <c r="M95" s="14"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="13"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -12617,7 +12617,7 @@
       <c r="L96" s="14"/>
       <c r="M96" s="14"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="13"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -12632,7 +12632,7 @@
       <c r="L97" s="14"/>
       <c r="M97" s="14"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="13"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -12647,7 +12647,7 @@
       <c r="L98" s="14"/>
       <c r="M98" s="14"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="13"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -12662,7 +12662,7 @@
       <c r="L99" s="14"/>
       <c r="M99" s="14"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="13"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -12677,7 +12677,7 @@
       <c r="L100" s="14"/>
       <c r="M100" s="14"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="13"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -12692,7 +12692,7 @@
       <c r="L101" s="14"/>
       <c r="M101" s="14"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="13"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -12707,7 +12707,7 @@
       <c r="L102" s="14"/>
       <c r="M102" s="14"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="13"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -12722,370 +12722,370 @@
       <c r="L103" s="14"/>
       <c r="M103" s="14"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="13"/>
       <c r="B118" s="14"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="13"/>
       <c r="B119" s="14"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="13"/>
       <c r="B120" s="14"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="13"/>
       <c r="B121" s="14"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="13"/>
       <c r="B122" s="14"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="13"/>
       <c r="B123" s="14"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="13"/>
       <c r="B124" s="14"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="13"/>
       <c r="B125" s="14"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="13"/>
       <c r="B126" s="14"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="13"/>
       <c r="B127" s="14"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="13"/>
       <c r="B128" s="14"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="13"/>
       <c r="B129" s="14"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="13"/>
       <c r="B130" s="14"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="13"/>
       <c r="B131" s="14"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="13"/>
       <c r="B132" s="14"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="13"/>
       <c r="B133" s="14"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="13"/>
       <c r="B134" s="14"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="13"/>
       <c r="B135" s="14"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="13"/>
       <c r="B136" s="14"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="13"/>
       <c r="B137" s="14"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="13"/>
       <c r="B138" s="14"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="13"/>
       <c r="B139" s="14"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="13"/>
       <c r="B140" s="14"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="13"/>
       <c r="B141" s="14"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="13"/>
       <c r="B142" s="14"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="13"/>
       <c r="B143" s="14"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="13"/>
       <c r="B144" s="14"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="13"/>
       <c r="B145" s="14"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="13"/>
       <c r="B146" s="14"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="13"/>
       <c r="B147" s="14"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="13"/>
       <c r="B148" s="14"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="13"/>
       <c r="B149" s="14"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="13"/>
       <c r="B150" s="14"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="13"/>
       <c r="B151" s="14"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="13"/>
       <c r="B152" s="14"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="13"/>
       <c r="B153" s="14"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="13"/>
       <c r="B154" s="14"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="13"/>
       <c r="B155" s="14"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="13"/>
       <c r="B156" s="14"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="13"/>
       <c r="B157" s="14"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="13"/>
       <c r="B158" s="14"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="13"/>
       <c r="B159" s="14"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="13"/>
       <c r="B160" s="14"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="13"/>
       <c r="B161" s="14"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="13"/>
       <c r="B162" s="14"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="13"/>
       <c r="B163" s="14"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="13"/>
       <c r="B164" s="14"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="13"/>
       <c r="B165" s="14"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="13"/>
       <c r="B166" s="14"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="13"/>
       <c r="B167" s="14"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="13"/>
       <c r="B168" s="14"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="13"/>
       <c r="B169" s="14"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="13"/>
       <c r="B170" s="14"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="13"/>
       <c r="B171" s="14"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="13"/>
       <c r="B172" s="14"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="13"/>
       <c r="B173" s="14"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="13"/>
       <c r="B174" s="14"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="13"/>
       <c r="B175" s="14"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="13"/>
       <c r="B176" s="14"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="13"/>
       <c r="B177" s="14"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="13"/>
       <c r="B178" s="14"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="13"/>
       <c r="B179" s="14"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="13"/>
       <c r="B180" s="14"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="13"/>
       <c r="B181" s="14"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="13"/>
       <c r="B182" s="14"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="13"/>
       <c r="B183" s="14"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="13"/>
       <c r="B184" s="14"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="13"/>
       <c r="B185" s="14"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="13"/>
       <c r="B186" s="14"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="13"/>
       <c r="B187" s="14"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="13"/>
       <c r="B188" s="14"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="13"/>
       <c r="B189" s="14"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="13"/>
       <c r="B190" s="14"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="13"/>
       <c r="B191" s="14"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="13"/>
       <c r="B192" s="14"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="13"/>
       <c r="B193" s="14"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="13"/>
       <c r="B194" s="14"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="13"/>
       <c r="B195" s="14"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="13"/>
       <c r="B196" s="14"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="13"/>
       <c r="B197" s="14"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="13"/>
       <c r="B198" s="14"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="13"/>
       <c r="B199" s="14"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="13"/>
       <c r="B200" s="14"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="13"/>
       <c r="B201" s="14"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="13"/>
       <c r="B202" s="14"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="13"/>
       <c r="B203" s="14"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="13"/>
       <c r="B204" s="14"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="13"/>
       <c r="B205" s="14"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="13"/>
       <c r="B206" s="14"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="13"/>
       <c r="B207" s="14"/>
     </row>
@@ -13109,33 +13109,33 @@
       <selection activeCell="BI8" sqref="BI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" customWidth="1"/>
     <col min="17" max="17" width="32" customWidth="1"/>
-    <col min="18" max="18" width="31.85546875" customWidth="1"/>
-    <col min="27" max="27" width="14.140625" customWidth="1"/>
-    <col min="31" max="31" width="31.85546875" customWidth="1"/>
+    <col min="18" max="18" width="31.88671875" customWidth="1"/>
+    <col min="27" max="27" width="14.109375" customWidth="1"/>
+    <col min="31" max="31" width="31.88671875" customWidth="1"/>
     <col min="32" max="32" width="32" customWidth="1"/>
-    <col min="41" max="41" width="14.28515625" customWidth="1"/>
-    <col min="45" max="45" width="32.140625" customWidth="1"/>
+    <col min="41" max="41" width="14.33203125" customWidth="1"/>
+    <col min="45" max="45" width="32.109375" customWidth="1"/>
     <col min="46" max="46" width="32" customWidth="1"/>
     <col min="55" max="55" width="14" customWidth="1"/>
-    <col min="58" max="58" width="25.7109375" customWidth="1"/>
-    <col min="60" max="60" width="19.140625" customWidth="1"/>
-    <col min="61" max="61" width="21.85546875" customWidth="1"/>
-    <col min="62" max="62" width="19.28515625" customWidth="1"/>
+    <col min="58" max="58" width="25.6640625" customWidth="1"/>
+    <col min="60" max="60" width="19.109375" customWidth="1"/>
+    <col min="61" max="61" width="21.88671875" customWidth="1"/>
+    <col min="62" max="62" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
       <c r="C1" s="6"/>
       <c r="E1" s="6"/>
       <c r="H1" s="65"/>
@@ -13147,7 +13147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
       <c r="C2" s="22" t="s">
         <v>20</v>
       </c>
@@ -13197,7 +13197,7 @@
       <c r="BT2" s="29"/>
       <c r="BU2" s="29"/>
     </row>
-    <row r="3" spans="1:73" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:73" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
@@ -13367,7 +13367,7 @@
       <c r="BT3" s="29"/>
       <c r="BU3" s="29"/>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -13592,7 +13592,7 @@
       <c r="BT4" s="29"/>
       <c r="BU4" s="29"/>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -13823,7 +13823,7 @@
       <c r="BT5" s="30"/>
       <c r="BU5" s="30"/>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -14060,7 +14060,7 @@
       <c r="BT6" s="30"/>
       <c r="BU6" s="30"/>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -14297,7 +14297,7 @@
       <c r="BT7" s="30"/>
       <c r="BU7" s="30"/>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -14535,7 +14535,7 @@
       <c r="BT8" s="30"/>
       <c r="BU8" s="30"/>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -14762,7 +14762,7 @@
       <c r="BT9" s="30"/>
       <c r="BU9" s="30"/>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -14986,7 +14986,7 @@
       <c r="BP10" s="29"/>
       <c r="BQ10" s="29"/>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -15210,7 +15210,7 @@
       <c r="BP11" s="29"/>
       <c r="BQ11" s="29"/>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -15434,7 +15434,7 @@
       <c r="BP12" s="29"/>
       <c r="BQ12" s="29"/>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -15658,7 +15658,7 @@
       <c r="BP13" s="29"/>
       <c r="BQ13" s="29"/>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -15882,7 +15882,7 @@
       <c r="BP14" s="29"/>
       <c r="BQ14" s="29"/>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -16106,7 +16106,7 @@
       <c r="BP15" s="29"/>
       <c r="BQ15" s="29"/>
     </row>
-    <row r="16" spans="1:73" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:73" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -16330,7 +16330,7 @@
       <c r="BP16" s="29"/>
       <c r="BQ16" s="29"/>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -16554,7 +16554,7 @@
       <c r="BP17" s="29"/>
       <c r="BQ17" s="29"/>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -16778,7 +16778,7 @@
       <c r="BP18" s="29"/>
       <c r="BQ18" s="29"/>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>15</v>
       </c>
@@ -17002,7 +17002,7 @@
       <c r="BP19" s="29"/>
       <c r="BQ19" s="29"/>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>16</v>
       </c>
@@ -17226,7 +17226,7 @@
       <c r="BP20" s="29"/>
       <c r="BQ20" s="29"/>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>17</v>
       </c>
@@ -17450,7 +17450,7 @@
       <c r="BP21" s="29"/>
       <c r="BQ21" s="29"/>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>18</v>
       </c>
@@ -17674,7 +17674,7 @@
       <c r="BP22" s="29"/>
       <c r="BQ22" s="29"/>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>19</v>
       </c>
@@ -17898,7 +17898,7 @@
       <c r="BP23" s="29"/>
       <c r="BQ23" s="29"/>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>20</v>
       </c>
@@ -18122,7 +18122,7 @@
       <c r="BP24" s="29"/>
       <c r="BQ24" s="29"/>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>21</v>
       </c>
@@ -18346,7 +18346,7 @@
       <c r="BP25" s="29"/>
       <c r="BQ25" s="29"/>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>22</v>
       </c>
@@ -18559,7 +18559,7 @@
         <v>2.6699350756658191E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>23</v>
       </c>
@@ -18772,7 +18772,7 @@
         <v>3.0033858715761141E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>24</v>
       </c>
@@ -18985,7 +18985,7 @@
         <v>3.3730158840405977E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:69" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:69" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>25</v>
       </c>
@@ -19198,7 +19198,7 @@
         <v>3.7826348975755764E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>26</v>
       </c>
@@ -19411,7 +19411,7 @@
         <v>4.2364463625261806E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>27</v>
       </c>
@@ -19624,7 +19624,7 @@
         <v>4.7390870186632128E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>28</v>
       </c>
@@ -19837,7 +19837,7 @@
         <v>5.2956703322450949E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>29</v>
       </c>
@@ -20050,7 +20050,7 @@
         <v>5.9118340833137495E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>30</v>
       </c>
@@ -20263,7 +20263,7 @@
         <v>6.5937924641019663E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>31</v>
       </c>
@@ -20476,7 +20476,7 @@
         <v>7.3483930747428872E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>32</v>
       </c>
@@ -20689,7 +20689,7 @@
         <v>8.1831792269753123E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>33</v>
       </c>
@@ -20902,7 +20902,7 @@
         <v>9.1064579934254652E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>34</v>
       </c>
@@ -21115,7 +21115,7 @@
         <v>1.0127374463138494E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>35</v>
       </c>
@@ -21328,7 +21328,7 @@
         <v>1.1255992690081484E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>36</v>
       </c>
@@ -21541,7 +21541,7 @@
         <v>1.2503383843153415E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>37</v>
       </c>
@@ -21754,7 +21754,7 @@
         <v>1.3881722086836135E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:58" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:58" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>38</v>
       </c>
@@ -21967,7 +21967,7 @@
         <v>1.5404388738090802E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>39</v>
       </c>
@@ -22180,7 +22180,7 @@
         <v>1.7086085258711137E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>40</v>
       </c>
@@ -22393,7 +22393,7 @@
         <v>1.8942955645997017E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>41</v>
       </c>
@@ -22606,7 +22606,7 @@
         <v>2.0992718786999376E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>42</v>
       </c>
@@ -22819,7 +22819,7 @@
         <v>2.3254811323170088E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>43</v>
       </c>
@@ -23032,7 +23032,7 @@
         <v>2.5750541551190054E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>44</v>
       </c>
@@ -23245,7 +23245,7 @@
         <v>2.8503254843883497E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>45</v>
       </c>
@@ -23458,7 +23458,7 @@
         <v>3.1538511008818659E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>46</v>
       </c>
@@ -23671,7 +23671,7 @@
         <v>3.4884273916702568E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>47</v>
       </c>
@@ -23884,7 +23884,7 @@
         <v>3.8571113615375907E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>48</v>
       </c>
@@ -24097,7 +24097,7 @@
         <v>4.2632420979657581E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>49</v>
       </c>
@@ -24310,7 +24310,7 @@
         <v>4.7104634760557929E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>50</v>
       </c>
@@ -24523,7 +24523,7 @@
         <v>5.2027480618335176E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>51</v>
       </c>
@@ -24736,7 +24736,7 @@
         <v>5.7444221411856233E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>52</v>
       </c>
@@ -24949,7 +24949,7 @@
         <v>6.3401917617284198E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>53</v>
       </c>
@@ -25162,7 +25162,7 @@
         <v>6.9951696218140569E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>54</v>
       </c>
@@ -25375,7 +25375,7 @@
         <v>7.7149025825292483E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>55</v>
       </c>
@@ -25588,7 +25588,7 @@
         <v>8.5053994996997062E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>56</v>
       </c>
@@ -25801,7 +25801,7 @@
         <v>9.3731589829531003E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>57</v>
       </c>
@@ -26014,7 +26014,7 @@
         <v>0.10325196576332019</v>
       </c>
     </row>
-    <row r="62" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>58</v>
       </c>
@@ -26227,7 +26227,7 @@
         <v>0.11369070716500573</v>
       </c>
     </row>
-    <row r="63" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>59</v>
       </c>
@@ -26440,7 +26440,7 @@
         <v>0.12512906672509416</v>
       </c>
     </row>
-    <row r="64" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>60</v>
       </c>
@@ -26653,7 +26653,7 @@
         <v>0.1376541745889881</v>
       </c>
     </row>
-    <row r="65" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>61</v>
       </c>
@@ -26866,7 +26866,7 @@
         <v>0.1513592049568615</v>
       </c>
     </row>
-    <row r="66" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>62</v>
       </c>
@@ -27079,7 +27079,7 @@
         <v>0.16634348499519547</v>
       </c>
     </row>
-    <row r="67" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>63</v>
       </c>
@@ -27292,7 +27292,7 @@
         <v>0.1827125276076913</v>
       </c>
     </row>
-    <row r="68" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>64</v>
       </c>
@@ -27505,7 +27505,7 @@
         <v>0.20057796562923613</v>
       </c>
     </row>
-    <row r="69" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>65</v>
       </c>
@@ -27718,7 +27718,7 @@
         <v>0.22005736020400946</v>
       </c>
     </row>
-    <row r="70" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>66</v>
       </c>
@@ -27931,7 +27931,7 @@
         <v>0.24127385077736108</v>
       </c>
     </row>
-    <row r="71" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>67</v>
       </c>
@@ -28144,7 +28144,7 @@
         <v>0.2643556070397608</v>
       </c>
     </row>
-    <row r="72" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>68</v>
       </c>
@@ -28357,7 +28357,7 @@
         <v>0.28943503572918416</v>
       </c>
     </row>
-    <row r="73" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>69</v>
       </c>
@@ -28570,7 +28570,7 @@
         <v>0.31664768569316948</v>
       </c>
     </row>
-    <row r="74" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>70</v>
       </c>
@@ -28783,7 +28783,7 @@
         <v>0.34613078354595928</v>
       </c>
     </row>
-    <row r="75" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>71</v>
       </c>
@@ -28996,7 +28996,7 @@
         <v>0.37802131961143459</v>
       </c>
     </row>
-    <row r="76" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>72</v>
       </c>
@@ -29209,7 +29209,7 @@
         <v>0.41245358846208546</v>
       </c>
     </row>
-    <row r="77" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>73</v>
       </c>
@@ -29422,7 +29422,7 @@
         <v>0.4495560698233021</v>
       </c>
     </row>
-    <row r="78" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>74</v>
       </c>
@@ -29635,7 +29635,7 @@
         <v>0.48944751560702571</v>
       </c>
     </row>
-    <row r="79" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>75</v>
       </c>
@@ -29848,7 +29848,7 @@
         <v>0.53223208320559934</v>
       </c>
     </row>
-    <row r="80" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>76</v>
       </c>
@@ -30061,7 +30061,7 @@
         <v>0.57799332542344928</v>
       </c>
     </row>
-    <row r="81" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>77</v>
       </c>
@@ -30274,7 +30274,7 @@
         <v>0.62678681481338572</v>
       </c>
     </row>
-    <row r="82" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>78</v>
       </c>
@@ -30487,7 +30487,7 @@
         <v>0.67863113812927622</v>
       </c>
     </row>
-    <row r="83" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>79</v>
       </c>
@@ -30700,7 +30700,7 @@
         <v>0.73349695022625383</v>
       </c>
     </row>
-    <row r="84" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>80</v>
       </c>
@@ -30913,7 +30913,7 @@
         <v>0.79129372206807602</v>
       </c>
     </row>
-    <row r="85" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>81</v>
       </c>
@@ -31126,7 +31126,7 @@
         <v>0.85185375003493391</v>
       </c>
     </row>
-    <row r="86" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>82</v>
       </c>
@@ -31339,7 +31339,7 @@
         <v>0.91491292144928593</v>
       </c>
     </row>
-    <row r="87" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>83</v>
       </c>
@@ -31552,7 +31552,7 @@
         <v>0.98008764020050876</v>
       </c>
     </row>
-    <row r="88" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>84</v>
       </c>
@@ -31765,7 +31765,7 @@
         <v>1.0468472100328654</v>
       </c>
     </row>
-    <row r="89" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>85</v>
       </c>
@@ -31978,7 +31978,7 @@
         <v>1.1144808574172202</v>
       </c>
     </row>
-    <row r="90" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>86</v>
       </c>
@@ -32191,7 +32191,7 @@
         <v>1.1820584267552476</v>
       </c>
     </row>
-    <row r="91" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>87</v>
       </c>
@@ -32404,7 +32404,7 @@
         <v>1.2483836189494468</v>
       </c>
     </row>
-    <row r="92" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>88</v>
       </c>
@@ -32617,7 +32617,7 @@
         <v>1.3119384491583332</v>
       </c>
     </row>
-    <row r="93" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>89</v>
       </c>
@@ -32830,7 +32830,7 @@
         <v>1.3708173669292592</v>
       </c>
     </row>
-    <row r="94" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>90</v>
       </c>
@@ -33043,7 +33043,7 @@
         <v>1.4226492269081064</v>
       </c>
     </row>
-    <row r="95" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>91</v>
       </c>
@@ -33256,7 +33256,7 @@
         <v>1.4645049817627296</v>
       </c>
     </row>
-    <row r="96" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>92</v>
       </c>
@@ -33469,7 +33469,7 @@
         <v>1.4927886012592353</v>
       </c>
     </row>
-    <row r="97" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>93</v>
       </c>
@@ -33682,7 +33682,7 @@
         <v>1.5031083169160411</v>
       </c>
     </row>
-    <row r="98" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>94</v>
       </c>
@@ -33895,7 +33895,7 @@
         <v>1.4901247812667862</v>
       </c>
     </row>
-    <row r="99" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>95</v>
       </c>
@@ -34108,7 +34108,7 @@
         <v>1.4473721649264917</v>
       </c>
     </row>
-    <row r="100" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>96</v>
       </c>
@@ -34321,7 +34321,7 @@
         <v>1.3670475528342649</v>
       </c>
     </row>
-    <row r="101" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>97</v>
       </c>
@@ -34534,7 +34534,7 @@
         <v>1.2397631874773651</v>
       </c>
     </row>
-    <row r="102" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>98</v>
       </c>
@@ -34747,7 +34747,7 @@
         <v>1.0542552478145808</v>
       </c>
     </row>
-    <row r="103" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>99</v>
       </c>
@@ -34960,7 +34960,7 @@
         <v>0.79704175214283168</v>
       </c>
     </row>
-    <row r="104" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>100</v>
       </c>
